--- a/Code/Results/Cases/Case_1_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3710339303984114</v>
+        <v>0.3710339303982977</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01902215312739841</v>
+        <v>0.01902215312751565</v>
       </c>
       <c r="E2">
-        <v>0.01386892437322107</v>
+        <v>0.01386892437323572</v>
       </c>
       <c r="F2">
-        <v>2.389032054912121</v>
+        <v>2.389032054912136</v>
       </c>
       <c r="G2">
-        <v>1.894435545852645</v>
+        <v>1.894435545852659</v>
       </c>
       <c r="H2">
-        <v>0.1970305213638301</v>
+        <v>0.1970305213638586</v>
       </c>
       <c r="I2">
-        <v>0.01040345512895913</v>
+        <v>0.01040345512895957</v>
       </c>
       <c r="J2">
-        <v>3.623730423516406</v>
+        <v>3.623730423516378</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.429905819286418</v>
+        <v>2.429905819286432</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,25 +456,25 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01550545441003948</v>
+        <v>0.01550545441004303</v>
       </c>
       <c r="E3">
-        <v>0.01516883690702642</v>
+        <v>0.01516883690702775</v>
       </c>
       <c r="F3">
-        <v>2.067189683588026</v>
+        <v>2.06718968358804</v>
       </c>
       <c r="G3">
-        <v>1.636734907044982</v>
+        <v>1.636734907044968</v>
       </c>
       <c r="H3">
-        <v>0.2134121922861407</v>
+        <v>0.2134121922861443</v>
       </c>
       <c r="I3">
-        <v>0.01146935074526079</v>
+        <v>0.01146935074524968</v>
       </c>
       <c r="J3">
-        <v>3.125068251355941</v>
+        <v>3.125068251355927</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2934681856394548</v>
+        <v>0.2934681856394405</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01354932369275375</v>
+        <v>0.0135493236929527</v>
       </c>
       <c r="E4">
-        <v>0.01602627643597265</v>
+        <v>0.01602627643601062</v>
       </c>
       <c r="F4">
-        <v>1.879481416411537</v>
+        <v>1.879481416411508</v>
       </c>
       <c r="G4">
-        <v>1.486684277569793</v>
+        <v>1.486684277569779</v>
       </c>
       <c r="H4">
         <v>0.2244566477808849</v>
       </c>
       <c r="I4">
-        <v>0.01223907372060218</v>
+        <v>0.01223907372062705</v>
       </c>
       <c r="J4">
-        <v>2.823521616486616</v>
+        <v>2.823521616486588</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.88773300004263</v>
+        <v>1.887733000042616</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2814716126273566</v>
+        <v>0.2814716126271293</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01279545477503063</v>
+        <v>0.01279545477514077</v>
       </c>
       <c r="E5">
-        <v>0.01638996540850979</v>
+        <v>0.0163899654085109</v>
       </c>
       <c r="F5">
         <v>1.805139562239049</v>
@@ -544,13 +544,13 @@
         <v>1.427312151131943</v>
       </c>
       <c r="H5">
-        <v>0.2291918164732696</v>
+        <v>0.2291918164732714</v>
       </c>
       <c r="I5">
-        <v>0.01257932039042675</v>
+        <v>0.01257932039044007</v>
       </c>
       <c r="J5">
-        <v>2.701583337938231</v>
+        <v>2.70158333793826</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2794800395976296</v>
+        <v>0.2794800395975017</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01267268032079016</v>
+        <v>0.01267268032068003</v>
       </c>
       <c r="E6">
-        <v>0.01645120058089833</v>
+        <v>0.01645120058089566</v>
       </c>
       <c r="F6">
-        <v>1.792915903822816</v>
+        <v>1.792915903822802</v>
       </c>
       <c r="G6">
-        <v>1.417553053189323</v>
+        <v>1.417553053189351</v>
       </c>
       <c r="H6">
-        <v>0.2299918797663416</v>
+        <v>0.2299918797663398</v>
       </c>
       <c r="I6">
-        <v>0.01263735823765844</v>
+        <v>0.01263735823765755</v>
       </c>
       <c r="J6">
-        <v>2.681386680693777</v>
+        <v>2.681386680693819</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.791724304605594</v>
+        <v>1.79172430460558</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2933063615744231</v>
+        <v>0.2933063615742952</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01353899110971213</v>
+        <v>0.01353899110970858</v>
       </c>
       <c r="E7">
-        <v>0.01603112426188535</v>
+        <v>0.01603112426188336</v>
       </c>
       <c r="F7">
         <v>1.878470526606549</v>
       </c>
       <c r="G7">
-        <v>1.485876725951826</v>
+        <v>1.485876725951812</v>
       </c>
       <c r="H7">
-        <v>0.2245195754273848</v>
+        <v>0.2245195754274132</v>
       </c>
       <c r="I7">
-        <v>0.01224355776906672</v>
+        <v>0.01224355776907693</v>
       </c>
       <c r="J7">
-        <v>2.821873562255277</v>
+        <v>2.821873562255263</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.886619242791355</v>
+        <v>1.886619242791369</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.354429841022764</v>
+        <v>0.3544298410227356</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0177623805000664</v>
+        <v>0.01776238050005574</v>
       </c>
       <c r="E8">
-        <v>0.01430442708661706</v>
+        <v>0.01430442708661606</v>
       </c>
       <c r="F8">
-        <v>2.275786861684082</v>
+        <v>2.275786861684068</v>
       </c>
       <c r="G8">
         <v>1.803701708281721</v>
       </c>
       <c r="H8">
-        <v>0.2024657134968528</v>
+        <v>0.2024657134968777</v>
       </c>
       <c r="I8">
         <v>0.01074551575614846</v>
       </c>
       <c r="J8">
-        <v>3.450687801639788</v>
+        <v>3.450687801639731</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.312436856443355</v>
+        <v>2.312436856443313</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4752079394892235</v>
+        <v>0.4752079394892093</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0280771685911354</v>
+        <v>0.02807716859136633</v>
       </c>
       <c r="E9">
-        <v>0.01142122926253752</v>
+        <v>0.01142122926256772</v>
       </c>
       <c r="F9">
-        <v>3.151499544579139</v>
+        <v>3.15149954457911</v>
       </c>
       <c r="G9">
-        <v>2.506787356729589</v>
+        <v>2.506787356729575</v>
       </c>
       <c r="H9">
-        <v>0.1677306262875291</v>
+        <v>0.1677306262875327</v>
       </c>
       <c r="I9">
-        <v>0.008848084789591759</v>
+        <v>0.00884808478960597</v>
       </c>
       <c r="J9">
-        <v>4.732306531024932</v>
+        <v>4.732306531024904</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.185139466064172</v>
+        <v>3.185139466064157</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5650988896796605</v>
+        <v>0.5650988896796321</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03762189234826252</v>
+        <v>0.03762189234813462</v>
       </c>
       <c r="E10">
-        <v>0.009662241809093919</v>
+        <v>0.009662241809095917</v>
       </c>
       <c r="F10">
         <v>3.88416327254933</v>
       </c>
       <c r="G10">
-        <v>3.097281979409459</v>
+        <v>3.097281979409445</v>
       </c>
       <c r="H10">
         <v>0.1485121501116247</v>
       </c>
       <c r="I10">
-        <v>0.008297524232849796</v>
+        <v>0.008297524232865783</v>
       </c>
       <c r="J10">
-        <v>5.72338709801565</v>
+        <v>5.723387098015621</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3.863945504828294</v>
+        <v>3.863945504828266</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -760,22 +760,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.042608642243124</v>
+        <v>0.04260864224294636</v>
       </c>
       <c r="E11">
-        <v>0.008954675761091879</v>
+        <v>0.008954675761108311</v>
       </c>
       <c r="F11">
         <v>4.245681178753642</v>
       </c>
       <c r="G11">
-        <v>3.389314031734742</v>
+        <v>3.38931403173477</v>
       </c>
       <c r="H11">
-        <v>0.1414415261288582</v>
+        <v>0.1414415261288617</v>
       </c>
       <c r="I11">
-        <v>0.008289950262962975</v>
+        <v>0.00828995026296564</v>
       </c>
       <c r="J11">
         <v>6.190765824953388</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.185163412031812</v>
+        <v>4.185163412031827</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6221240622240032</v>
+        <v>0.6221240622239179</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04461387085590474</v>
+        <v>0.04461387085604684</v>
       </c>
       <c r="E12">
-        <v>0.008701581700178096</v>
+        <v>0.008701581700178984</v>
       </c>
       <c r="F12">
-        <v>4.387591330983611</v>
+        <v>4.387591330983582</v>
       </c>
       <c r="G12">
-        <v>3.504060939034972</v>
+        <v>3.504060939034986</v>
       </c>
       <c r="H12">
         <v>0.1390357699451066</v>
       </c>
       <c r="I12">
-        <v>0.008328381526113482</v>
+        <v>0.008328381526126805</v>
       </c>
       <c r="J12">
-        <v>6.370747966466809</v>
+        <v>6.37074796646678</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -836,31 +836,31 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04417635852452406</v>
+        <v>0.0441763585244459</v>
       </c>
       <c r="E13">
-        <v>0.008755402036161986</v>
+        <v>0.008755402036165094</v>
       </c>
       <c r="F13">
-        <v>4.356787915322201</v>
+        <v>4.356787915322172</v>
       </c>
       <c r="G13">
-        <v>3.479148365045262</v>
+        <v>3.479148365045219</v>
       </c>
       <c r="H13">
-        <v>0.1395412434910703</v>
+        <v>0.1395412434910988</v>
       </c>
       <c r="I13">
-        <v>0.008318150774816679</v>
+        <v>0.008318150774803357</v>
       </c>
       <c r="J13">
-        <v>6.331840888091904</v>
+        <v>6.331840888091932</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.282255015090001</v>
+        <v>4.282255015089987</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6076975795548663</v>
+        <v>0.6076975795547241</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0427711107171973</v>
+        <v>0.0427711107171902</v>
       </c>
       <c r="E14">
-        <v>0.008933546155462047</v>
+        <v>0.008933546155471817</v>
       </c>
       <c r="F14">
         <v>4.257249507053245</v>
@@ -886,10 +886,10 @@
         <v>3.398665708438358</v>
       </c>
       <c r="H14">
-        <v>0.1412379563435948</v>
+        <v>0.1412379563435664</v>
       </c>
       <c r="I14">
-        <v>0.008292242677359063</v>
+        <v>0.008292242677367057</v>
       </c>
       <c r="J14">
         <v>6.205508947822068</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.195307135921567</v>
+        <v>4.195307135921553</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6009470945930389</v>
+        <v>0.6009470945930104</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04192639738787562</v>
+        <v>0.04192639738799642</v>
       </c>
       <c r="E15">
-        <v>0.009044648595369242</v>
+        <v>0.009044648595321281</v>
       </c>
       <c r="F15">
-        <v>4.196964098595544</v>
+        <v>4.196964098595572</v>
       </c>
       <c r="G15">
-        <v>3.349936412071713</v>
+        <v>3.349936412071742</v>
       </c>
       <c r="H15">
-        <v>0.1423136608314799</v>
+        <v>0.1423136608315048</v>
       </c>
       <c r="I15">
-        <v>0.008281965106688105</v>
+        <v>0.008281965106681888</v>
       </c>
       <c r="J15">
-        <v>6.128538013332843</v>
+        <v>6.1285380133329</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.142356201967146</v>
+        <v>4.142356201967189</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.562409040051449</v>
+        <v>0.5624090400515058</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0.03731089743649818</v>
       </c>
       <c r="E16">
-        <v>0.009710470334831856</v>
+        <v>0.009710470334833632</v>
       </c>
       <c r="F16">
         <v>3.861181650724234</v>
@@ -965,7 +965,7 @@
         <v>0.1490104218463983</v>
       </c>
       <c r="I16">
-        <v>0.008303420199793798</v>
+        <v>0.00830342019981245</v>
       </c>
       <c r="J16">
         <v>5.693225145984087</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>3.843239695448318</v>
+        <v>3.843239695448304</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5388841779457607</v>
+        <v>0.5388841779455049</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0346599248713062</v>
+        <v>0.03465992487120673</v>
       </c>
       <c r="E17">
-        <v>0.01014364609268914</v>
+        <v>0.01014364609269025</v>
       </c>
       <c r="F17">
         <v>3.663030436732583</v>
       </c>
       <c r="G17">
-        <v>2.91886255282057</v>
+        <v>2.918862552820528</v>
       </c>
       <c r="H17">
-        <v>0.1535674151528212</v>
+        <v>0.1535674151528283</v>
       </c>
       <c r="I17">
-        <v>0.008382905722662315</v>
+        <v>0.00838290572264988</v>
       </c>
       <c r="J17">
-        <v>5.430806245553271</v>
+        <v>5.430806245553242</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5253912777501171</v>
+        <v>0.5253912777502592</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03319409865103751</v>
+        <v>0.03319409865104461</v>
       </c>
       <c r="E18">
-        <v>0.01040140684881918</v>
+        <v>0.01040140684877366</v>
       </c>
       <c r="F18">
-        <v>3.551647677913707</v>
+        <v>3.55164767791365</v>
       </c>
       <c r="G18">
-        <v>2.829056873233398</v>
+        <v>2.82905687323337</v>
       </c>
       <c r="H18">
-        <v>0.1563436748830895</v>
+        <v>0.156343674883086</v>
       </c>
       <c r="I18">
-        <v>0.008451032424163785</v>
+        <v>0.008451032424154015</v>
       </c>
       <c r="J18">
-        <v>5.281381593578914</v>
+        <v>5.2813815935788</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3.560808071013568</v>
+        <v>3.560808071013554</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,25 +1064,25 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03270727893004732</v>
+        <v>0.03270727892980574</v>
       </c>
       <c r="E19">
-        <v>0.01049011705202374</v>
+        <v>0.01049011705202485</v>
       </c>
       <c r="F19">
-        <v>3.514354423782891</v>
+        <v>3.514354423782919</v>
       </c>
       <c r="G19">
-        <v>2.798997655311467</v>
+        <v>2.798997655311481</v>
       </c>
       <c r="H19">
-        <v>0.1573094616560802</v>
+        <v>0.1573094616560482</v>
       </c>
       <c r="I19">
-        <v>0.008477775282274003</v>
+        <v>0.008477775282271338</v>
       </c>
       <c r="J19">
-        <v>5.231032000215976</v>
+        <v>5.231032000215947</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5413844012464324</v>
+        <v>0.5413844012464892</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0349358694312798</v>
+        <v>0.03493586943116611</v>
       </c>
       <c r="E20">
-        <v>0.01009663261257665</v>
+        <v>0.01009663261257465</v>
       </c>
       <c r="F20">
         <v>3.683849858931154</v>
       </c>
       <c r="G20">
-        <v>2.935653545197255</v>
+        <v>2.935653545197241</v>
       </c>
       <c r="H20">
-        <v>0.1530660445584502</v>
+        <v>0.1530660445584537</v>
       </c>
       <c r="I20">
-        <v>0.00837208333240369</v>
+        <v>0.008372083332400138</v>
       </c>
       <c r="J20">
         <v>5.458580689687665</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3.682259074615828</v>
+        <v>3.682259074615843</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6109374090869721</v>
+        <v>0.6109374090869153</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04318047065198272</v>
+        <v>0.04318047065175534</v>
       </c>
       <c r="E21">
-        <v>0.008880804258339037</v>
+        <v>0.008880804258378783</v>
       </c>
       <c r="F21">
         <v>4.286341616770841</v>
       </c>
       <c r="G21">
-        <v>3.422185211228879</v>
+        <v>3.42218521122885</v>
       </c>
       <c r="H21">
-        <v>0.140731936388196</v>
+        <v>0.1407319363882067</v>
       </c>
       <c r="I21">
-        <v>0.008298673697656689</v>
+        <v>0.008298673697677117</v>
       </c>
       <c r="J21">
-        <v>6.242528723262183</v>
+        <v>6.242528723262154</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.220780857527672</v>
+        <v>4.220780857527657</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6568462139294127</v>
+        <v>0.6568462139293274</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04926614953399167</v>
+        <v>0.04926614953392772</v>
       </c>
       <c r="E22">
-        <v>0.008173675960621907</v>
+        <v>0.008173675960621463</v>
       </c>
       <c r="F22">
         <v>4.709936317563745</v>
@@ -1193,16 +1193,16 @@
         <v>0.1342739703652462</v>
       </c>
       <c r="I22">
-        <v>0.008495506920956686</v>
+        <v>0.008495506920924711</v>
       </c>
       <c r="J22">
-        <v>6.772750435166159</v>
+        <v>6.772750435166131</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.586094075461844</v>
+        <v>4.58609407546183</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6322963355283377</v>
+        <v>0.6322963355282525</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1219,28 +1219,28 @@
         <v>0.04594455208008696</v>
       </c>
       <c r="E23">
-        <v>0.008542487363653262</v>
+        <v>0.00854248736365415</v>
       </c>
       <c r="F23">
         <v>4.480747869241554</v>
       </c>
       <c r="G23">
-        <v>3.579419903559781</v>
+        <v>3.57941990355971</v>
       </c>
       <c r="H23">
-        <v>0.1375620254718477</v>
+        <v>0.1375620254718513</v>
       </c>
       <c r="I23">
-        <v>0.008365548482707652</v>
+        <v>0.008365548482740515</v>
       </c>
       <c r="J23">
-        <v>6.487880810897138</v>
+        <v>6.48788081089711</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.389717266791791</v>
+        <v>4.389717266791777</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5402539522457062</v>
+        <v>0.5402539522454504</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03481093518300327</v>
+        <v>0.03481093518301037</v>
       </c>
       <c r="E24">
-        <v>0.01011786035036177</v>
+        <v>0.01011786035034401</v>
       </c>
       <c r="F24">
-        <v>3.674429564665928</v>
+        <v>3.6744295646659</v>
       </c>
       <c r="G24">
-        <v>2.928055837276801</v>
+        <v>2.928055837276816</v>
       </c>
       <c r="H24">
-        <v>0.1532922293883345</v>
+        <v>0.1532922293883381</v>
       </c>
       <c r="I24">
-        <v>0.008376906733991163</v>
+        <v>0.008376906734006262</v>
       </c>
       <c r="J24">
-        <v>5.446019412090294</v>
+        <v>5.446019412090351</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3.673646285268603</v>
+        <v>3.673646285268632</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4423798725290027</v>
+        <v>0.4423798725291448</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02500301131678029</v>
+        <v>0.02500301131665239</v>
       </c>
       <c r="E25">
-        <v>0.01214242916695629</v>
+        <v>0.01214242916689323</v>
       </c>
       <c r="F25">
-        <v>2.901456987365293</v>
+        <v>2.901456987365322</v>
       </c>
       <c r="G25">
-        <v>2.305711720369814</v>
+        <v>2.305711720369828</v>
       </c>
       <c r="H25">
-        <v>0.1761112243544183</v>
+        <v>0.1761112243543863</v>
       </c>
       <c r="I25">
-        <v>0.009230619401227713</v>
+        <v>0.00923061940120995</v>
       </c>
       <c r="J25">
-        <v>4.378567176849941</v>
+        <v>4.378567176849998</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3710339303982977</v>
+        <v>0.3710339303984114</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01902215312751565</v>
+        <v>0.01902215312739841</v>
       </c>
       <c r="E2">
-        <v>0.01386892437323572</v>
+        <v>0.01386892437322107</v>
       </c>
       <c r="F2">
-        <v>2.389032054912136</v>
+        <v>2.389032054912121</v>
       </c>
       <c r="G2">
-        <v>1.894435545852659</v>
+        <v>1.894435545852645</v>
       </c>
       <c r="H2">
-        <v>0.1970305213638586</v>
+        <v>0.1970305213638301</v>
       </c>
       <c r="I2">
-        <v>0.01040345512895957</v>
+        <v>0.01040345512895913</v>
       </c>
       <c r="J2">
-        <v>3.623730423516378</v>
+        <v>3.623730423516406</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.429905819286432</v>
+        <v>2.429905819286418</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,25 +456,25 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01550545441004303</v>
+        <v>0.01550545441003948</v>
       </c>
       <c r="E3">
-        <v>0.01516883690702775</v>
+        <v>0.01516883690702642</v>
       </c>
       <c r="F3">
-        <v>2.06718968358804</v>
+        <v>2.067189683588026</v>
       </c>
       <c r="G3">
-        <v>1.636734907044968</v>
+        <v>1.636734907044982</v>
       </c>
       <c r="H3">
-        <v>0.2134121922861443</v>
+        <v>0.2134121922861407</v>
       </c>
       <c r="I3">
-        <v>0.01146935074524968</v>
+        <v>0.01146935074526079</v>
       </c>
       <c r="J3">
-        <v>3.125068251355927</v>
+        <v>3.125068251355941</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2934681856394405</v>
+        <v>0.2934681856394548</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0135493236929527</v>
+        <v>0.01354932369275375</v>
       </c>
       <c r="E4">
-        <v>0.01602627643601062</v>
+        <v>0.01602627643597265</v>
       </c>
       <c r="F4">
-        <v>1.879481416411508</v>
+        <v>1.879481416411537</v>
       </c>
       <c r="G4">
-        <v>1.486684277569779</v>
+        <v>1.486684277569793</v>
       </c>
       <c r="H4">
         <v>0.2244566477808849</v>
       </c>
       <c r="I4">
-        <v>0.01223907372062705</v>
+        <v>0.01223907372060218</v>
       </c>
       <c r="J4">
-        <v>2.823521616486588</v>
+        <v>2.823521616486616</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.887733000042616</v>
+        <v>1.88773300004263</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2814716126271293</v>
+        <v>0.2814716126273566</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01279545477514077</v>
+        <v>0.01279545477503063</v>
       </c>
       <c r="E5">
-        <v>0.0163899654085109</v>
+        <v>0.01638996540850979</v>
       </c>
       <c r="F5">
         <v>1.805139562239049</v>
@@ -544,13 +544,13 @@
         <v>1.427312151131943</v>
       </c>
       <c r="H5">
-        <v>0.2291918164732714</v>
+        <v>0.2291918164732696</v>
       </c>
       <c r="I5">
-        <v>0.01257932039044007</v>
+        <v>0.01257932039042675</v>
       </c>
       <c r="J5">
-        <v>2.70158333793826</v>
+        <v>2.701583337938231</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2794800395975017</v>
+        <v>0.2794800395976296</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01267268032068003</v>
+        <v>0.01267268032079016</v>
       </c>
       <c r="E6">
-        <v>0.01645120058089566</v>
+        <v>0.01645120058089833</v>
       </c>
       <c r="F6">
-        <v>1.792915903822802</v>
+        <v>1.792915903822816</v>
       </c>
       <c r="G6">
-        <v>1.417553053189351</v>
+        <v>1.417553053189323</v>
       </c>
       <c r="H6">
-        <v>0.2299918797663398</v>
+        <v>0.2299918797663416</v>
       </c>
       <c r="I6">
-        <v>0.01263735823765755</v>
+        <v>0.01263735823765844</v>
       </c>
       <c r="J6">
-        <v>2.681386680693819</v>
+        <v>2.681386680693777</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.79172430460558</v>
+        <v>1.791724304605594</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2933063615742952</v>
+        <v>0.2933063615744231</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01353899110970858</v>
+        <v>0.01353899110971213</v>
       </c>
       <c r="E7">
-        <v>0.01603112426188336</v>
+        <v>0.01603112426188535</v>
       </c>
       <c r="F7">
         <v>1.878470526606549</v>
       </c>
       <c r="G7">
-        <v>1.485876725951812</v>
+        <v>1.485876725951826</v>
       </c>
       <c r="H7">
-        <v>0.2245195754274132</v>
+        <v>0.2245195754273848</v>
       </c>
       <c r="I7">
-        <v>0.01224355776907693</v>
+        <v>0.01224355776906672</v>
       </c>
       <c r="J7">
-        <v>2.821873562255263</v>
+        <v>2.821873562255277</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.886619242791369</v>
+        <v>1.886619242791355</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3544298410227356</v>
+        <v>0.354429841022764</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01776238050005574</v>
+        <v>0.0177623805000664</v>
       </c>
       <c r="E8">
-        <v>0.01430442708661606</v>
+        <v>0.01430442708661706</v>
       </c>
       <c r="F8">
-        <v>2.275786861684068</v>
+        <v>2.275786861684082</v>
       </c>
       <c r="G8">
         <v>1.803701708281721</v>
       </c>
       <c r="H8">
-        <v>0.2024657134968777</v>
+        <v>0.2024657134968528</v>
       </c>
       <c r="I8">
         <v>0.01074551575614846</v>
       </c>
       <c r="J8">
-        <v>3.450687801639731</v>
+        <v>3.450687801639788</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.312436856443313</v>
+        <v>2.312436856443355</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4752079394892093</v>
+        <v>0.4752079394892235</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02807716859136633</v>
+        <v>0.0280771685911354</v>
       </c>
       <c r="E9">
-        <v>0.01142122926256772</v>
+        <v>0.01142122926253752</v>
       </c>
       <c r="F9">
-        <v>3.15149954457911</v>
+        <v>3.151499544579139</v>
       </c>
       <c r="G9">
-        <v>2.506787356729575</v>
+        <v>2.506787356729589</v>
       </c>
       <c r="H9">
-        <v>0.1677306262875327</v>
+        <v>0.1677306262875291</v>
       </c>
       <c r="I9">
-        <v>0.00884808478960597</v>
+        <v>0.008848084789591759</v>
       </c>
       <c r="J9">
-        <v>4.732306531024904</v>
+        <v>4.732306531024932</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.185139466064157</v>
+        <v>3.185139466064172</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5650988896796321</v>
+        <v>0.5650988896796605</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03762189234813462</v>
+        <v>0.03762189234826252</v>
       </c>
       <c r="E10">
-        <v>0.009662241809095917</v>
+        <v>0.009662241809093919</v>
       </c>
       <c r="F10">
         <v>3.88416327254933</v>
       </c>
       <c r="G10">
-        <v>3.097281979409445</v>
+        <v>3.097281979409459</v>
       </c>
       <c r="H10">
         <v>0.1485121501116247</v>
       </c>
       <c r="I10">
-        <v>0.008297524232865783</v>
+        <v>0.008297524232849796</v>
       </c>
       <c r="J10">
-        <v>5.723387098015621</v>
+        <v>5.72338709801565</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3.863945504828266</v>
+        <v>3.863945504828294</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -760,22 +760,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04260864224294636</v>
+        <v>0.042608642243124</v>
       </c>
       <c r="E11">
-        <v>0.008954675761108311</v>
+        <v>0.008954675761091879</v>
       </c>
       <c r="F11">
         <v>4.245681178753642</v>
       </c>
       <c r="G11">
-        <v>3.38931403173477</v>
+        <v>3.389314031734742</v>
       </c>
       <c r="H11">
-        <v>0.1414415261288617</v>
+        <v>0.1414415261288582</v>
       </c>
       <c r="I11">
-        <v>0.00828995026296564</v>
+        <v>0.008289950262962975</v>
       </c>
       <c r="J11">
         <v>6.190765824953388</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.185163412031827</v>
+        <v>4.185163412031812</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6221240622239179</v>
+        <v>0.6221240622240032</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04461387085604684</v>
+        <v>0.04461387085590474</v>
       </c>
       <c r="E12">
-        <v>0.008701581700178984</v>
+        <v>0.008701581700178096</v>
       </c>
       <c r="F12">
-        <v>4.387591330983582</v>
+        <v>4.387591330983611</v>
       </c>
       <c r="G12">
-        <v>3.504060939034986</v>
+        <v>3.504060939034972</v>
       </c>
       <c r="H12">
         <v>0.1390357699451066</v>
       </c>
       <c r="I12">
-        <v>0.008328381526126805</v>
+        <v>0.008328381526113482</v>
       </c>
       <c r="J12">
-        <v>6.37074796646678</v>
+        <v>6.370747966466809</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -836,31 +836,31 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0441763585244459</v>
+        <v>0.04417635852452406</v>
       </c>
       <c r="E13">
-        <v>0.008755402036165094</v>
+        <v>0.008755402036161986</v>
       </c>
       <c r="F13">
-        <v>4.356787915322172</v>
+        <v>4.356787915322201</v>
       </c>
       <c r="G13">
-        <v>3.479148365045219</v>
+        <v>3.479148365045262</v>
       </c>
       <c r="H13">
-        <v>0.1395412434910988</v>
+        <v>0.1395412434910703</v>
       </c>
       <c r="I13">
-        <v>0.008318150774803357</v>
+        <v>0.008318150774816679</v>
       </c>
       <c r="J13">
-        <v>6.331840888091932</v>
+        <v>6.331840888091904</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.282255015089987</v>
+        <v>4.282255015090001</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6076975795547241</v>
+        <v>0.6076975795548663</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0427711107171902</v>
+        <v>0.0427711107171973</v>
       </c>
       <c r="E14">
-        <v>0.008933546155471817</v>
+        <v>0.008933546155462047</v>
       </c>
       <c r="F14">
         <v>4.257249507053245</v>
@@ -886,10 +886,10 @@
         <v>3.398665708438358</v>
       </c>
       <c r="H14">
-        <v>0.1412379563435664</v>
+        <v>0.1412379563435948</v>
       </c>
       <c r="I14">
-        <v>0.008292242677367057</v>
+        <v>0.008292242677359063</v>
       </c>
       <c r="J14">
         <v>6.205508947822068</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.195307135921553</v>
+        <v>4.195307135921567</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6009470945930104</v>
+        <v>0.6009470945930389</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04192639738799642</v>
+        <v>0.04192639738787562</v>
       </c>
       <c r="E15">
-        <v>0.009044648595321281</v>
+        <v>0.009044648595369242</v>
       </c>
       <c r="F15">
-        <v>4.196964098595572</v>
+        <v>4.196964098595544</v>
       </c>
       <c r="G15">
-        <v>3.349936412071742</v>
+        <v>3.349936412071713</v>
       </c>
       <c r="H15">
-        <v>0.1423136608315048</v>
+        <v>0.1423136608314799</v>
       </c>
       <c r="I15">
-        <v>0.008281965106681888</v>
+        <v>0.008281965106688105</v>
       </c>
       <c r="J15">
-        <v>6.1285380133329</v>
+        <v>6.128538013332843</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.142356201967189</v>
+        <v>4.142356201967146</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5624090400515058</v>
+        <v>0.562409040051449</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0.03731089743649818</v>
       </c>
       <c r="E16">
-        <v>0.009710470334833632</v>
+        <v>0.009710470334831856</v>
       </c>
       <c r="F16">
         <v>3.861181650724234</v>
@@ -965,7 +965,7 @@
         <v>0.1490104218463983</v>
       </c>
       <c r="I16">
-        <v>0.00830342019981245</v>
+        <v>0.008303420199793798</v>
       </c>
       <c r="J16">
         <v>5.693225145984087</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>3.843239695448304</v>
+        <v>3.843239695448318</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5388841779455049</v>
+        <v>0.5388841779457607</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03465992487120673</v>
+        <v>0.0346599248713062</v>
       </c>
       <c r="E17">
-        <v>0.01014364609269025</v>
+        <v>0.01014364609268914</v>
       </c>
       <c r="F17">
         <v>3.663030436732583</v>
       </c>
       <c r="G17">
-        <v>2.918862552820528</v>
+        <v>2.91886255282057</v>
       </c>
       <c r="H17">
-        <v>0.1535674151528283</v>
+        <v>0.1535674151528212</v>
       </c>
       <c r="I17">
-        <v>0.00838290572264988</v>
+        <v>0.008382905722662315</v>
       </c>
       <c r="J17">
-        <v>5.430806245553242</v>
+        <v>5.430806245553271</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5253912777502592</v>
+        <v>0.5253912777501171</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03319409865104461</v>
+        <v>0.03319409865103751</v>
       </c>
       <c r="E18">
-        <v>0.01040140684877366</v>
+        <v>0.01040140684881918</v>
       </c>
       <c r="F18">
-        <v>3.55164767791365</v>
+        <v>3.551647677913707</v>
       </c>
       <c r="G18">
-        <v>2.82905687323337</v>
+        <v>2.829056873233398</v>
       </c>
       <c r="H18">
-        <v>0.156343674883086</v>
+        <v>0.1563436748830895</v>
       </c>
       <c r="I18">
-        <v>0.008451032424154015</v>
+        <v>0.008451032424163785</v>
       </c>
       <c r="J18">
-        <v>5.2813815935788</v>
+        <v>5.281381593578914</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3.560808071013554</v>
+        <v>3.560808071013568</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,25 +1064,25 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03270727892980574</v>
+        <v>0.03270727893004732</v>
       </c>
       <c r="E19">
-        <v>0.01049011705202485</v>
+        <v>0.01049011705202374</v>
       </c>
       <c r="F19">
-        <v>3.514354423782919</v>
+        <v>3.514354423782891</v>
       </c>
       <c r="G19">
-        <v>2.798997655311481</v>
+        <v>2.798997655311467</v>
       </c>
       <c r="H19">
-        <v>0.1573094616560482</v>
+        <v>0.1573094616560802</v>
       </c>
       <c r="I19">
-        <v>0.008477775282271338</v>
+        <v>0.008477775282274003</v>
       </c>
       <c r="J19">
-        <v>5.231032000215947</v>
+        <v>5.231032000215976</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5413844012464892</v>
+        <v>0.5413844012464324</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03493586943116611</v>
+        <v>0.0349358694312798</v>
       </c>
       <c r="E20">
-        <v>0.01009663261257465</v>
+        <v>0.01009663261257665</v>
       </c>
       <c r="F20">
         <v>3.683849858931154</v>
       </c>
       <c r="G20">
-        <v>2.935653545197241</v>
+        <v>2.935653545197255</v>
       </c>
       <c r="H20">
-        <v>0.1530660445584537</v>
+        <v>0.1530660445584502</v>
       </c>
       <c r="I20">
-        <v>0.008372083332400138</v>
+        <v>0.00837208333240369</v>
       </c>
       <c r="J20">
         <v>5.458580689687665</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3.682259074615843</v>
+        <v>3.682259074615828</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6109374090869153</v>
+        <v>0.6109374090869721</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04318047065175534</v>
+        <v>0.04318047065198272</v>
       </c>
       <c r="E21">
-        <v>0.008880804258378783</v>
+        <v>0.008880804258339037</v>
       </c>
       <c r="F21">
         <v>4.286341616770841</v>
       </c>
       <c r="G21">
-        <v>3.42218521122885</v>
+        <v>3.422185211228879</v>
       </c>
       <c r="H21">
-        <v>0.1407319363882067</v>
+        <v>0.140731936388196</v>
       </c>
       <c r="I21">
-        <v>0.008298673697677117</v>
+        <v>0.008298673697656689</v>
       </c>
       <c r="J21">
-        <v>6.242528723262154</v>
+        <v>6.242528723262183</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.220780857527657</v>
+        <v>4.220780857527672</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6568462139293274</v>
+        <v>0.6568462139294127</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04926614953392772</v>
+        <v>0.04926614953399167</v>
       </c>
       <c r="E22">
-        <v>0.008173675960621463</v>
+        <v>0.008173675960621907</v>
       </c>
       <c r="F22">
         <v>4.709936317563745</v>
@@ -1193,16 +1193,16 @@
         <v>0.1342739703652462</v>
       </c>
       <c r="I22">
-        <v>0.008495506920924711</v>
+        <v>0.008495506920956686</v>
       </c>
       <c r="J22">
-        <v>6.772750435166131</v>
+        <v>6.772750435166159</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.58609407546183</v>
+        <v>4.586094075461844</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6322963355282525</v>
+        <v>0.6322963355283377</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1219,28 +1219,28 @@
         <v>0.04594455208008696</v>
       </c>
       <c r="E23">
-        <v>0.00854248736365415</v>
+        <v>0.008542487363653262</v>
       </c>
       <c r="F23">
         <v>4.480747869241554</v>
       </c>
       <c r="G23">
-        <v>3.57941990355971</v>
+        <v>3.579419903559781</v>
       </c>
       <c r="H23">
-        <v>0.1375620254718513</v>
+        <v>0.1375620254718477</v>
       </c>
       <c r="I23">
-        <v>0.008365548482740515</v>
+        <v>0.008365548482707652</v>
       </c>
       <c r="J23">
-        <v>6.48788081089711</v>
+        <v>6.487880810897138</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.389717266791777</v>
+        <v>4.389717266791791</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5402539522454504</v>
+        <v>0.5402539522457062</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03481093518301037</v>
+        <v>0.03481093518300327</v>
       </c>
       <c r="E24">
-        <v>0.01011786035034401</v>
+        <v>0.01011786035036177</v>
       </c>
       <c r="F24">
-        <v>3.6744295646659</v>
+        <v>3.674429564665928</v>
       </c>
       <c r="G24">
-        <v>2.928055837276816</v>
+        <v>2.928055837276801</v>
       </c>
       <c r="H24">
-        <v>0.1532922293883381</v>
+        <v>0.1532922293883345</v>
       </c>
       <c r="I24">
-        <v>0.008376906734006262</v>
+        <v>0.008376906733991163</v>
       </c>
       <c r="J24">
-        <v>5.446019412090351</v>
+        <v>5.446019412090294</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3.673646285268632</v>
+        <v>3.673646285268603</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4423798725291448</v>
+        <v>0.4423798725290027</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02500301131665239</v>
+        <v>0.02500301131678029</v>
       </c>
       <c r="E25">
-        <v>0.01214242916689323</v>
+        <v>0.01214242916695629</v>
       </c>
       <c r="F25">
-        <v>2.901456987365322</v>
+        <v>2.901456987365293</v>
       </c>
       <c r="G25">
-        <v>2.305711720369828</v>
+        <v>2.305711720369814</v>
       </c>
       <c r="H25">
-        <v>0.1761112243543863</v>
+        <v>0.1761112243544183</v>
       </c>
       <c r="I25">
-        <v>0.00923061940120995</v>
+        <v>0.009230619401227713</v>
       </c>
       <c r="J25">
-        <v>4.378567176849998</v>
+        <v>4.378567176849941</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3710339303984114</v>
+        <v>0.3713533257373172</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01902215312739841</v>
+        <v>0.0188841375174178</v>
       </c>
       <c r="E2">
-        <v>0.01386892437322107</v>
+        <v>0.01385746459456483</v>
       </c>
       <c r="F2">
-        <v>2.389032054912121</v>
+        <v>2.384993741818178</v>
       </c>
       <c r="G2">
-        <v>1.894435545852645</v>
+        <v>0.6308126706773436</v>
       </c>
       <c r="H2">
-        <v>0.1970305213638301</v>
+        <v>1.262995370034247</v>
       </c>
       <c r="I2">
-        <v>0.01040345512895913</v>
+        <v>0.1973159543323515</v>
       </c>
       <c r="J2">
-        <v>3.623730423516406</v>
+        <v>0.01039656646487463</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3.621546974586209</v>
       </c>
       <c r="L2">
-        <v>2.429905819286418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2.428884214925674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3229329134500176</v>
+        <v>0.3232125302971554</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01550545441003948</v>
+        <v>0.01538986338539772</v>
       </c>
       <c r="E3">
-        <v>0.01516883690702642</v>
+        <v>0.01515991132382377</v>
       </c>
       <c r="F3">
-        <v>2.067189683588026</v>
+        <v>2.063748531693349</v>
       </c>
       <c r="G3">
-        <v>1.636734907044982</v>
+        <v>0.5407510991982889</v>
       </c>
       <c r="H3">
-        <v>0.2134121922861407</v>
+        <v>1.096143638716981</v>
       </c>
       <c r="I3">
-        <v>0.01146935074526079</v>
+        <v>0.2136502043895554</v>
       </c>
       <c r="J3">
-        <v>3.125068251355941</v>
+        <v>0.01146321165576936</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3.123252791489534</v>
       </c>
       <c r="L3">
-        <v>2.091723432510747</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2.090884932467063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2934681856394548</v>
+        <v>0.2937232987588771</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01354932369275375</v>
+        <v>0.01344647332853199</v>
       </c>
       <c r="E4">
-        <v>0.01602627643597265</v>
+        <v>0.01601919554280062</v>
       </c>
       <c r="F4">
-        <v>1.879481416411537</v>
+        <v>1.876383481096283</v>
       </c>
       <c r="G4">
-        <v>1.486684277569793</v>
+        <v>0.4881369242541638</v>
       </c>
       <c r="H4">
-        <v>0.2244566477808849</v>
+        <v>0.9991641417345392</v>
       </c>
       <c r="I4">
-        <v>0.01223907372060218</v>
+        <v>0.2246652809108571</v>
       </c>
       <c r="J4">
-        <v>2.823521616486616</v>
+        <v>0.0122335089695329</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2.821917965635748</v>
       </c>
       <c r="L4">
-        <v>1.88773300004263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1.88699781641759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2814716126273566</v>
+        <v>0.2817167187187977</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01279545477503063</v>
+        <v>0.01269757967256169</v>
       </c>
       <c r="E5">
-        <v>0.01638996540850979</v>
+        <v>0.01638370428892366</v>
       </c>
       <c r="F5">
-        <v>1.805139562239049</v>
+        <v>1.802176597439214</v>
       </c>
       <c r="G5">
-        <v>1.427312151131943</v>
+        <v>0.4672758485087343</v>
       </c>
       <c r="H5">
-        <v>0.2291918164732696</v>
+        <v>0.9608337637147031</v>
       </c>
       <c r="I5">
-        <v>0.01257932039042675</v>
+        <v>0.2293884137031412</v>
       </c>
       <c r="J5">
-        <v>2.701583337938231</v>
+        <v>0.01257401715289763</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.700063099948977</v>
       </c>
       <c r="L5">
-        <v>1.805360890816985</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1.804665932464474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2794800395976296</v>
+        <v>0.2797234826775252</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01267268032079016</v>
+        <v>0.01257561937414309</v>
       </c>
       <c r="E6">
-        <v>0.01645120058089833</v>
+        <v>0.01644507956818986</v>
       </c>
       <c r="F6">
-        <v>1.792915903822816</v>
+        <v>1.789975081471937</v>
       </c>
       <c r="G6">
-        <v>1.417553053189323</v>
+        <v>0.4638443244847537</v>
       </c>
       <c r="H6">
-        <v>0.2299918797663416</v>
+        <v>0.9545358850671164</v>
       </c>
       <c r="I6">
-        <v>0.01263735823765844</v>
+        <v>0.2301864746377795</v>
       </c>
       <c r="J6">
-        <v>2.681386680693777</v>
+        <v>0.01263210004514459</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2.679880135262948</v>
       </c>
       <c r="L6">
-        <v>1.791724304605594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1.791035923067042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2933063615744231</v>
+        <v>0.2935613398250894</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01353899110971213</v>
+        <v>0.01343620867019624</v>
       </c>
       <c r="E7">
-        <v>0.01603112426188535</v>
+        <v>0.01602405415466412</v>
       </c>
       <c r="F7">
-        <v>1.878470526606549</v>
+        <v>1.875374430157123</v>
       </c>
       <c r="G7">
-        <v>1.485876725951826</v>
+        <v>0.4878533550666333</v>
       </c>
       <c r="H7">
-        <v>0.2245195754273848</v>
+        <v>0.998642617005757</v>
       </c>
       <c r="I7">
-        <v>0.01224355776906672</v>
+        <v>0.2247280464930252</v>
       </c>
       <c r="J7">
-        <v>2.821873562255277</v>
+        <v>0.01223799643534651</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.820271047298178</v>
       </c>
       <c r="L7">
-        <v>1.886619242791355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1.885884608761515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.354429841022764</v>
+        <v>0.3547355364114537</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0177623805000664</v>
+        <v>0.01763233765871419</v>
       </c>
       <c r="E8">
-        <v>0.01430442708661706</v>
+        <v>0.01429377832563516</v>
       </c>
       <c r="F8">
-        <v>2.275786861684082</v>
+        <v>2.271959973865918</v>
       </c>
       <c r="G8">
-        <v>1.803701708281721</v>
+        <v>0.5991411300833818</v>
       </c>
       <c r="H8">
-        <v>0.2024657134968528</v>
+        <v>1.204210769209809</v>
       </c>
       <c r="I8">
-        <v>0.01074551575614846</v>
+        <v>0.2027348519855288</v>
       </c>
       <c r="J8">
-        <v>3.450687801639788</v>
+        <v>0.01073886117277212</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3.448634599292802</v>
       </c>
       <c r="L8">
-        <v>2.312436856443355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.311480549893062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4752079394892235</v>
+        <v>0.4756125084878704</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0280771685911354</v>
+        <v>0.02788318527629485</v>
       </c>
       <c r="E9">
-        <v>0.01142122926253752</v>
+        <v>0.01140607992313769</v>
       </c>
       <c r="F9">
-        <v>3.151499544579139</v>
+        <v>3.145997199195307</v>
       </c>
       <c r="G9">
-        <v>2.506787356729589</v>
+        <v>0.8437213803328518</v>
       </c>
       <c r="H9">
-        <v>0.1677306262875291</v>
+        <v>1.66054398741349</v>
       </c>
       <c r="I9">
-        <v>0.008848084789591759</v>
+        <v>0.1681164576197638</v>
       </c>
       <c r="J9">
-        <v>4.732306531024932</v>
+        <v>0.008840235159085275</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>4.729220612623635</v>
       </c>
       <c r="L9">
-        <v>3.185139466064172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3.183652767509699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5650988896796605</v>
+        <v>0.565575747217764</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03762189234826252</v>
+        <v>0.03737035560678237</v>
       </c>
       <c r="E10">
-        <v>0.009662241809093919</v>
+        <v>0.009645674039360674</v>
       </c>
       <c r="F10">
-        <v>3.88416327254933</v>
+        <v>3.877179208189347</v>
       </c>
       <c r="G10">
-        <v>3.097281979409459</v>
+        <v>1.048013617341908</v>
       </c>
       <c r="H10">
-        <v>0.1485121501116247</v>
+        <v>2.044873689936921</v>
       </c>
       <c r="I10">
-        <v>0.008297524232849796</v>
+        <v>0.1489818178771998</v>
       </c>
       <c r="J10">
-        <v>5.72338709801565</v>
+        <v>0.008289400449323914</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>5.719384632378819</v>
       </c>
       <c r="L10">
-        <v>3.863945504828294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>3.861967745406034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6064060743470066</v>
+        <v>0.6069157046501061</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.042608642243124</v>
+        <v>0.04232729805892177</v>
       </c>
       <c r="E11">
-        <v>0.008954675761091879</v>
+        <v>0.008937964016448641</v>
       </c>
       <c r="F11">
-        <v>4.245681178753642</v>
+        <v>4.237935320601338</v>
       </c>
       <c r="G11">
-        <v>3.389314031734742</v>
+        <v>1.14877380277791</v>
       </c>
       <c r="H11">
-        <v>0.1414415261288582</v>
+        <v>2.235198436938717</v>
       </c>
       <c r="I11">
-        <v>0.008289950262962975</v>
+        <v>0.1419486918572517</v>
       </c>
       <c r="J11">
-        <v>6.190765824953388</v>
+        <v>0.008281820038502197</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>6.186290520266397</v>
       </c>
       <c r="L11">
-        <v>4.185163412031812</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>4.18292622093891</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6221240622240032</v>
+        <v>0.6226460788937231</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04461387085590474</v>
+        <v>0.04432056224044345</v>
       </c>
       <c r="E12">
-        <v>0.008701581700178096</v>
+        <v>0.008684896325286351</v>
       </c>
       <c r="F12">
-        <v>4.387591330983611</v>
+        <v>4.379540430231998</v>
       </c>
       <c r="G12">
-        <v>3.504060939034972</v>
+        <v>1.188322952389328</v>
       </c>
       <c r="H12">
-        <v>0.1390357699451066</v>
+        <v>2.310019757278042</v>
       </c>
       <c r="I12">
-        <v>0.008328381526113482</v>
+        <v>0.1395570099244594</v>
       </c>
       <c r="J12">
-        <v>6.370747966466809</v>
+        <v>0.008320262419100111</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>6.366083008155385</v>
       </c>
       <c r="L12">
-        <v>4.309042711612022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>4.306700420171438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6187352500262193</v>
+        <v>0.6192546003213408</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04417635852452406</v>
+        <v>0.04388565979073888</v>
       </c>
       <c r="E13">
-        <v>0.008755402036161986</v>
+        <v>0.00873870723250092</v>
       </c>
       <c r="F13">
-        <v>4.356787915322201</v>
+        <v>4.348803524921749</v>
       </c>
       <c r="G13">
-        <v>3.479148365045262</v>
+        <v>1.179738391584408</v>
       </c>
       <c r="H13">
-        <v>0.1395412434910703</v>
+        <v>2.293773686668786</v>
       </c>
       <c r="I13">
-        <v>0.008318150774816679</v>
+        <v>0.1400594586141608</v>
       </c>
       <c r="J13">
-        <v>6.331840888091904</v>
+        <v>0.008310028756967291</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>6.327217296494155</v>
       </c>
       <c r="L13">
-        <v>4.282255015090001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>4.279935696788087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6076975795548663</v>
+        <v>0.6082082294366842</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0427711107171973</v>
+        <v>0.04248879684839579</v>
       </c>
       <c r="E14">
-        <v>0.008933546155462047</v>
+        <v>0.008916834904843629</v>
       </c>
       <c r="F14">
-        <v>4.257249507053245</v>
+        <v>4.249478912195002</v>
       </c>
       <c r="G14">
-        <v>3.398665708438358</v>
+        <v>1.15199784197911</v>
       </c>
       <c r="H14">
-        <v>0.1412379563435948</v>
+        <v>2.241295489146594</v>
       </c>
       <c r="I14">
-        <v>0.008292242677359063</v>
+        <v>0.1417462827313969</v>
       </c>
       <c r="J14">
-        <v>6.205508947822068</v>
+        <v>0.008284113125888837</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>6.201018270341962</v>
       </c>
       <c r="L14">
-        <v>4.195307135921567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>4.193061447244347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6009470945930389</v>
+        <v>0.6014524117741189</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04192639738787562</v>
+        <v>0.04164912587314262</v>
       </c>
       <c r="E15">
-        <v>0.009044648595369242</v>
+        <v>0.009027938084550824</v>
       </c>
       <c r="F15">
-        <v>4.196964098595544</v>
+        <v>4.189322162857394</v>
       </c>
       <c r="G15">
-        <v>3.349936412071713</v>
+        <v>1.135196470439723</v>
       </c>
       <c r="H15">
-        <v>0.1423136608314799</v>
+        <v>2.209526757492171</v>
       </c>
       <c r="I15">
-        <v>0.008281965106688105</v>
+        <v>0.1428159124890485</v>
       </c>
       <c r="J15">
-        <v>6.128538013332843</v>
+        <v>0.008273832555484972</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>6.124127278943462</v>
       </c>
       <c r="L15">
-        <v>4.142356201967146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>4.140154661051412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.562409040051449</v>
+        <v>0.562883753002609</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03731089743649818</v>
+        <v>0.03706122347556828</v>
       </c>
       <c r="E16">
-        <v>0.009710470334831856</v>
+        <v>0.009693922789644427</v>
       </c>
       <c r="F16">
-        <v>3.861181650724234</v>
+        <v>3.854245295848301</v>
       </c>
       <c r="G16">
-        <v>3.078731844614353</v>
+        <v>1.041607703600846</v>
       </c>
       <c r="H16">
-        <v>0.1490104218463983</v>
+        <v>2.032789127026589</v>
       </c>
       <c r="I16">
-        <v>0.008303420199793798</v>
+        <v>0.1494776236416833</v>
       </c>
       <c r="J16">
-        <v>5.693225145984087</v>
+        <v>0.008295298982206489</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>5.689252255708993</v>
       </c>
       <c r="L16">
-        <v>3.843239695448318</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>3.841278033930521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5388841779457607</v>
+        <v>0.5393400834556985</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0346599248713062</v>
+        <v>0.03442615576496166</v>
       </c>
       <c r="E17">
-        <v>0.01014364609268914</v>
+        <v>0.01012733284294787</v>
       </c>
       <c r="F17">
-        <v>3.663030436732583</v>
+        <v>3.656502017440772</v>
       </c>
       <c r="G17">
-        <v>2.91886255282057</v>
+        <v>0.9863705490217285</v>
       </c>
       <c r="H17">
-        <v>0.1535674151528212</v>
+        <v>1.928668784024623</v>
       </c>
       <c r="I17">
-        <v>0.008382905722662315</v>
+        <v>0.1540129318535577</v>
       </c>
       <c r="J17">
-        <v>5.430806245553271</v>
+        <v>0.008374820082585721</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>5.427086058203059</v>
       </c>
       <c r="L17">
-        <v>3.663215884605449</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>3.661391116395862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5253912777501171</v>
+        <v>0.5258363559104282</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03319409865103751</v>
+        <v>0.03296914787244276</v>
       </c>
       <c r="E18">
-        <v>0.01040140684881918</v>
+        <v>0.01038527495328911</v>
       </c>
       <c r="F18">
-        <v>3.551647677913707</v>
+        <v>3.54534592855947</v>
       </c>
       <c r="G18">
-        <v>2.829056873233398</v>
+        <v>0.9553170944649452</v>
       </c>
       <c r="H18">
-        <v>0.1563436748830895</v>
+        <v>1.870202270177955</v>
       </c>
       <c r="I18">
-        <v>0.008451032424163785</v>
+        <v>0.1567766613845478</v>
       </c>
       <c r="J18">
-        <v>5.281381593578914</v>
+        <v>0.008442978704598758</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>5.277801684757009</v>
       </c>
       <c r="L18">
-        <v>3.560808071013568</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>3.559058773352007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5208288901486355</v>
+        <v>0.5212703008331516</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03270727893004732</v>
+        <v>0.03248526126122897</v>
       </c>
       <c r="E19">
-        <v>0.01049011705202374</v>
+        <v>0.01047405431138548</v>
       </c>
       <c r="F19">
-        <v>3.514354423782891</v>
+        <v>3.508128154203973</v>
       </c>
       <c r="G19">
-        <v>2.798997655311467</v>
+        <v>0.9449189703217229</v>
       </c>
       <c r="H19">
-        <v>0.1573094616560802</v>
+        <v>1.850636531613773</v>
       </c>
       <c r="I19">
-        <v>0.008477775282274003</v>
+        <v>0.1577381965552824</v>
       </c>
       <c r="J19">
-        <v>5.231032000215976</v>
+        <v>0.00846973440223131</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>5.227498782180135</v>
       </c>
       <c r="L19">
-        <v>3.526317633547663</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>3.524593370562783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5413844012464324</v>
+        <v>0.541842309897703</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0349358694312798</v>
+        <v>0.03470044232995662</v>
       </c>
       <c r="E20">
-        <v>0.01009663261257665</v>
+        <v>0.01008028953903506</v>
       </c>
       <c r="F20">
-        <v>3.683849858931154</v>
+        <v>3.677278863134632</v>
       </c>
       <c r="G20">
-        <v>2.935653545197255</v>
+        <v>0.9921746349414491</v>
       </c>
       <c r="H20">
-        <v>0.1530660445584502</v>
+        <v>1.939602131103101</v>
       </c>
       <c r="I20">
-        <v>0.00837208333240369</v>
+        <v>0.1535138758209413</v>
       </c>
       <c r="J20">
-        <v>5.458580689687665</v>
+        <v>0.008363992735854531</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>5.45483414239331</v>
       </c>
       <c r="L20">
-        <v>3.682259074615828</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>3.680420082445082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6109374090869721</v>
+        <v>0.6114506152317745</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04318047065198272</v>
+        <v>0.04289571380515156</v>
       </c>
       <c r="E21">
-        <v>0.008880804258339037</v>
+        <v>0.008864095567643115</v>
       </c>
       <c r="F21">
-        <v>4.286341616770841</v>
+        <v>4.278508712606907</v>
       </c>
       <c r="G21">
-        <v>3.422185211228879</v>
+        <v>1.160105637707389</v>
       </c>
       <c r="H21">
-        <v>0.140731936388196</v>
+        <v>2.256630201242444</v>
       </c>
       <c r="I21">
-        <v>0.008298673697656689</v>
+        <v>0.1412431710874102</v>
       </c>
       <c r="J21">
-        <v>6.242528723262183</v>
+        <v>0.008290546032988289</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>6.237999317979671</v>
       </c>
       <c r="L21">
-        <v>4.220780857527672</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>4.218513744369403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6568462139294127</v>
+        <v>0.6573954123362284</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04926614953399167</v>
+        <v>0.04894509456708818</v>
       </c>
       <c r="E22">
-        <v>0.008173675960621907</v>
+        <v>0.008157204689288378</v>
       </c>
       <c r="F22">
-        <v>4.709936317563745</v>
+        <v>4.701179224533632</v>
       </c>
       <c r="G22">
-        <v>3.76493336441257</v>
+        <v>1.278155738126117</v>
       </c>
       <c r="H22">
-        <v>0.1342739703652462</v>
+        <v>2.480193882905184</v>
       </c>
       <c r="I22">
-        <v>0.008495506920956686</v>
+        <v>0.1348258831775695</v>
       </c>
       <c r="J22">
-        <v>6.772750435166159</v>
+        <v>0.008487430035297727</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>6.767645732385745</v>
       </c>
       <c r="L22">
-        <v>4.586094075461844</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>4.583505945298569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6322963355283377</v>
+        <v>0.6328263418827476</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04594455208008696</v>
+        <v>0.04564330685632001</v>
       </c>
       <c r="E23">
-        <v>0.008542487363653262</v>
+        <v>0.00852584259197009</v>
       </c>
       <c r="F23">
-        <v>4.480747869241554</v>
+        <v>4.472494808298734</v>
       </c>
       <c r="G23">
-        <v>3.579419903559781</v>
+        <v>1.214284418123782</v>
       </c>
       <c r="H23">
-        <v>0.1375620254718477</v>
+        <v>2.359168644819562</v>
       </c>
       <c r="I23">
-        <v>0.008365548482707652</v>
+        <v>0.1380923127599623</v>
       </c>
       <c r="J23">
-        <v>6.487880810897138</v>
+        <v>0.008357439607779682</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>6.483090064956656</v>
       </c>
       <c r="L23">
-        <v>4.389717266791791</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>4.387304954232107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5402539522457062</v>
+        <v>0.5407109553219129</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03481093518300327</v>
+        <v>0.03457625866422376</v>
       </c>
       <c r="E24">
-        <v>0.01011786035036177</v>
+        <v>0.01010153061551566</v>
       </c>
       <c r="F24">
-        <v>3.674429564665928</v>
+        <v>3.667877841902794</v>
       </c>
       <c r="G24">
-        <v>2.928055837276801</v>
+        <v>0.9895484369714467</v>
       </c>
       <c r="H24">
-        <v>0.1532922293883345</v>
+        <v>1.934654861614376</v>
       </c>
       <c r="I24">
-        <v>0.008376906733991163</v>
+        <v>0.1537390144318529</v>
       </c>
       <c r="J24">
-        <v>5.446019412090294</v>
+        <v>0.008368818342349371</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>5.44228479753113</v>
       </c>
       <c r="L24">
-        <v>3.673646285268603</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>3.671813733696993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4423798725290027</v>
+        <v>0.4427577511799115</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02500301131678029</v>
+        <v>0.02482781949543167</v>
       </c>
       <c r="E25">
-        <v>0.01214242916695629</v>
+        <v>0.01212819385331465</v>
       </c>
       <c r="F25">
-        <v>2.901456987365293</v>
+        <v>2.896442917293825</v>
       </c>
       <c r="G25">
-        <v>2.305711720369814</v>
+        <v>0.7739494981146748</v>
       </c>
       <c r="H25">
-        <v>0.1761112243544183</v>
+        <v>1.529866846989833</v>
       </c>
       <c r="I25">
-        <v>0.009230619401227713</v>
+        <v>0.1764657676681907</v>
       </c>
       <c r="J25">
-        <v>4.378567176849941</v>
+        <v>0.009222986630000207</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>4.375782486283697</v>
       </c>
       <c r="L25">
-        <v>2.943664422874903</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>2.942335230622575</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3713533257373172</v>
+        <v>1.422476766573226</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0188841375174178</v>
+        <v>0.1101590691531911</v>
       </c>
       <c r="E2">
-        <v>0.01385746459456483</v>
+        <v>0.1562593284031735</v>
       </c>
       <c r="F2">
-        <v>2.384993741818178</v>
+        <v>2.487443389038148</v>
       </c>
       <c r="G2">
-        <v>0.6308126706773436</v>
+        <v>0.0008219446837361766</v>
       </c>
       <c r="H2">
-        <v>1.262995370034247</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1973159543323515</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01039656646487463</v>
+        <v>0.2444377651008338</v>
       </c>
       <c r="K2">
-        <v>3.621546974586209</v>
+        <v>1.10527470875347</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.5980764773428007</v>
       </c>
       <c r="M2">
-        <v>2.428884214925674</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4545763103400091</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.994254569557299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3232125302971554</v>
+        <v>1.262661280679197</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01538986338539772</v>
+        <v>0.09570298191125204</v>
       </c>
       <c r="E3">
-        <v>0.01515991132382377</v>
+        <v>0.1429988021798891</v>
       </c>
       <c r="F3">
-        <v>2.063748531693349</v>
+        <v>2.335223687919822</v>
       </c>
       <c r="G3">
-        <v>0.5407510991982889</v>
+        <v>0.0008311631041374265</v>
       </c>
       <c r="H3">
-        <v>1.096143638716981</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2136502043895554</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01146321165576936</v>
+        <v>0.2302396596141065</v>
       </c>
       <c r="K3">
-        <v>3.123252791489534</v>
+        <v>0.9544402370116245</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.5190894519017775</v>
       </c>
       <c r="M3">
-        <v>2.090884932467063</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3988840736679151</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.850754020611774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2937232987588771</v>
+        <v>1.166270234242006</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01344647332853199</v>
+        <v>0.08699983885993134</v>
       </c>
       <c r="E4">
-        <v>0.01601919554280062</v>
+        <v>0.1349247195599084</v>
       </c>
       <c r="F4">
-        <v>1.876383481096283</v>
+        <v>2.247004255158473</v>
       </c>
       <c r="G4">
-        <v>0.4881369242541638</v>
+        <v>0.0008369758146655637</v>
       </c>
       <c r="H4">
-        <v>0.9991641417345392</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2246652809108571</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0122335089695329</v>
+        <v>0.2215536480722236</v>
       </c>
       <c r="K4">
-        <v>2.821917965635748</v>
+        <v>0.8629660113470976</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.4712774877836523</v>
       </c>
       <c r="M4">
-        <v>1.88699781641759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3652325251875226</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.767045497286247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2817167187187977</v>
+        <v>1.127381571153876</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01269757967256169</v>
+        <v>0.08348890314407953</v>
       </c>
       <c r="E5">
-        <v>0.01638370428892366</v>
+        <v>0.1316467533556214</v>
       </c>
       <c r="F5">
-        <v>1.802176597439214</v>
+        <v>2.212264455009134</v>
       </c>
       <c r="G5">
-        <v>0.4672758485087343</v>
+        <v>0.00083938470861908</v>
       </c>
       <c r="H5">
-        <v>0.9608337637147031</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2293884137031412</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01257401715289763</v>
+        <v>0.2180180863406207</v>
       </c>
       <c r="K5">
-        <v>2.700063099948977</v>
+        <v>0.8259310513385714</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.4519424540810633</v>
       </c>
       <c r="M5">
-        <v>1.804665932464474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.351639830592255</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.733943031858033</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2797234826775252</v>
+        <v>1.120946532848563</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01257561937414309</v>
+        <v>0.08290785426181202</v>
       </c>
       <c r="E6">
-        <v>0.01644507956818986</v>
+        <v>0.1311030603860139</v>
       </c>
       <c r="F6">
-        <v>1.789975081471937</v>
+        <v>2.206566039539808</v>
       </c>
       <c r="G6">
-        <v>0.4638443244847537</v>
+        <v>0.000839787179618634</v>
       </c>
       <c r="H6">
-        <v>0.9545358850671164</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2301864746377795</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01263210004514459</v>
+        <v>0.2174311474278952</v>
       </c>
       <c r="K6">
-        <v>2.679880135262948</v>
+        <v>0.8197947767287417</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.4487402117509163</v>
       </c>
       <c r="M6">
-        <v>1.791035923067042</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3493896113249662</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.72850466732703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2935613398250894</v>
+        <v>1.165744240039515</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01343620867019624</v>
+        <v>0.08695235454901962</v>
       </c>
       <c r="E7">
-        <v>0.01602405415466412</v>
+        <v>0.1348804680058961</v>
       </c>
       <c r="F7">
-        <v>1.875374430157123</v>
+        <v>2.246530978174462</v>
       </c>
       <c r="G7">
-        <v>0.4878533550666333</v>
+        <v>0.0008370081369838643</v>
       </c>
       <c r="H7">
-        <v>0.998642617005757</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2247280464930252</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01223799643534651</v>
+        <v>0.2215059546938178</v>
       </c>
       <c r="K7">
-        <v>2.820271047298178</v>
+        <v>0.8624656233483989</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.4710161565610065</v>
       </c>
       <c r="M7">
-        <v>1.885884608761515</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3650487414393382</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.76659510144421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3547355364114537</v>
+        <v>1.366983607569296</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01763233765871419</v>
+        <v>0.1051337603699594</v>
       </c>
       <c r="E8">
-        <v>0.01429377832563516</v>
+        <v>0.1516699583216017</v>
       </c>
       <c r="F8">
-        <v>2.271959973865918</v>
+        <v>2.433801504720407</v>
       </c>
       <c r="G8">
-        <v>0.5991411300833818</v>
+        <v>0.0008250926632189333</v>
       </c>
       <c r="H8">
-        <v>1.204210769209809</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2027348519855288</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01073886117277212</v>
+        <v>0.2395331967997762</v>
       </c>
       <c r="K8">
-        <v>3.448634599292802</v>
+        <v>1.053002342314542</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.5706842175532643</v>
       </c>
       <c r="M8">
-        <v>2.311480549893062</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4352506092582544</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.943800833603888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4756125084878704</v>
+        <v>1.777656262715823</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02788318527629485</v>
+        <v>0.1425576897598546</v>
       </c>
       <c r="E9">
-        <v>0.01140607992313769</v>
+        <v>0.1853782436208675</v>
       </c>
       <c r="F9">
-        <v>3.145997199195307</v>
+        <v>2.848066027235177</v>
       </c>
       <c r="G9">
-        <v>0.8437213803328518</v>
+        <v>0.0008028470032172667</v>
       </c>
       <c r="H9">
-        <v>1.66054398741349</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1681164576197638</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.008840235159085275</v>
+        <v>0.2753372379308416</v>
       </c>
       <c r="K9">
-        <v>4.729220612623635</v>
+        <v>1.437945923038157</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.7727871208116426</v>
       </c>
       <c r="M9">
-        <v>3.183652767509699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5780433269652221</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.331098402105582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.565575747217764</v>
+        <v>2.092707754300932</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03737035560678237</v>
+        <v>0.1717675727189203</v>
       </c>
       <c r="E10">
-        <v>0.009645674039360674</v>
+        <v>0.2110148117242758</v>
       </c>
       <c r="F10">
-        <v>3.877179208189347</v>
+        <v>3.189579675116448</v>
       </c>
       <c r="G10">
-        <v>1.048013617341908</v>
+        <v>0.0007870458529151037</v>
       </c>
       <c r="H10">
-        <v>2.044873689936921</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1489818178771998</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.008289400449323914</v>
+        <v>0.3022432252659328</v>
       </c>
       <c r="K10">
-        <v>5.719384632378819</v>
+        <v>1.731236430727591</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.927239845349817</v>
       </c>
       <c r="M10">
-        <v>3.861967745406034</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6873580001404491</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.647552836415386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6069157046501061</v>
+        <v>2.239840461004917</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04232729805892177</v>
+        <v>0.1855970805801661</v>
       </c>
       <c r="E11">
-        <v>0.008937964016448641</v>
+        <v>0.2229714568862811</v>
       </c>
       <c r="F11">
-        <v>4.237935320601338</v>
+        <v>3.355208483042588</v>
       </c>
       <c r="G11">
-        <v>1.14877380277791</v>
+        <v>0.0007799392497951363</v>
       </c>
       <c r="H11">
-        <v>2.235198436938717</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1419486918572517</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.008281820038502197</v>
+        <v>0.314700876366885</v>
       </c>
       <c r="K11">
-        <v>6.186290520266397</v>
+        <v>1.867870134368687</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.9992989822381162</v>
       </c>
       <c r="M11">
-        <v>4.18292622093891</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.7383757213840454</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.800429126213118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6226460788937231</v>
+        <v>2.296191606235084</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04432056224044345</v>
+        <v>0.1909285904355187</v>
       </c>
       <c r="E12">
-        <v>0.008684896325286351</v>
+        <v>0.2275518394309266</v>
       </c>
       <c r="F12">
-        <v>4.379540430231998</v>
+        <v>3.419617990280813</v>
       </c>
       <c r="G12">
-        <v>1.188322952389328</v>
+        <v>0.0007772564051302666</v>
       </c>
       <c r="H12">
-        <v>2.310019757278042</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1395570099244594</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.008320262419100111</v>
+        <v>0.3194582304240541</v>
       </c>
       <c r="K12">
-        <v>6.366083008155385</v>
+        <v>1.920162556746021</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.026892797042507</v>
       </c>
       <c r="M12">
-        <v>4.306700420171438</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.757912169532176</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.8597947100087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6192546003213408</v>
+        <v>2.284025625262927</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04388565979073888</v>
+        <v>0.1897758544782562</v>
       </c>
       <c r="E13">
-        <v>0.00873870723250092</v>
+        <v>0.2265628480556146</v>
       </c>
       <c r="F13">
-        <v>4.348803524921749</v>
+        <v>3.405667412553754</v>
       </c>
       <c r="G13">
-        <v>1.179738391584408</v>
+        <v>0.0007778338955560417</v>
       </c>
       <c r="H13">
-        <v>2.293773686668786</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1400594586141608</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.008310028756967291</v>
+        <v>0.3184317227984224</v>
       </c>
       <c r="K13">
-        <v>6.327217296494155</v>
+        <v>1.908874317839562</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.020935500916579</v>
       </c>
       <c r="M13">
-        <v>4.279935696788087</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.7536944377099388</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.846940335584776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6082082294366842</v>
+        <v>2.244463236232718</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04248879684839579</v>
+        <v>0.1860337068560369</v>
       </c>
       <c r="E14">
-        <v>0.008916834904843629</v>
+        <v>0.2233471673766267</v>
       </c>
       <c r="F14">
-        <v>4.249478912195002</v>
+        <v>3.360472311207815</v>
       </c>
       <c r="G14">
-        <v>1.15199784197911</v>
+        <v>0.0007797183859880781</v>
       </c>
       <c r="H14">
-        <v>2.241295489146594</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1417462827313969</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.008284113125888837</v>
+        <v>0.3150914128853373</v>
       </c>
       <c r="K14">
-        <v>6.201018270341962</v>
+        <v>1.872160635374726</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.001562697900368</v>
       </c>
       <c r="M14">
-        <v>4.193061447244347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.7399784480987037</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.805282418199113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6014524117741189</v>
+        <v>2.220315617422671</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04164912587314262</v>
+        <v>0.1837543890004412</v>
       </c>
       <c r="E15">
-        <v>0.009027938084550824</v>
+        <v>0.221384662071376</v>
       </c>
       <c r="F15">
-        <v>4.189322162857394</v>
+        <v>3.333015826962253</v>
       </c>
       <c r="G15">
-        <v>1.135196470439723</v>
+        <v>0.0007808736581519614</v>
       </c>
       <c r="H15">
-        <v>2.209526757492171</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1428159124890485</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.008273832555484972</v>
+        <v>0.313050851868411</v>
       </c>
       <c r="K15">
-        <v>6.124127278943462</v>
+        <v>1.84974724579105</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.9897377654137927</v>
       </c>
       <c r="M15">
-        <v>4.140154661051412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.7316062998763471</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.779963940782523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.562883753002609</v>
+        <v>2.083176196356476</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03706122347556828</v>
+        <v>0.1708760510101399</v>
       </c>
       <c r="E16">
-        <v>0.009693922789644427</v>
+        <v>0.2102401879571474</v>
       </c>
       <c r="F16">
-        <v>3.854245295848301</v>
+        <v>3.178979649018345</v>
       </c>
       <c r="G16">
-        <v>1.041607703600846</v>
+        <v>0.0007875116411945621</v>
       </c>
       <c r="H16">
-        <v>2.032789127026589</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1494776236416833</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.008295298982206489</v>
+        <v>0.3014341768363593</v>
       </c>
       <c r="K16">
-        <v>5.689252255708993</v>
+        <v>1.72237918749272</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.9225707450664231</v>
       </c>
       <c r="M16">
-        <v>3.841278033930521</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6840524390439526</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.637757315673085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5393400834556985</v>
+        <v>2.000080766634881</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03442615576496166</v>
+        <v>0.1631254484380804</v>
       </c>
       <c r="E17">
-        <v>0.01012733284294787</v>
+        <v>0.2034856823706264</v>
       </c>
       <c r="F17">
-        <v>3.656502017440772</v>
+        <v>3.087256694173362</v>
       </c>
       <c r="G17">
-        <v>0.9863705490217285</v>
+        <v>0.0007916023774827048</v>
       </c>
       <c r="H17">
-        <v>1.928668784024623</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1540129318535577</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.008374820082585721</v>
+        <v>0.2943692380076186</v>
       </c>
       <c r="K17">
-        <v>5.427086058203059</v>
+        <v>1.645126472056447</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.8818585595475383</v>
       </c>
       <c r="M17">
-        <v>3.661391116395862</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.6552312907785449</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.55293122177298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5258363559104282</v>
+        <v>1.952639678345577</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03296914787244276</v>
+        <v>0.1587173660347645</v>
       </c>
       <c r="E18">
-        <v>0.01038527495328911</v>
+        <v>0.1996276794159542</v>
       </c>
       <c r="F18">
-        <v>3.54534592855947</v>
+        <v>3.035452693843524</v>
       </c>
       <c r="G18">
-        <v>0.9553170944649452</v>
+        <v>0.0007939631550391837</v>
       </c>
       <c r="H18">
-        <v>1.870202270177955</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1567766613845478</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.008442978704598758</v>
+        <v>0.2903256040199125</v>
       </c>
       <c r="K18">
-        <v>5.277801684757009</v>
+        <v>1.600989235384688</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.8586079632452481</v>
       </c>
       <c r="M18">
-        <v>3.559058773352007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.6387734157116327</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.504968115967131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5212703008331516</v>
+        <v>1.936635141092211</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03248526126122897</v>
+        <v>0.1572329612961596</v>
       </c>
       <c r="E19">
-        <v>0.01047405431138548</v>
+        <v>0.1983257758367358</v>
       </c>
       <c r="F19">
-        <v>3.508128154203973</v>
+        <v>3.018070353584875</v>
       </c>
       <c r="G19">
-        <v>0.9449189703217229</v>
+        <v>0.0007947639269833169</v>
       </c>
       <c r="H19">
-        <v>1.850636531613773</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1577381965552824</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.00846973440223131</v>
+        <v>0.2889596827008987</v>
       </c>
       <c r="K19">
-        <v>5.227498782180135</v>
+        <v>1.58609350441057</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.8507628597595556</v>
       </c>
       <c r="M19">
-        <v>3.524593370562783</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.6332206526947246</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.488865174519972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.541842309897703</v>
+        <v>2.008889268914743</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03470044232995662</v>
+        <v>0.1639452404232316</v>
       </c>
       <c r="E20">
-        <v>0.01008028953903506</v>
+        <v>0.204201845871598</v>
       </c>
       <c r="F20">
-        <v>3.677278863134632</v>
+        <v>3.096920720382343</v>
       </c>
       <c r="G20">
-        <v>0.9921746349414491</v>
+        <v>0.0007911661180425634</v>
       </c>
       <c r="H20">
-        <v>1.939602131103101</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1535138758209413</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.008363992735854531</v>
+        <v>0.2951191921093326</v>
       </c>
       <c r="K20">
-        <v>5.45483414239331</v>
+        <v>1.653318858509948</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.8861749363397848</v>
       </c>
       <c r="M20">
-        <v>3.680420082445082</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.6582867895307203</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.561874244623596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6114506152317745</v>
+        <v>2.256065682382825</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04289571380515156</v>
+        <v>0.1871301537072583</v>
       </c>
       <c r="E21">
-        <v>0.008864095567643115</v>
+        <v>0.2242901711729068</v>
       </c>
       <c r="F21">
-        <v>4.278508712606907</v>
+        <v>3.373699517613005</v>
       </c>
       <c r="G21">
-        <v>1.160105637707389</v>
+        <v>0.0007791646707578865</v>
       </c>
       <c r="H21">
-        <v>2.256630201242444</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1412431710874102</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.008290546032988289</v>
+        <v>0.3160713845740375</v>
       </c>
       <c r="K21">
-        <v>6.237999317979671</v>
+        <v>1.88292856642741</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.007244222098308</v>
       </c>
       <c r="M21">
-        <v>4.218513744369403</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7440009997145793</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.817476672206169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6573954123362284</v>
+        <v>2.421360931714844</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04894509456708818</v>
+        <v>0.2028438168964755</v>
       </c>
       <c r="E22">
-        <v>0.008157204689288378</v>
+        <v>0.2377320284454427</v>
       </c>
       <c r="F22">
-        <v>4.701179224533632</v>
+        <v>3.564558814004158</v>
       </c>
       <c r="G22">
-        <v>1.278155738126117</v>
+        <v>0.0007713672970584306</v>
       </c>
       <c r="H22">
-        <v>2.480193882905184</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1348258831775695</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.008487430035297727</v>
+        <v>0.3300025085372766</v>
       </c>
       <c r="K22">
-        <v>6.767645732385745</v>
+        <v>2.036261881308732</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.088184476202258</v>
       </c>
       <c r="M22">
-        <v>4.583505945298569</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8013038253352391</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.993232537244012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6328263418827476</v>
+        <v>2.332764785345205</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04564330685632001</v>
+        <v>0.1943995921791242</v>
       </c>
       <c r="E23">
-        <v>0.00852584259197009</v>
+        <v>0.2305253664156766</v>
       </c>
       <c r="F23">
-        <v>4.472494808298734</v>
+        <v>3.461703398680697</v>
       </c>
       <c r="G23">
-        <v>1.214284418123782</v>
+        <v>0.0007755259306772011</v>
       </c>
       <c r="H23">
-        <v>2.359168644819562</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1380923127599623</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.008357439607779682</v>
+        <v>0.3225422576344599</v>
       </c>
       <c r="K23">
-        <v>6.483090064956656</v>
+        <v>1.954092603862563</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.044801386895386</v>
       </c>
       <c r="M23">
-        <v>4.387304954232107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7705911510169798</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.898561089661669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5407109553219129</v>
+        <v>2.004905918638428</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03457625866422376</v>
+        <v>0.1635744646728625</v>
       </c>
       <c r="E24">
-        <v>0.01010153061551566</v>
+        <v>0.2038779904549557</v>
       </c>
       <c r="F24">
-        <v>3.667877841902794</v>
+        <v>3.092548736956218</v>
       </c>
       <c r="G24">
-        <v>0.9895484369714467</v>
+        <v>0.0007913633228068885</v>
       </c>
       <c r="H24">
-        <v>1.934654861614376</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1537390144318529</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.008368818342349371</v>
+        <v>0.2947800821310835</v>
       </c>
       <c r="K24">
-        <v>5.44228479753113</v>
+        <v>1.649614226368072</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.884223021955421</v>
       </c>
       <c r="M24">
-        <v>3.671813733696993</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.6569050526893605</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.557828612178312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4427577511799115</v>
+        <v>1.664498331484282</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02482781949543167</v>
+        <v>0.1321835044942361</v>
       </c>
       <c r="E25">
-        <v>0.01212819385331465</v>
+        <v>0.1761379214804997</v>
       </c>
       <c r="F25">
-        <v>2.896442917293825</v>
+        <v>2.730145436711254</v>
       </c>
       <c r="G25">
-        <v>0.7739494981146748</v>
+        <v>0.0008087586344845385</v>
       </c>
       <c r="H25">
-        <v>1.529866846989833</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1764657676681907</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.009222986630000207</v>
+        <v>0.2655720016405638</v>
       </c>
       <c r="K25">
-        <v>4.375782486283697</v>
+        <v>1.332254731224765</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.7172172064763629</v>
       </c>
       <c r="M25">
-        <v>2.942335230622575</v>
+        <v>0.5387420956077023</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.221328457558812</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.422476766573226</v>
+        <v>1.157924589872664</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1101590691531911</v>
+        <v>0.02886781257301863</v>
       </c>
       <c r="E2">
-        <v>0.1562593284031735</v>
+        <v>0.4456616667583475</v>
       </c>
       <c r="F2">
-        <v>2.487443389038148</v>
+        <v>0.5384791640974669</v>
       </c>
       <c r="G2">
-        <v>0.0008219446837361766</v>
+        <v>0.4510624481803518</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2605996769103598</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2759223581434949</v>
       </c>
       <c r="J2">
-        <v>0.2444377651008338</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.10527470875347</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5980764773428007</v>
+        <v>0.3910105568103575</v>
       </c>
       <c r="M2">
-        <v>0.4545763103400091</v>
+        <v>0.3406941234371317</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.47858735688736</v>
       </c>
       <c r="O2">
-        <v>1.994254569557299</v>
+        <v>1.45494123277328</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.262661280679197</v>
+        <v>1.013831555266023</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09570298191125204</v>
+        <v>0.02510652069931041</v>
       </c>
       <c r="E3">
-        <v>0.1429988021798891</v>
+        <v>0.4262035261702195</v>
       </c>
       <c r="F3">
-        <v>2.335223687919822</v>
+        <v>0.4741044316327034</v>
       </c>
       <c r="G3">
-        <v>0.0008311631041374265</v>
+        <v>0.3937148151471206</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2381048748287498</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2942389148097542</v>
       </c>
       <c r="J3">
-        <v>0.2302396596141065</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9544402370116245</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5190894519017775</v>
+        <v>0.3403512166192968</v>
       </c>
       <c r="M3">
-        <v>0.3988840736679151</v>
+        <v>0.2974740920127417</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.423964745599548</v>
       </c>
       <c r="O3">
-        <v>1.850754020611774</v>
+        <v>1.285946100143661</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.166270234242006</v>
+        <v>0.9254582395622037</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.08699983885993134</v>
+        <v>0.02279816620323771</v>
       </c>
       <c r="E4">
-        <v>0.1349247195599084</v>
+        <v>0.41432435320759</v>
       </c>
       <c r="F4">
-        <v>2.247004255158473</v>
+        <v>0.435237266083206</v>
       </c>
       <c r="G4">
-        <v>0.0008369758146655637</v>
+        <v>0.3590711955408494</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2246766051255378</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3061650550635857</v>
       </c>
       <c r="J4">
-        <v>0.2215536480722236</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8629660113470976</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4712774877836523</v>
+        <v>0.309302407195446</v>
       </c>
       <c r="M4">
-        <v>0.3652325251875226</v>
+        <v>0.2709725125645193</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.391423066996353</v>
       </c>
       <c r="O4">
-        <v>1.767045497286247</v>
+        <v>1.184179637422403</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.127381571153876</v>
+        <v>0.8894642611859922</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.08348890314407953</v>
+        <v>0.02185754847960197</v>
       </c>
       <c r="E5">
-        <v>0.1316467533556214</v>
+        <v>0.4095014855427053</v>
       </c>
       <c r="F5">
-        <v>2.212264455009134</v>
+        <v>0.4195501254065377</v>
       </c>
       <c r="G5">
-        <v>0.00083938470861908</v>
+        <v>0.3450828605953546</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.219294793872848</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3111921340885919</v>
       </c>
       <c r="J5">
-        <v>0.2180180863406207</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8259310513385714</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4519424540810633</v>
+        <v>0.2966604202467096</v>
       </c>
       <c r="M5">
-        <v>0.351639830592255</v>
+        <v>0.2601796074067089</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.378406985913415</v>
       </c>
       <c r="O5">
-        <v>1.733943031858033</v>
+        <v>1.143169431934155</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.120946532848563</v>
+        <v>0.8834884492158608</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08290785426181202</v>
+        <v>0.02170135675201124</v>
       </c>
       <c r="E6">
-        <v>0.1311030603860139</v>
+        <v>0.4087017638363761</v>
       </c>
       <c r="F6">
-        <v>2.206566039539808</v>
+        <v>0.4169540377494556</v>
       </c>
       <c r="G6">
-        <v>0.000839787179618634</v>
+        <v>0.3427675268969494</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2184064289964311</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.3120368580304547</v>
       </c>
       <c r="J6">
-        <v>0.2174311474278952</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8197947767287417</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4487402117509163</v>
+        <v>0.2945617734358024</v>
       </c>
       <c r="M6">
-        <v>0.3493896113249662</v>
+        <v>0.258387794811231</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.376260306494487</v>
       </c>
       <c r="O6">
-        <v>1.72850466732703</v>
+        <v>1.136386345496618</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.165744240039515</v>
+        <v>0.9249727439401454</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08695235454901962</v>
+        <v>0.02278548076206377</v>
       </c>
       <c r="E7">
-        <v>0.1348804680058961</v>
+        <v>0.4142592363478386</v>
       </c>
       <c r="F7">
-        <v>2.246530978174462</v>
+        <v>0.4350251085175856</v>
       </c>
       <c r="G7">
-        <v>0.0008370081369838643</v>
+        <v>0.3588820382863673</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2246036663561881</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.3062321804872798</v>
       </c>
       <c r="J7">
-        <v>0.2215059546938178</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8624656233483989</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4710161565610065</v>
+        <v>0.3091318742589948</v>
       </c>
       <c r="M7">
-        <v>0.3650487414393382</v>
+        <v>0.2708269314337954</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.391246543256401</v>
       </c>
       <c r="O7">
-        <v>1.76659510144421</v>
+        <v>1.183624748843982</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.366983607569296</v>
+        <v>1.10821647035047</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1051337603699594</v>
+        <v>0.02757055567938238</v>
       </c>
       <c r="E8">
-        <v>0.1516699583216017</v>
+        <v>0.4389388348755716</v>
       </c>
       <c r="F8">
-        <v>2.433801504720407</v>
+        <v>0.5161371638245171</v>
       </c>
       <c r="G8">
-        <v>0.0008250926632189333</v>
+        <v>0.4311626675042675</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2527600469255731</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2820944930820586</v>
       </c>
       <c r="J8">
-        <v>0.2395331967997762</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1.053002342314542</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5706842175532643</v>
+        <v>0.3735293719119568</v>
       </c>
       <c r="M8">
-        <v>0.4352506092582544</v>
+        <v>0.3257830260512122</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.459543010678175</v>
       </c>
       <c r="O8">
-        <v>1.943800833603888</v>
+        <v>1.396231379262446</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.777656262715823</v>
+        <v>1.468678599550998</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1425576897598546</v>
+        <v>0.03697359867032901</v>
       </c>
       <c r="E9">
-        <v>0.1853782436208675</v>
+        <v>0.4878434661652662</v>
       </c>
       <c r="F9">
-        <v>2.848066027235177</v>
+        <v>0.6811097887306943</v>
       </c>
       <c r="G9">
-        <v>0.0008028470032172667</v>
+        <v>0.5780653846653507</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.3113135527611774</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.2403307768194543</v>
       </c>
       <c r="J9">
-        <v>0.2753372379308416</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.437945923038157</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.7727871208116426</v>
+        <v>0.5004320712108239</v>
       </c>
       <c r="M9">
-        <v>0.5780433269652221</v>
+        <v>0.4339494677844229</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.601665221603213</v>
       </c>
       <c r="O9">
-        <v>2.331098402105582</v>
+        <v>1.831002803351737</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.092707754300932</v>
+        <v>1.734701309062473</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1717675727189203</v>
+        <v>0.0439103918702699</v>
       </c>
       <c r="E10">
-        <v>0.2110148117242758</v>
+        <v>0.5240450553163711</v>
       </c>
       <c r="F10">
-        <v>3.189579675116448</v>
+        <v>0.8069304987584758</v>
       </c>
       <c r="G10">
-        <v>0.0007870458529151037</v>
+        <v>0.6901096764931935</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.3568058911027805</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2132949488282971</v>
       </c>
       <c r="J10">
-        <v>0.3022432252659328</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.731236430727591</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.927239845349817</v>
+        <v>0.5943101912325091</v>
       </c>
       <c r="M10">
-        <v>0.6873580001404491</v>
+        <v>0.5138388375362055</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.711507026202582</v>
       </c>
       <c r="O10">
-        <v>2.647552836415386</v>
+        <v>2.164282435642662</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.239840461004917</v>
+        <v>1.856102638512567</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1855970805801661</v>
+        <v>0.04707617365719585</v>
       </c>
       <c r="E11">
-        <v>0.2229714568862811</v>
+        <v>0.5405660692008567</v>
       </c>
       <c r="F11">
-        <v>3.355208483042588</v>
+        <v>0.8654115396797835</v>
       </c>
       <c r="G11">
-        <v>0.0007799392497951363</v>
+        <v>0.7422050525219817</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.3781425143488519</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2018456042676036</v>
       </c>
       <c r="J11">
-        <v>0.314700876366885</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.867870134368687</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.9992989822381162</v>
+        <v>0.6372209985856472</v>
       </c>
       <c r="M11">
-        <v>0.7383757213840454</v>
+        <v>0.5503162016728567</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.76275687109333</v>
       </c>
       <c r="O11">
-        <v>2.800429126213118</v>
+        <v>2.319613578700825</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.296191606235084</v>
+        <v>1.902140029225706</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1909285904355187</v>
+        <v>0.04827676918099399</v>
       </c>
       <c r="E12">
-        <v>0.2275518394309266</v>
+        <v>0.5468291534744907</v>
       </c>
       <c r="F12">
-        <v>3.419617990280813</v>
+        <v>0.8877569570433508</v>
       </c>
       <c r="G12">
-        <v>0.0007772564051302666</v>
+        <v>0.7621145050237743</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.3863236763901483</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1976372746793009</v>
       </c>
       <c r="J12">
-        <v>0.3194582304240541</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.920162556746021</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.026892797042507</v>
+        <v>0.6535052231286755</v>
       </c>
       <c r="M12">
-        <v>0.757912169532176</v>
+        <v>0.5641523176444139</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.782357018661457</v>
       </c>
       <c r="O12">
-        <v>2.8597947100087</v>
+        <v>2.379031023072287</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.284025625262927</v>
+        <v>1.892221983764102</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1897758544782562</v>
+        <v>0.0480181149221508</v>
       </c>
       <c r="E13">
-        <v>0.2265628480556146</v>
+        <v>0.5454799872948044</v>
       </c>
       <c r="F13">
-        <v>3.405667412553754</v>
+        <v>0.8829352312247494</v>
       </c>
       <c r="G13">
-        <v>0.0007778338955560417</v>
+        <v>0.7578182146239669</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.3845570525593729</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1985378680213454</v>
       </c>
       <c r="J13">
-        <v>0.3184317227984224</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.908874317839562</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.020935500916579</v>
+        <v>0.6499964857173097</v>
       </c>
       <c r="M13">
-        <v>0.7536944377099388</v>
+        <v>0.5611713846527806</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.778127053191042</v>
       </c>
       <c r="O13">
-        <v>2.846940335584776</v>
+        <v>2.366206833426929</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.244463236232718</v>
+        <v>1.859888794173827</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1860337068560369</v>
+        <v>0.04717490976489813</v>
       </c>
       <c r="E14">
-        <v>0.2233471673766267</v>
+        <v>0.5410812013719308</v>
       </c>
       <c r="F14">
-        <v>3.360472311207815</v>
+        <v>0.8672457788574803</v>
       </c>
       <c r="G14">
-        <v>0.0007797183859880781</v>
+        <v>0.7438392457909799</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.3788134957237048</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.201496801064815</v>
       </c>
       <c r="J14">
-        <v>0.3150914128853373</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.872160635374726</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.001562697900368</v>
+        <v>0.6385599815032492</v>
       </c>
       <c r="M14">
-        <v>0.7399784480987037</v>
+        <v>0.5514540269060859</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.764365469298042</v>
       </c>
       <c r="O14">
-        <v>2.805282418199113</v>
+        <v>2.324489554621181</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.220315617422671</v>
+        <v>1.840092594181726</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1837543890004412</v>
+        <v>0.04665866413406405</v>
       </c>
       <c r="E15">
-        <v>0.221384662071376</v>
+        <v>0.5383877031496738</v>
       </c>
       <c r="F15">
-        <v>3.333015826962253</v>
+        <v>0.8576622175634157</v>
       </c>
       <c r="G15">
-        <v>0.0007808736581519614</v>
+        <v>0.7353010563706732</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.3753088946693168</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2033259665996248</v>
       </c>
       <c r="J15">
-        <v>0.313050851868411</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.84974724579105</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.9897377654137927</v>
+        <v>0.6315594936147733</v>
       </c>
       <c r="M15">
-        <v>0.7316062998763471</v>
+        <v>0.5455049582917297</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.755961491533299</v>
       </c>
       <c r="O15">
-        <v>2.779963940782523</v>
+        <v>2.299016163109115</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.083176196356476</v>
+        <v>1.726776040971629</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1708760510101399</v>
+        <v>0.04370373238705128</v>
       </c>
       <c r="E16">
-        <v>0.2102401879571474</v>
+        <v>0.522966372248014</v>
       </c>
       <c r="F16">
-        <v>3.178979649018345</v>
+        <v>0.8031354275393454</v>
       </c>
       <c r="G16">
-        <v>0.0007875116411945621</v>
+        <v>0.6867294687225183</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3554251765579295</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2140607169447311</v>
       </c>
       <c r="J16">
-        <v>0.3014341768363593</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.72237918749272</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.9225707450664231</v>
+        <v>0.5915104444158317</v>
       </c>
       <c r="M16">
-        <v>0.6840524390439526</v>
+        <v>0.5114579697742485</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.708184250341617</v>
       </c>
       <c r="O16">
-        <v>2.637757315673085</v>
+        <v>2.154211241648454</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.000080766634881</v>
+        <v>1.657365690411979</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1631254484380804</v>
+        <v>0.04189380847010682</v>
       </c>
       <c r="E17">
-        <v>0.2034856823706264</v>
+        <v>0.5135189072445954</v>
       </c>
       <c r="F17">
-        <v>3.087256694173362</v>
+        <v>0.7700182337957102</v>
       </c>
       <c r="G17">
-        <v>0.0007916023774827048</v>
+        <v>0.657234649490789</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3433978772383881</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2208672760217834</v>
       </c>
       <c r="J17">
-        <v>0.2943692380076186</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.645126472056447</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.8818585595475383</v>
+        <v>0.5669978707936991</v>
       </c>
       <c r="M17">
-        <v>0.6552312907785449</v>
+        <v>0.4906082906059837</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.67920880388651</v>
       </c>
       <c r="O17">
-        <v>2.55293122177298</v>
+        <v>2.066373749365368</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.952639678345577</v>
+        <v>1.617478422108803</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1587173660347645</v>
+        <v>0.04085372808403065</v>
       </c>
       <c r="E18">
-        <v>0.1996276794159542</v>
+        <v>0.5080899729990307</v>
       </c>
       <c r="F18">
-        <v>3.035452693843524</v>
+        <v>0.7510859085428905</v>
       </c>
       <c r="G18">
-        <v>0.0007939631550391837</v>
+        <v>0.6403746941690684</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3365399308927692</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2248618554735611</v>
       </c>
       <c r="J18">
-        <v>0.2903256040199125</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.600989235384688</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.8586079632452481</v>
+        <v>0.5529178575857401</v>
       </c>
       <c r="M18">
-        <v>0.6387734157116327</v>
+        <v>0.4786286179902106</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.662663042778945</v>
       </c>
       <c r="O18">
-        <v>2.504968115967131</v>
+        <v>2.016198192968005</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.936635141092211</v>
+        <v>1.603979127770572</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1572329612961596</v>
+        <v>0.04050172687364295</v>
       </c>
       <c r="E19">
-        <v>0.1983257758367358</v>
+        <v>0.5062527084140811</v>
       </c>
       <c r="F19">
-        <v>3.018070353584875</v>
+        <v>0.7446950234511718</v>
       </c>
       <c r="G19">
-        <v>0.0007947639269833169</v>
+        <v>0.6346835906678905</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3342279571687072</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.22622787438989</v>
       </c>
       <c r="J19">
-        <v>0.2889596827008987</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.58609350441057</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.8507628597595556</v>
+        <v>0.5481537092537963</v>
       </c>
       <c r="M19">
-        <v>0.6332206526947246</v>
+        <v>0.474574553676014</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.657081315754851</v>
       </c>
       <c r="O19">
-        <v>2.488865174519972</v>
+        <v>1.999267262763908</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.008889268914743</v>
+        <v>1.664750774095978</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1639452404232316</v>
+        <v>0.04208637845079721</v>
       </c>
       <c r="E20">
-        <v>0.204201845871598</v>
+        <v>0.5145240936960889</v>
       </c>
       <c r="F20">
-        <v>3.096920720382343</v>
+        <v>0.7735314826206547</v>
       </c>
       <c r="G20">
-        <v>0.0007911661180425634</v>
+        <v>0.6603634472298126</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3446719465899832</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2201344285949203</v>
       </c>
       <c r="J20">
-        <v>0.2951191921093326</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.653318858509948</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.8861749363397848</v>
+        <v>0.5696052753370253</v>
       </c>
       <c r="M20">
-        <v>0.6582867895307203</v>
+        <v>0.4928264552835557</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.682280794281041</v>
       </c>
       <c r="O20">
-        <v>2.561874244623596</v>
+        <v>2.075687930424806</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.256065682382825</v>
+        <v>1.869383980779531</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1871301537072583</v>
+        <v>0.04742252856002693</v>
       </c>
       <c r="E21">
-        <v>0.2242901711729068</v>
+        <v>0.5423730480057358</v>
       </c>
       <c r="F21">
-        <v>3.373699517613005</v>
+        <v>0.8718485515390313</v>
       </c>
       <c r="G21">
-        <v>0.0007791646707578865</v>
+        <v>0.7479400989024043</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.3804976883724009</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2006241939105147</v>
       </c>
       <c r="J21">
-        <v>0.3160713845740375</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.88292856642741</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.007244222098308</v>
+        <v>0.641918170226262</v>
       </c>
       <c r="M21">
-        <v>0.7440009997145793</v>
+        <v>0.5543075991665489</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.76840227287687</v>
       </c>
       <c r="O21">
-        <v>2.817476672206169</v>
+        <v>2.336726215802827</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.421360931714844</v>
+        <v>2.003509532667692</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2028438168964755</v>
+        <v>0.05092056318805049</v>
       </c>
       <c r="E22">
-        <v>0.2377320284454427</v>
+        <v>0.5606141265382476</v>
       </c>
       <c r="F22">
-        <v>3.564558814004158</v>
+        <v>0.9372804853467898</v>
       </c>
       <c r="G22">
-        <v>0.0007713672970584306</v>
+        <v>0.8062481058510826</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.4045078970564902</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1886176272610056</v>
       </c>
       <c r="J22">
-        <v>0.3300025085372766</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>2.036261881308732</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.088184476202258</v>
+        <v>0.6893846228855409</v>
       </c>
       <c r="M22">
-        <v>0.8013038253352391</v>
+        <v>0.5946245303824469</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.825816604907374</v>
       </c>
       <c r="O22">
-        <v>2.993232537244012</v>
+        <v>2.510840987850003</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.332764785345205</v>
+        <v>1.931885466843966</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1943995921791242</v>
+        <v>0.04905252105467639</v>
       </c>
       <c r="E23">
-        <v>0.2305253664156766</v>
+        <v>0.5508750373942348</v>
       </c>
       <c r="F23">
-        <v>3.461703398680697</v>
+        <v>0.9022433187260646</v>
       </c>
       <c r="G23">
-        <v>0.0007755259306772011</v>
+        <v>0.7750229370116557</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.3916354723721014</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1949558720455782</v>
       </c>
       <c r="J23">
-        <v>0.3225422576344599</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.954092603862563</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.044801386895386</v>
+        <v>0.6640301884467732</v>
       </c>
       <c r="M23">
-        <v>0.7705911510169798</v>
+        <v>0.5730930168399411</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.795067231914004</v>
       </c>
       <c r="O23">
-        <v>2.898561089661669</v>
+        <v>2.417569785898991</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.004905918638428</v>
+        <v>1.661411923466432</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1635744646728625</v>
+        <v>0.0419993161253629</v>
       </c>
       <c r="E24">
-        <v>0.2038779904549557</v>
+        <v>0.5140696409420187</v>
       </c>
       <c r="F24">
-        <v>3.092548736956218</v>
+        <v>0.7719428105191213</v>
       </c>
       <c r="G24">
-        <v>0.0007913633228068885</v>
+        <v>0.6589486171182557</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.3440957638859032</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2204654957668231</v>
       </c>
       <c r="J24">
-        <v>0.2947800821310835</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.649614226368072</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.884223021955421</v>
+        <v>0.5684264289201053</v>
       </c>
       <c r="M24">
-        <v>0.6569050526893605</v>
+        <v>0.4918236012222081</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.680891597312666</v>
       </c>
       <c r="O24">
-        <v>2.557828612178312</v>
+        <v>2.07147598651548</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.664498331484282</v>
+        <v>1.370993580574208</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1321835044942361</v>
+        <v>0.03442608962549798</v>
       </c>
       <c r="E25">
-        <v>0.1761379214804997</v>
+        <v>0.4745632026006561</v>
       </c>
       <c r="F25">
-        <v>2.730145436711254</v>
+        <v>0.635746720579732</v>
       </c>
       <c r="G25">
-        <v>0.0008087586344845385</v>
+        <v>0.5376754279494236</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2950722975517124</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2510072482411463</v>
       </c>
       <c r="J25">
-        <v>0.2655720016405638</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1.332254731224765</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.7172172064763629</v>
+        <v>0.466008908278738</v>
       </c>
       <c r="M25">
-        <v>0.5387420956077023</v>
+        <v>0.4046274242685044</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.562297470427993</v>
       </c>
       <c r="O25">
-        <v>2.221328457558812</v>
+        <v>1.711179011156418</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.157924589872664</v>
+        <v>0.7253364120738013</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02886781257301863</v>
+        <v>0.008979455509845025</v>
       </c>
       <c r="E2">
-        <v>0.4456616667583475</v>
+        <v>0.535411221264134</v>
       </c>
       <c r="F2">
-        <v>0.5384791640974669</v>
+        <v>0.3725575301122603</v>
       </c>
       <c r="G2">
-        <v>0.4510624481803518</v>
+        <v>0.2405468349764988</v>
       </c>
       <c r="H2">
-        <v>0.2605996769103598</v>
+        <v>0.3567772508854716</v>
       </c>
       <c r="I2">
-        <v>0.2759223581434949</v>
+        <v>0.7449121468774171</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3910105568103575</v>
+        <v>0.1718117218132562</v>
       </c>
       <c r="M2">
-        <v>0.3406941234371317</v>
+        <v>0.1845301833611188</v>
       </c>
       <c r="N2">
-        <v>1.47858735688736</v>
+        <v>1.572562487964404</v>
       </c>
       <c r="O2">
-        <v>1.45494123277328</v>
+        <v>1.1088714286482</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.013831555266023</v>
+        <v>0.6826654248632167</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02510652069931041</v>
+        <v>0.007821302310667022</v>
       </c>
       <c r="E3">
-        <v>0.4262035261702195</v>
+        <v>0.5303836484837561</v>
       </c>
       <c r="F3">
-        <v>0.4741044316327034</v>
+        <v>0.3579190005688631</v>
       </c>
       <c r="G3">
-        <v>0.3937148151471206</v>
+        <v>0.226671661605323</v>
       </c>
       <c r="H3">
-        <v>0.2381048748287498</v>
+        <v>0.3535672879066283</v>
       </c>
       <c r="I3">
-        <v>0.2942389148097542</v>
+        <v>0.7561285609061521</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3403512166192968</v>
+        <v>0.1567895011920371</v>
       </c>
       <c r="M3">
-        <v>0.2974740920127417</v>
+        <v>0.1717276833274681</v>
       </c>
       <c r="N3">
-        <v>1.423964745599548</v>
+        <v>1.558789268756399</v>
       </c>
       <c r="O3">
-        <v>1.285946100143661</v>
+        <v>1.072462683276029</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9254582395622037</v>
+        <v>0.6565870575131214</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02279816620323771</v>
+        <v>0.007109052004803829</v>
       </c>
       <c r="E4">
-        <v>0.41432435320759</v>
+        <v>0.5273782259024955</v>
       </c>
       <c r="F4">
-        <v>0.435237266083206</v>
+        <v>0.3491844527522119</v>
       </c>
       <c r="G4">
-        <v>0.3590711955408494</v>
+        <v>0.2183259145934358</v>
       </c>
       <c r="H4">
-        <v>0.2246766051255378</v>
+        <v>0.3517973117262301</v>
       </c>
       <c r="I4">
-        <v>0.3061650550635857</v>
+        <v>0.7634236498916662</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.309302407195446</v>
+        <v>0.1475883738917361</v>
       </c>
       <c r="M4">
-        <v>0.2709725125645193</v>
+        <v>0.1638968503600893</v>
       </c>
       <c r="N4">
-        <v>1.391423066996353</v>
+        <v>1.550874689875116</v>
       </c>
       <c r="O4">
-        <v>1.184179637422403</v>
+        <v>1.050886135341699</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8894642611859922</v>
+        <v>0.6459915512600674</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02185754847960197</v>
+        <v>0.006818533464379328</v>
       </c>
       <c r="E5">
-        <v>0.4095014855427053</v>
+        <v>0.5261743208103127</v>
       </c>
       <c r="F5">
-        <v>0.4195501254065377</v>
+        <v>0.3456888216419358</v>
       </c>
       <c r="G5">
-        <v>0.3450828605953546</v>
+        <v>0.2149685448031562</v>
       </c>
       <c r="H5">
-        <v>0.219294793872848</v>
+        <v>0.3511266099771149</v>
       </c>
       <c r="I5">
-        <v>0.3111921340885919</v>
+        <v>0.7664991264618539</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2966604202467096</v>
+        <v>0.1438447805042671</v>
       </c>
       <c r="M5">
-        <v>0.2601796074067089</v>
+        <v>0.1607135292102733</v>
       </c>
       <c r="N5">
-        <v>1.378406985913415</v>
+        <v>1.547786707418595</v>
       </c>
       <c r="O5">
-        <v>1.143169431934155</v>
+        <v>1.0422892150211</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8834884492158608</v>
+        <v>0.6442341163874232</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02170135675201124</v>
+        <v>0.006770277192241991</v>
       </c>
       <c r="E6">
-        <v>0.4087017638363761</v>
+        <v>0.5259756809625884</v>
       </c>
       <c r="F6">
-        <v>0.4169540377494556</v>
+        <v>0.3451122263728905</v>
       </c>
       <c r="G6">
-        <v>0.3427675268969494</v>
+        <v>0.2144136864861821</v>
       </c>
       <c r="H6">
-        <v>0.2184064289964311</v>
+        <v>0.3510182966112296</v>
       </c>
       <c r="I6">
-        <v>0.3120368580304547</v>
+        <v>0.7670160088778255</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2945617734358024</v>
+        <v>0.1432235262349622</v>
       </c>
       <c r="M6">
-        <v>0.258387794811231</v>
+        <v>0.1601854207612803</v>
       </c>
       <c r="N6">
-        <v>1.376260306494487</v>
+        <v>1.547282268483841</v>
       </c>
       <c r="O6">
-        <v>1.136386345496618</v>
+        <v>1.040873520315159</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9249727439401454</v>
+        <v>0.6564440333546884</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02278548076206377</v>
+        <v>0.007105135045243571</v>
       </c>
       <c r="E7">
-        <v>0.4142592363478386</v>
+        <v>0.5273619048446321</v>
       </c>
       <c r="F7">
-        <v>0.4350251085175856</v>
+        <v>0.3491370512472329</v>
       </c>
       <c r="G7">
-        <v>0.3588820382863673</v>
+        <v>0.2182804595433225</v>
       </c>
       <c r="H7">
-        <v>0.2246036663561881</v>
+        <v>0.3517880615588922</v>
       </c>
       <c r="I7">
-        <v>0.3062321804872798</v>
+        <v>0.7634647110993198</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3091318742589948</v>
+        <v>0.147537862079048</v>
       </c>
       <c r="M7">
-        <v>0.2708269314337954</v>
+        <v>0.1638538870039028</v>
       </c>
       <c r="N7">
-        <v>1.391246543256401</v>
+        <v>1.550832487221413</v>
       </c>
       <c r="O7">
-        <v>1.183624748843982</v>
+        <v>1.050769402002402</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.10821647035047</v>
+        <v>0.7105987722287352</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02757055567938238</v>
+        <v>0.008580369955929257</v>
       </c>
       <c r="E8">
-        <v>0.4389388348755716</v>
+        <v>0.5336609878325973</v>
       </c>
       <c r="F8">
-        <v>0.5161371638245171</v>
+        <v>0.3674575355237906</v>
       </c>
       <c r="G8">
-        <v>0.4311626675042675</v>
+        <v>0.2357265785696967</v>
       </c>
       <c r="H8">
-        <v>0.2527600469255731</v>
+        <v>0.3556287735415395</v>
       </c>
       <c r="I8">
-        <v>0.2820944930820586</v>
+        <v>0.7486948720827185</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3735293719119568</v>
+        <v>0.1666275276720768</v>
       </c>
       <c r="M8">
-        <v>0.3257830260512122</v>
+        <v>0.1801098250504367</v>
       </c>
       <c r="N8">
-        <v>1.459543010678175</v>
+        <v>1.567701486266202</v>
       </c>
       <c r="O8">
-        <v>1.396231379262446</v>
+        <v>1.096156040069587</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.468678599550998</v>
+        <v>0.8177232591540644</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03697359867032901</v>
+        <v>0.01146369786571455</v>
       </c>
       <c r="E9">
-        <v>0.4878434661652662</v>
+        <v>0.5466466989470149</v>
       </c>
       <c r="F9">
-        <v>0.6811097887306943</v>
+        <v>0.4053979858665571</v>
       </c>
       <c r="G9">
-        <v>0.5780653846653507</v>
+        <v>0.2713219185447855</v>
       </c>
       <c r="H9">
-        <v>0.3113135527611774</v>
+        <v>0.3647537052407301</v>
       </c>
       <c r="I9">
-        <v>0.2403307768194543</v>
+        <v>0.7229680775906928</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5004320712108239</v>
+        <v>0.2042317180763007</v>
       </c>
       <c r="M9">
-        <v>0.4339494677844229</v>
+        <v>0.2122148776844881</v>
       </c>
       <c r="N9">
-        <v>1.601665221603213</v>
+        <v>1.605046473129207</v>
       </c>
       <c r="O9">
-        <v>1.831002803351737</v>
+        <v>1.191346434927141</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.734701309062473</v>
+        <v>0.8969482396470028</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0439103918702699</v>
+        <v>0.01357566533703647</v>
       </c>
       <c r="E10">
-        <v>0.5240450553163711</v>
+        <v>0.5565561050779948</v>
       </c>
       <c r="F10">
-        <v>0.8069304987584758</v>
+        <v>0.4345069338856433</v>
       </c>
       <c r="G10">
-        <v>0.6901096764931935</v>
+        <v>0.2983278881917784</v>
       </c>
       <c r="H10">
-        <v>0.3568058911027805</v>
+        <v>0.3724288176666022</v>
       </c>
       <c r="I10">
-        <v>0.2132949488282971</v>
+        <v>0.706036868273177</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5943101912325091</v>
+        <v>0.2319524613620416</v>
       </c>
       <c r="M10">
-        <v>0.5138388375362055</v>
+        <v>0.2359292756922429</v>
       </c>
       <c r="N10">
-        <v>1.711507026202582</v>
+        <v>1.635038110963052</v>
       </c>
       <c r="O10">
-        <v>2.164282435642662</v>
+        <v>1.265077141312986</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.856102638512567</v>
+        <v>0.9330938157802677</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04707617365719585</v>
+        <v>0.01453495277009864</v>
       </c>
       <c r="E11">
-        <v>0.5405660692008567</v>
+        <v>0.5611406553761427</v>
       </c>
       <c r="F11">
-        <v>0.8654115396797835</v>
+        <v>0.4480188439983834</v>
       </c>
       <c r="G11">
-        <v>0.7422050525219817</v>
+        <v>0.3108014760982343</v>
       </c>
       <c r="H11">
-        <v>0.3781425143488519</v>
+        <v>0.3761312885551433</v>
       </c>
       <c r="I11">
-        <v>0.2018456042676036</v>
+        <v>0.6987615982427018</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6372209985856472</v>
+        <v>0.244581497042148</v>
       </c>
       <c r="M11">
-        <v>0.5503162016728567</v>
+        <v>0.2467427694469038</v>
       </c>
       <c r="N11">
-        <v>1.76275687109333</v>
+        <v>1.649227406568798</v>
       </c>
       <c r="O11">
-        <v>2.319613578700825</v>
+        <v>1.29944830712185</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.902140029225706</v>
+        <v>0.9467954825485094</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04827676918099399</v>
+        <v>0.0148979864530645</v>
       </c>
       <c r="E12">
-        <v>0.5468291534744907</v>
+        <v>0.5628874159754247</v>
       </c>
       <c r="F12">
-        <v>0.8877569570433508</v>
+        <v>0.4531743358452474</v>
       </c>
       <c r="G12">
-        <v>0.7621145050237743</v>
+        <v>0.3155521212857622</v>
       </c>
       <c r="H12">
-        <v>0.3863236763901483</v>
+        <v>0.3775636361793886</v>
       </c>
       <c r="I12">
-        <v>0.1976372746793009</v>
+        <v>0.6960679868422757</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6535052231286755</v>
+        <v>0.2493662444995977</v>
       </c>
       <c r="M12">
-        <v>0.5641523176444139</v>
+        <v>0.2508410041248439</v>
       </c>
       <c r="N12">
-        <v>1.782357018661457</v>
+        <v>1.65467817712198</v>
       </c>
       <c r="O12">
-        <v>2.379031023072287</v>
+        <v>1.312583443202755</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.892221983764102</v>
+        <v>0.9438439726168326</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0480181149221508</v>
+        <v>0.01481981106828556</v>
       </c>
       <c r="E13">
-        <v>0.5454799872948044</v>
+        <v>0.5625107497504445</v>
       </c>
       <c r="F13">
-        <v>0.8829352312247494</v>
+        <v>0.4520622819706972</v>
       </c>
       <c r="G13">
-        <v>0.7578182146239669</v>
+        <v>0.3145277754261002</v>
       </c>
       <c r="H13">
-        <v>0.3845570525593729</v>
+        <v>0.3772538074752134</v>
       </c>
       <c r="I13">
-        <v>0.1985378680213454</v>
+        <v>0.6966453745764012</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6499964857173097</v>
+        <v>0.2483356611093512</v>
       </c>
       <c r="M13">
-        <v>0.5611713846527806</v>
+        <v>0.2499582294799367</v>
       </c>
       <c r="N13">
-        <v>1.778127053191042</v>
+        <v>1.653500819708256</v>
       </c>
       <c r="O13">
-        <v>2.366206833426929</v>
+        <v>1.309749239858803</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.859888794173827</v>
+        <v>0.934220783330602</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04717490976489813</v>
+        <v>0.0145648244362917</v>
       </c>
       <c r="E14">
-        <v>0.5410812013719308</v>
+        <v>0.5612841501045551</v>
       </c>
       <c r="F14">
-        <v>0.8672457788574803</v>
+        <v>0.4484422114096702</v>
       </c>
       <c r="G14">
-        <v>0.7438392457909799</v>
+        <v>0.3111917696478201</v>
       </c>
       <c r="H14">
-        <v>0.3788134957237048</v>
+        <v>0.3762485216004023</v>
       </c>
       <c r="I14">
-        <v>0.201496801064815</v>
+        <v>0.6985387631609274</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6385599815032492</v>
+        <v>0.2449750945283853</v>
       </c>
       <c r="M14">
-        <v>0.5514540269060859</v>
+        <v>0.2470798672459935</v>
       </c>
       <c r="N14">
-        <v>1.764365469298042</v>
+        <v>1.649674294891781</v>
       </c>
       <c r="O14">
-        <v>2.324489554621181</v>
+        <v>1.300526546915165</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.840092594181726</v>
+        <v>0.9283281089663831</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04665866413406405</v>
+        <v>0.01440860757553253</v>
       </c>
       <c r="E15">
-        <v>0.5383877031496738</v>
+        <v>0.5605342045994774</v>
       </c>
       <c r="F15">
-        <v>0.8576622175634157</v>
+        <v>0.4462298692768343</v>
       </c>
       <c r="G15">
-        <v>0.7353010563706732</v>
+        <v>0.3091519099491364</v>
       </c>
       <c r="H15">
-        <v>0.3753088946693168</v>
+        <v>0.3756366999462131</v>
       </c>
       <c r="I15">
-        <v>0.2033259665996248</v>
+        <v>0.6997065112104028</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6315594936147733</v>
+        <v>0.2429169552229808</v>
       </c>
       <c r="M15">
-        <v>0.5455049582917297</v>
+        <v>0.2453172211844077</v>
       </c>
       <c r="N15">
-        <v>1.755961491533299</v>
+        <v>1.647340515732338</v>
       </c>
       <c r="O15">
-        <v>2.299016163109115</v>
+        <v>1.294892948334137</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.726776040971629</v>
+        <v>0.8945880762683771</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04370373238705128</v>
+        <v>0.01351294277988302</v>
       </c>
       <c r="E16">
-        <v>0.522966372248014</v>
+        <v>0.5562580084663011</v>
       </c>
       <c r="F16">
-        <v>0.8031354275393454</v>
+        <v>0.4336293326617664</v>
       </c>
       <c r="G16">
-        <v>0.6867294687225183</v>
+        <v>0.2975165078587025</v>
       </c>
       <c r="H16">
-        <v>0.3554251765579295</v>
+        <v>0.3721910951854284</v>
       </c>
       <c r="I16">
-        <v>0.2140607169447311</v>
+        <v>0.7065209129375747</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5915104444158317</v>
+        <v>0.2311274764913662</v>
       </c>
       <c r="M16">
-        <v>0.5114579697742485</v>
+        <v>0.2352230802143822</v>
       </c>
       <c r="N16">
-        <v>1.708184250341617</v>
+        <v>1.634121714676269</v>
       </c>
       <c r="O16">
-        <v>2.154211241648454</v>
+        <v>1.262847626534324</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.657365690411979</v>
+        <v>0.8739159690250062</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04189380847010682</v>
+        <v>0.01296309536711959</v>
       </c>
       <c r="E17">
-        <v>0.5135189072445954</v>
+        <v>0.5536541059616624</v>
       </c>
       <c r="F17">
-        <v>0.7700182337957102</v>
+        <v>0.4259684811298996</v>
       </c>
       <c r="G17">
-        <v>0.657234649490789</v>
+        <v>0.290426880171708</v>
       </c>
       <c r="H17">
-        <v>0.3433978772383881</v>
+        <v>0.3701313463022728</v>
       </c>
       <c r="I17">
-        <v>0.2208672760217834</v>
+        <v>0.7108106462373556</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5669978707936991</v>
+        <v>0.2238996057704981</v>
       </c>
       <c r="M17">
-        <v>0.4906082906059837</v>
+        <v>0.2290370223396252</v>
       </c>
       <c r="N17">
-        <v>1.67920880388651</v>
+        <v>1.626151586075025</v>
       </c>
       <c r="O17">
-        <v>2.066373749365368</v>
+        <v>1.243401671755691</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.617478422108803</v>
+        <v>0.8620359365768593</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04085372808403065</v>
+        <v>0.01264670161205572</v>
       </c>
       <c r="E18">
-        <v>0.5080899729990307</v>
+        <v>0.5521636508488967</v>
       </c>
       <c r="F18">
-        <v>0.7510859085428905</v>
+        <v>0.4215875864890819</v>
       </c>
       <c r="G18">
-        <v>0.6403746941690684</v>
+        <v>0.2863668463105427</v>
       </c>
       <c r="H18">
-        <v>0.3365399308927692</v>
+        <v>0.3689664983619849</v>
       </c>
       <c r="I18">
-        <v>0.2248618554735611</v>
+        <v>0.7133181619287976</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5529178575857401</v>
+        <v>0.2197441059010856</v>
       </c>
       <c r="M18">
-        <v>0.4786286179902106</v>
+        <v>0.2254814016629823</v>
       </c>
       <c r="N18">
-        <v>1.662663042778945</v>
+        <v>1.621618820441455</v>
       </c>
       <c r="O18">
-        <v>2.016198192968005</v>
+        <v>1.232295058410926</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.603979127770572</v>
+        <v>0.8580153151664547</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04050172687364295</v>
+        <v>0.01253955330417966</v>
       </c>
       <c r="E19">
-        <v>0.5062527084140811</v>
+        <v>0.5516602623438445</v>
       </c>
       <c r="F19">
-        <v>0.7446950234511718</v>
+        <v>0.4201086579692515</v>
       </c>
       <c r="G19">
-        <v>0.6346835906678905</v>
+        <v>0.2849952319661924</v>
       </c>
       <c r="H19">
-        <v>0.3342279571687072</v>
+        <v>0.3685755140139406</v>
       </c>
       <c r="I19">
-        <v>0.22622787438989</v>
+        <v>0.7141740637101472</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5481537092537963</v>
+        <v>0.2183374395645785</v>
       </c>
       <c r="M19">
-        <v>0.474574553676014</v>
+        <v>0.2242779570305871</v>
       </c>
       <c r="N19">
-        <v>1.657081315754851</v>
+        <v>1.620092966998598</v>
       </c>
       <c r="O19">
-        <v>1.999267262763908</v>
+        <v>1.228547976226338</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.664750774095978</v>
+        <v>0.8761155212730785</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04208637845079721</v>
+        <v>0.01302164177634779</v>
       </c>
       <c r="E20">
-        <v>0.5145240936960889</v>
+        <v>0.5539305489079851</v>
       </c>
       <c r="F20">
-        <v>0.7735314826206547</v>
+        <v>0.4267813606160047</v>
       </c>
       <c r="G20">
-        <v>0.6603634472298126</v>
+        <v>0.2911797473744855</v>
       </c>
       <c r="H20">
-        <v>0.3446719465899832</v>
+        <v>0.3703485544266272</v>
       </c>
       <c r="I20">
-        <v>0.2201344285949203</v>
+        <v>0.7103498388972316</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5696052753370253</v>
+        <v>0.224668842788148</v>
       </c>
       <c r="M20">
-        <v>0.4928264552835557</v>
+        <v>0.2296952887660169</v>
       </c>
       <c r="N20">
-        <v>1.682280794281041</v>
+        <v>1.626994702512235</v>
       </c>
       <c r="O20">
-        <v>2.075687930424806</v>
+        <v>1.245463634415415</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.869383980779531</v>
+        <v>0.9370469726585213</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04742252856002693</v>
+        <v>0.01463972651351497</v>
       </c>
       <c r="E21">
-        <v>0.5423730480057358</v>
+        <v>0.5616441447109466</v>
       </c>
       <c r="F21">
-        <v>0.8718485515390313</v>
+        <v>0.4495044603318377</v>
       </c>
       <c r="G21">
-        <v>0.7479400989024043</v>
+        <v>0.3121708975199482</v>
       </c>
       <c r="H21">
-        <v>0.3804976883724009</v>
+        <v>0.3765429763793975</v>
       </c>
       <c r="I21">
-        <v>0.2006241939105147</v>
+        <v>0.6979809633318599</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.641918170226262</v>
+        <v>0.2459621113961674</v>
       </c>
       <c r="M21">
-        <v>0.5543075991665489</v>
+        <v>0.2479252221056498</v>
       </c>
       <c r="N21">
-        <v>1.76840227287687</v>
+        <v>1.650796139409152</v>
       </c>
       <c r="O21">
-        <v>2.336726215802827</v>
+        <v>1.303232231101902</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.003509532667692</v>
+        <v>0.976951008656556</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05092056318805049</v>
+        <v>0.01569590304828239</v>
       </c>
       <c r="E22">
-        <v>0.5606141265382476</v>
+        <v>0.5667475832041333</v>
       </c>
       <c r="F22">
-        <v>0.9372804853467898</v>
+        <v>0.4645816106999661</v>
       </c>
       <c r="G22">
-        <v>0.8062481058510826</v>
+        <v>0.3260482156859013</v>
       </c>
       <c r="H22">
-        <v>0.4045078970564902</v>
+        <v>0.3807679937203261</v>
       </c>
       <c r="I22">
-        <v>0.1886176272610056</v>
+        <v>0.6902549309903883</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6893846228855409</v>
+        <v>0.2598923823176591</v>
       </c>
       <c r="M22">
-        <v>0.5946245303824469</v>
+        <v>0.2598592140246865</v>
       </c>
       <c r="N22">
-        <v>1.825816604907374</v>
+        <v>1.666803601923618</v>
       </c>
       <c r="O22">
-        <v>2.510840987850003</v>
+        <v>1.341684038602523</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.931885466843966</v>
+        <v>0.9556463452742037</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04905252105467639</v>
+        <v>0.01513232994977187</v>
       </c>
       <c r="E23">
-        <v>0.5508750373942348</v>
+        <v>0.5640182066800108</v>
       </c>
       <c r="F23">
-        <v>0.9022433187260646</v>
+        <v>0.4565139520301926</v>
       </c>
       <c r="G23">
-        <v>0.7750229370116557</v>
+        <v>0.3186271144183053</v>
       </c>
       <c r="H23">
-        <v>0.3916354723721014</v>
+        <v>0.3784968773806696</v>
       </c>
       <c r="I23">
-        <v>0.1949558720455782</v>
+        <v>0.6943457266398783</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6640301884467732</v>
+        <v>0.2524563587640785</v>
       </c>
       <c r="M23">
-        <v>0.5730930168399411</v>
+        <v>0.2534881151168307</v>
       </c>
       <c r="N23">
-        <v>1.795067231914004</v>
+        <v>1.658219074196239</v>
       </c>
       <c r="O23">
-        <v>2.417569785898991</v>
+        <v>1.32109781722562</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.661411923466432</v>
+        <v>0.8751210891721257</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0419993161253629</v>
+        <v>0.0129951738128824</v>
       </c>
       <c r="E24">
-        <v>0.5140696409420187</v>
+        <v>0.5538055485846058</v>
       </c>
       <c r="F24">
-        <v>0.7719428105191213</v>
+        <v>0.4264137848138319</v>
       </c>
       <c r="G24">
-        <v>0.6589486171182557</v>
+        <v>0.2908393266298361</v>
       </c>
       <c r="H24">
-        <v>0.3440957638859032</v>
+        <v>0.3702502944206714</v>
       </c>
       <c r="I24">
-        <v>0.2204654957668231</v>
+        <v>0.7105580412792705</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5684264289201053</v>
+        <v>0.2243210710244199</v>
       </c>
       <c r="M24">
-        <v>0.4918236012222081</v>
+        <v>0.2293976839177674</v>
       </c>
       <c r="N24">
-        <v>1.680891597312666</v>
+        <v>1.626613375727203</v>
       </c>
       <c r="O24">
-        <v>2.07147598651548</v>
+        <v>1.244531193322473</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.370993580574208</v>
+        <v>0.7886486059721847</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03442608962549798</v>
+        <v>0.01068476682329589</v>
       </c>
       <c r="E25">
-        <v>0.4745632026006561</v>
+        <v>0.5430677134689148</v>
       </c>
       <c r="F25">
-        <v>0.635746720579732</v>
+        <v>0.3949178138340557</v>
       </c>
       <c r="G25">
-        <v>0.5376754279494236</v>
+        <v>0.261543210632837</v>
       </c>
       <c r="H25">
-        <v>0.2950722975517124</v>
+        <v>0.3621146240710402</v>
       </c>
       <c r="I25">
-        <v>0.2510072482411463</v>
+        <v>0.7295816435367319</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.466008908278738</v>
+        <v>0.1940417199848525</v>
       </c>
       <c r="M25">
-        <v>0.4046274242685044</v>
+        <v>0.2035064968160327</v>
       </c>
       <c r="N25">
-        <v>1.562297470427993</v>
+        <v>1.594491830780356</v>
       </c>
       <c r="O25">
-        <v>1.711179011156418</v>
+        <v>1.164930181577262</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7253364120738013</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.008979455509845025</v>
+        <v>0.005790763808336763</v>
       </c>
       <c r="E2">
-        <v>0.535411221264134</v>
+        <v>1.567431669290599</v>
       </c>
       <c r="F2">
-        <v>0.3725575301122603</v>
+        <v>1.788824380448105</v>
       </c>
       <c r="G2">
-        <v>0.2405468349764988</v>
+        <v>0.0007158969819686038</v>
       </c>
       <c r="H2">
-        <v>0.3567772508854716</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7449121468774171</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1718117218132562</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1845301833611188</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.572562487964404</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.1088714286482</v>
+        <v>5.977551973917741</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6826654248632167</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.007821302310667022</v>
+        <v>0.004810053280051463</v>
       </c>
       <c r="E3">
-        <v>0.5303836484837561</v>
+        <v>1.336160509687247</v>
       </c>
       <c r="F3">
-        <v>0.3579190005688631</v>
+        <v>1.540579415516163</v>
       </c>
       <c r="G3">
-        <v>0.226671661605323</v>
+        <v>0.0007235385202731814</v>
       </c>
       <c r="H3">
-        <v>0.3535672879066283</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7561285609061521</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1567895011920371</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1717276833274681</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.558789268756399</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.072462683276029</v>
+        <v>5.144303722186748</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6565870575131214</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.007109052004803829</v>
+        <v>0.004246805412789101</v>
       </c>
       <c r="E4">
-        <v>0.5273782259024955</v>
+        <v>1.19836875584835</v>
       </c>
       <c r="F4">
-        <v>0.3491844527522119</v>
+        <v>1.39156792097431</v>
       </c>
       <c r="G4">
-        <v>0.2183259145934358</v>
+        <v>0.0007283324737220104</v>
       </c>
       <c r="H4">
-        <v>0.3517973117262301</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7634236498916662</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1475883738917361</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1638968503600893</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.550874689875116</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.050886135341699</v>
+        <v>4.64447396529016</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6459915512600674</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.006818533464379328</v>
+        <v>0.004025310140482574</v>
       </c>
       <c r="E5">
-        <v>0.5261743208103127</v>
+        <v>1.143099556680454</v>
       </c>
       <c r="F5">
-        <v>0.3456888216419358</v>
+        <v>1.331578396996946</v>
       </c>
       <c r="G5">
-        <v>0.2149685448031562</v>
+        <v>0.0007303138689014644</v>
       </c>
       <c r="H5">
-        <v>0.3511266099771149</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7664991264618539</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1438447805042671</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1607135292102733</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.547786707418595</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.0422892150211</v>
+        <v>4.443320970959121</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6442341163874232</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006770277192241991</v>
+        <v>0.003988969621550709</v>
       </c>
       <c r="E6">
-        <v>0.5259756809625884</v>
+        <v>1.133970667797612</v>
       </c>
       <c r="F6">
-        <v>0.3451122263728905</v>
+        <v>1.321658118355671</v>
       </c>
       <c r="G6">
-        <v>0.2144136864861821</v>
+        <v>0.0007306446175404968</v>
       </c>
       <c r="H6">
-        <v>0.3510182966112296</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7670160088778255</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1432235262349622</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1601854207612803</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.547282268483841</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.040873520315159</v>
+        <v>4.410060780376625</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6564440333546884</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007105135045243571</v>
+        <v>0.004243787861193837</v>
       </c>
       <c r="E7">
-        <v>0.5273619048446321</v>
+        <v>1.19762002231144</v>
       </c>
       <c r="F7">
-        <v>0.3491370512472329</v>
+        <v>1.390756064626686</v>
       </c>
       <c r="G7">
-        <v>0.2182804595433225</v>
+        <v>0.0007283590801757514</v>
       </c>
       <c r="H7">
-        <v>0.3517880615588922</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7634647110993198</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.147537862079048</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1638538870039028</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.550832487221413</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.050769402002402</v>
+        <v>4.641751433936406</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7105987722287352</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.008580369955929257</v>
+        <v>0.005443401231106648</v>
       </c>
       <c r="E8">
-        <v>0.5336609878325973</v>
+        <v>1.486702222600144</v>
       </c>
       <c r="F8">
-        <v>0.3674575355237906</v>
+        <v>1.702442448580072</v>
       </c>
       <c r="G8">
-        <v>0.2357265785696967</v>
+        <v>0.0007185119885999402</v>
       </c>
       <c r="H8">
-        <v>0.3556287735415395</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7486948720827185</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1666275276720768</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1801098250504367</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.567701486266202</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.096156040069587</v>
+        <v>5.68752606402569</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8177232591540644</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01146369786571455</v>
+        <v>0.008199630958760196</v>
       </c>
       <c r="E9">
-        <v>0.5466466989470149</v>
+        <v>2.096339606710984</v>
       </c>
       <c r="F9">
-        <v>0.4053979858665571</v>
+        <v>2.347128541868813</v>
       </c>
       <c r="G9">
-        <v>0.2713219185447855</v>
+        <v>0.0006998995818341907</v>
       </c>
       <c r="H9">
-        <v>0.3647537052407301</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7229680775906928</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2042317180763007</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2122148776844881</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.605046473129207</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.191346434927141</v>
+        <v>7.85416229861778</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8969482396470028</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01357566533703647</v>
+        <v>0.01063539081229159</v>
       </c>
       <c r="E10">
-        <v>0.5565561050779948</v>
+        <v>2.586060833366659</v>
       </c>
       <c r="F10">
-        <v>0.4345069338856433</v>
+        <v>2.851605898883406</v>
       </c>
       <c r="G10">
-        <v>0.2983278881917784</v>
+        <v>0.0006864679269856881</v>
       </c>
       <c r="H10">
-        <v>0.3724288176666022</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.706036868273177</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2319524613620416</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2359292756922429</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.635038110963052</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.265077141312986</v>
+        <v>9.553113749089562</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9330938157802677</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01453495277009864</v>
+        <v>0.01188174520348895</v>
       </c>
       <c r="E11">
-        <v>0.5611406553761427</v>
+        <v>2.822475958476986</v>
       </c>
       <c r="F11">
-        <v>0.4480188439983834</v>
+        <v>3.090660193508569</v>
       </c>
       <c r="G11">
-        <v>0.3108014760982343</v>
+        <v>0.0006803599163909574</v>
       </c>
       <c r="H11">
-        <v>0.3761312885551433</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6987615982427018</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.244581497042148</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.2467427694469038</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.649227406568798</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.29944830712185</v>
+        <v>10.35932114213159</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9467954825485094</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0148979864530645</v>
+        <v>0.0123789907304328</v>
       </c>
       <c r="E12">
-        <v>0.5628874159754247</v>
+        <v>2.914448926120798</v>
       </c>
       <c r="F12">
-        <v>0.4531743358452474</v>
+        <v>3.182852286963424</v>
       </c>
       <c r="G12">
-        <v>0.3155521212857622</v>
+        <v>0.0006780420884711039</v>
       </c>
       <c r="H12">
-        <v>0.3775636361793886</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6960679868422757</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2493662444995977</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.2508410041248439</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.65467817712198</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.312583443202755</v>
+        <v>10.67043865151464</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9438439726168326</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01481981106828556</v>
+        <v>0.01227067534381021</v>
       </c>
       <c r="E13">
-        <v>0.5625107497504445</v>
+        <v>2.89452307201671</v>
       </c>
       <c r="F13">
-        <v>0.4520622819706972</v>
+        <v>3.162917655983051</v>
       </c>
       <c r="G13">
-        <v>0.3145277754261002</v>
+        <v>0.0006785415835796068</v>
       </c>
       <c r="H13">
-        <v>0.3772538074752134</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6966453745764012</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2483356611093512</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.2499582294799367</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.653500819708256</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.309749239858803</v>
+        <v>10.60315633985687</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.934220783330602</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0145648244362917</v>
+        <v>0.01192211160192613</v>
       </c>
       <c r="E14">
-        <v>0.5612841501045551</v>
+        <v>2.829990385389266</v>
       </c>
       <c r="F14">
-        <v>0.4484422114096702</v>
+        <v>3.098209602540294</v>
       </c>
       <c r="G14">
-        <v>0.3111917696478201</v>
+        <v>0.0006801693578381495</v>
       </c>
       <c r="H14">
-        <v>0.3762485216004023</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6985387631609274</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2449750945283853</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.2470798672459935</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.649674294891781</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.300526546915165</v>
+        <v>10.38479363018229</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9283281089663831</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01440860757553253</v>
+        <v>0.01171208091424347</v>
       </c>
       <c r="E15">
-        <v>0.5605342045994774</v>
+        <v>2.790797357017979</v>
       </c>
       <c r="F15">
-        <v>0.4462298692768343</v>
+        <v>3.058800812428132</v>
       </c>
       <c r="G15">
-        <v>0.3091519099491364</v>
+        <v>0.0006811656135361544</v>
       </c>
       <c r="H15">
-        <v>0.3756366999462131</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6997065112104028</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2429169552229808</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.2453172211844077</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.647340515732338</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.294892948334137</v>
+        <v>10.25183258971811</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8945880762683771</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01351294277988302</v>
+        <v>0.01055715331135509</v>
       </c>
       <c r="E16">
-        <v>0.5562580084663011</v>
+        <v>2.570924132985738</v>
       </c>
       <c r="F16">
-        <v>0.4336293326617664</v>
+        <v>2.83619934893477</v>
       </c>
       <c r="G16">
-        <v>0.2975165078587025</v>
+        <v>0.0006868667236991122</v>
       </c>
       <c r="H16">
-        <v>0.3721910951854284</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7065209129375747</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2311274764913662</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2352230802143822</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.634121714676269</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.262847626534324</v>
+        <v>9.501180815391194</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8739159690250062</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01296309536711959</v>
+        <v>0.009887510818371581</v>
       </c>
       <c r="E17">
-        <v>0.5536541059616624</v>
+        <v>2.439845517651165</v>
       </c>
       <c r="F17">
-        <v>0.4259684811298996</v>
+        <v>2.702281680383749</v>
       </c>
       <c r="G17">
-        <v>0.290426880171708</v>
+        <v>0.000690361341600406</v>
       </c>
       <c r="H17">
-        <v>0.3701313463022728</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7108106462373556</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2238996057704981</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2290370223396252</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.626151586075025</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.243401671755691</v>
+        <v>9.049894410862919</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8620359365768593</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01264670161205572</v>
+        <v>0.009514980397314687</v>
       </c>
       <c r="E18">
-        <v>0.5521636508488967</v>
+        <v>2.365701617315594</v>
       </c>
       <c r="F18">
-        <v>0.4215875864890819</v>
+        <v>2.626135773823904</v>
       </c>
       <c r="G18">
-        <v>0.2863668463105427</v>
+        <v>0.0006923719131901596</v>
       </c>
       <c r="H18">
-        <v>0.3689664983619849</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7133181619287976</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2197441059010856</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2254814016629823</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.621618820441455</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.232295058410926</v>
+        <v>8.79339336534423</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8580153151664547</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01253955330417966</v>
+        <v>0.009390873476407435</v>
       </c>
       <c r="E19">
-        <v>0.5516602623438445</v>
+        <v>2.340799178541076</v>
       </c>
       <c r="F19">
-        <v>0.4201086579692515</v>
+        <v>2.600497178597323</v>
       </c>
       <c r="G19">
-        <v>0.2849952319661924</v>
+        <v>0.000693052895890151</v>
       </c>
       <c r="H19">
-        <v>0.3685755140139406</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7141740637101472</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2183374395645785</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2242779570305871</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.620092966998598</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.228547976226338</v>
+        <v>8.707044974998723</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8761155212730785</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01302164177634779</v>
+        <v>0.00995745327893971</v>
       </c>
       <c r="E20">
-        <v>0.5539305489079851</v>
+        <v>2.453666606034687</v>
       </c>
       <c r="F20">
-        <v>0.4267813606160047</v>
+        <v>2.716444424735187</v>
       </c>
       <c r="G20">
-        <v>0.2911797473744855</v>
+        <v>0.000689989309964449</v>
       </c>
       <c r="H20">
-        <v>0.3703485544266272</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7103498388972316</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.224668842788148</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2296952887660169</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.626994702512235</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.245463634415415</v>
+        <v>9.09761035659443</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9370469726585213</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01463972651351497</v>
+        <v>0.01202375752425411</v>
       </c>
       <c r="E21">
-        <v>0.5616441447109466</v>
+        <v>2.848874331676143</v>
       </c>
       <c r="F21">
-        <v>0.4495044603318377</v>
+        <v>3.11716806728532</v>
       </c>
       <c r="G21">
-        <v>0.3121708975199482</v>
+        <v>0.0006796914191595373</v>
       </c>
       <c r="H21">
-        <v>0.3765429763793975</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6979809633318599</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2459621113961674</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.2479252221056498</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.650796139409152</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.303232231101902</v>
+        <v>10.44876478360027</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.976951008656556</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01569590304828239</v>
+        <v>0.01352510470984569</v>
       </c>
       <c r="E22">
-        <v>0.5667475832041333</v>
+        <v>3.121746484625987</v>
       </c>
       <c r="F22">
-        <v>0.4645816106999661</v>
+        <v>3.388961998781184</v>
       </c>
       <c r="G22">
-        <v>0.3260482156859013</v>
+        <v>0.0006729296473790117</v>
       </c>
       <c r="H22">
-        <v>0.3807679937203261</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6902549309903883</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2598923823176591</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.2598592140246865</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.666803601923618</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.341684038602523</v>
+        <v>11.36640331357137</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9556463452742037</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01513232994977187</v>
+        <v>0.01270784654396095</v>
       </c>
       <c r="E23">
-        <v>0.5640182066800108</v>
+        <v>2.97458337318669</v>
       </c>
       <c r="F23">
-        <v>0.4565139520301926</v>
+        <v>3.242882952692611</v>
       </c>
       <c r="G23">
-        <v>0.3186271144183053</v>
+        <v>0.000676543403700369</v>
       </c>
       <c r="H23">
-        <v>0.3784968773806696</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6943457266398783</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2524563587640785</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.2534881151168307</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.658219074196239</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.32109781722562</v>
+        <v>10.87308314478946</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8751210891721257</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0129951738128824</v>
+        <v>0.009925793883219569</v>
       </c>
       <c r="E24">
-        <v>0.5538055485846058</v>
+        <v>2.447414342894518</v>
       </c>
       <c r="F24">
-        <v>0.4264137848138319</v>
+        <v>2.710038836878795</v>
       </c>
       <c r="G24">
-        <v>0.2908393266298361</v>
+        <v>0.0006901575004868923</v>
       </c>
       <c r="H24">
-        <v>0.3702502944206714</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7105580412792705</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2243210710244199</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2293976839177674</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.626613375727203</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.244531193322473</v>
+        <v>9.076028865477952</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7886486059721847</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01068476682329589</v>
+        <v>0.007395808202645071</v>
       </c>
       <c r="E25">
-        <v>0.5430677134689148</v>
+        <v>1.925385879019359</v>
       </c>
       <c r="F25">
-        <v>0.3949178138340557</v>
+        <v>2.168159383477573</v>
       </c>
       <c r="G25">
-        <v>0.261543210632837</v>
+        <v>0.0007048771891287053</v>
       </c>
       <c r="H25">
-        <v>0.3621146240710402</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7295816435367319</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1940417199848525</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2035064968160327</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.594491830780356</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.164930181577262</v>
+        <v>7.252194421940487</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -427,19 +433,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.005790763808336763</v>
+        <v>0.00432931200207598</v>
       </c>
       <c r="E2">
-        <v>1.567431669290599</v>
+        <v>1.600873072162528</v>
       </c>
       <c r="F2">
-        <v>1.788824380448105</v>
+        <v>1.734649167650232</v>
       </c>
       <c r="G2">
-        <v>0.0007158969819686038</v>
+        <v>0.0007410384731844521</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.04171709307939953</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,10 +466,16 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.977551973917741</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>5.792514159972825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -474,19 +486,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004810053280051463</v>
+        <v>0.003828363218534747</v>
       </c>
       <c r="E3">
-        <v>1.336160509687247</v>
+        <v>1.399341820829306</v>
       </c>
       <c r="F3">
-        <v>1.540579415516163</v>
+        <v>1.510042344664228</v>
       </c>
       <c r="G3">
-        <v>0.0007235385202731814</v>
+        <v>0.00074668753920785</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.03340203492311522</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,10 +519,16 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.144303722186748</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>5.044034807436219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -521,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004246805412789101</v>
+        <v>0.003519548569938635</v>
       </c>
       <c r="E4">
-        <v>1.19836875584835</v>
+        <v>1.276438490653405</v>
       </c>
       <c r="F4">
-        <v>1.39156792097431</v>
+        <v>1.373835730380762</v>
       </c>
       <c r="G4">
-        <v>0.0007283324737220104</v>
+        <v>0.0007502524627381851</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.02862650245022236</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,10 +572,16 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.64447396529016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>4.590063612804045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -568,19 +592,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004025310140482574</v>
+        <v>0.0033933176380323</v>
       </c>
       <c r="E5">
-        <v>1.143099556680454</v>
+        <v>1.226518056583984</v>
       </c>
       <c r="F5">
-        <v>1.331578396996946</v>
+        <v>1.318699736362447</v>
       </c>
       <c r="G5">
-        <v>0.0007303138689014644</v>
+        <v>0.0007517302849806259</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02675388099442255</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,10 +625,16 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.443320970959121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>4.406277243177954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -615,19 +645,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003988969621550709</v>
+        <v>0.003372331711000598</v>
       </c>
       <c r="E6">
-        <v>1.133970667797612</v>
+        <v>1.218237376674864</v>
       </c>
       <c r="F6">
-        <v>1.321658118355671</v>
+        <v>1.309565108019399</v>
       </c>
       <c r="G6">
-        <v>0.0007306446175404968</v>
+        <v>0.0007519772154345997</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.02644710249198701</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,10 +678,16 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.410060780376625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>4.375827272648849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -662,19 +698,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004243787861193837</v>
+        <v>0.003517847833785837</v>
       </c>
       <c r="E7">
-        <v>1.19762002231144</v>
+        <v>1.275764643388399</v>
       </c>
       <c r="F7">
-        <v>1.390756064626686</v>
+        <v>1.373090726626188</v>
       </c>
       <c r="G7">
-        <v>0.0007283590801757514</v>
+        <v>0.000750272290410533</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.02860096239122623</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,10 +731,16 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.641751433936406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>4.587580354425143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -709,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005443401231106648</v>
+        <v>0.00415678984312251</v>
       </c>
       <c r="E8">
-        <v>1.486702222600144</v>
+        <v>1.53118194175758</v>
       </c>
       <c r="F8">
-        <v>1.702442448580072</v>
+        <v>1.656814477531285</v>
       </c>
       <c r="G8">
-        <v>0.0007185119885999402</v>
+        <v>0.0007429668001152043</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.03877565889480472</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,10 +784,16 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.68752606402569</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>5.533153302913831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -756,19 +804,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008199630958760196</v>
+        <v>0.005404213374902156</v>
       </c>
       <c r="E9">
-        <v>2.096339606710984</v>
+        <v>2.04100710911122</v>
       </c>
       <c r="F9">
-        <v>2.347128541868813</v>
+        <v>2.22961514129733</v>
       </c>
       <c r="G9">
-        <v>0.0006998995818341907</v>
+        <v>0.0007293637024645694</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.06180864761804816</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,10 +837,16 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>7.85416229861778</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>7.441575287823923</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -803,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01063539081229159</v>
+        <v>0.005837902377299642</v>
       </c>
       <c r="E10">
-        <v>2.586060833366659</v>
+        <v>2.312843407003001</v>
       </c>
       <c r="F10">
-        <v>2.851605898883406</v>
+        <v>2.636326632392183</v>
       </c>
       <c r="G10">
-        <v>0.0006864679269856881</v>
+        <v>0.000720121061217357</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.07958558051431019</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,10 +890,16 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>9.553113749089562</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>8.784285178562129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -850,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01188174520348895</v>
+        <v>0.002684140595514251</v>
       </c>
       <c r="E11">
-        <v>2.822475958476986</v>
+        <v>1.572648231934693</v>
       </c>
       <c r="F11">
-        <v>3.090660193508569</v>
+        <v>2.578118507653329</v>
       </c>
       <c r="G11">
-        <v>0.0006803599163909574</v>
+        <v>0.0007190234217426503</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.09214000462508309</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,10 +943,16 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.35932114213159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>8.483196428624751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -897,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0123789907304328</v>
+        <v>0.001107610607093079</v>
       </c>
       <c r="E12">
-        <v>2.914448926120798</v>
+        <v>1.030708641388401</v>
       </c>
       <c r="F12">
-        <v>3.182852286963424</v>
+        <v>2.444575914862284</v>
       </c>
       <c r="G12">
-        <v>0.0006780420884711039</v>
+        <v>0.0007197453246680163</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1246264290775585</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,10 +996,16 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.67043865151464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>7.955557470034648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -944,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01227067534381021</v>
+        <v>0.000624206951132189</v>
       </c>
       <c r="E13">
-        <v>2.89452307201671</v>
+        <v>0.6111023045898918</v>
       </c>
       <c r="F13">
-        <v>3.162917655983051</v>
+        <v>2.24690819892821</v>
       </c>
       <c r="G13">
-        <v>0.0006785415835796068</v>
+        <v>0.0007218960223554482</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1736136804317709</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,10 +1049,16 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.60315633985687</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>7.229212673310315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -991,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01192211160192613</v>
+        <v>0.0009145802029060235</v>
       </c>
       <c r="E14">
-        <v>2.829990385389266</v>
+        <v>0.3925621268864106</v>
       </c>
       <c r="F14">
-        <v>3.098209602540294</v>
+        <v>2.081789203434028</v>
       </c>
       <c r="G14">
-        <v>0.0006801693578381495</v>
+        <v>0.0007240069046501362</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2182491431205449</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,10 +1102,16 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.38479363018229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>6.639580735202117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1038,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01171208091424347</v>
+        <v>0.00106331892348166</v>
       </c>
       <c r="E15">
-        <v>2.790797357017979</v>
+        <v>0.3479899306675307</v>
       </c>
       <c r="F15">
-        <v>3.058800812428132</v>
+        <v>2.028149609722718</v>
       </c>
       <c r="G15">
-        <v>0.0006811656135361544</v>
+        <v>0.0007248617422952247</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2291677938675178</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,10 +1155,16 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.25183258971811</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>6.45393117557694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1085,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01055715331135509</v>
+        <v>0.001006296082693758</v>
       </c>
       <c r="E16">
-        <v>2.570924132985738</v>
+        <v>0.3361595488697162</v>
       </c>
       <c r="F16">
-        <v>2.83619934893477</v>
+        <v>1.899889488915193</v>
       </c>
       <c r="G16">
-        <v>0.0006868667236991122</v>
+        <v>0.0007282947253481484</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2108012121221492</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,10 +1208,16 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.501180815391194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>6.049105708304921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1132,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.009887510818371581</v>
+        <v>0.0007117497753377222</v>
       </c>
       <c r="E17">
-        <v>2.439845517651165</v>
+        <v>0.4281999355971209</v>
       </c>
       <c r="F17">
-        <v>2.702281680383749</v>
+        <v>1.888047560259466</v>
       </c>
       <c r="G17">
-        <v>0.000690361341600406</v>
+        <v>0.000729843975393146</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1710374291306067</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,10 +1261,16 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.049894410862919</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>6.046844682583355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1179,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.009514980397314687</v>
+        <v>0.0007193160563108147</v>
       </c>
       <c r="E18">
-        <v>2.365701617315594</v>
+        <v>0.6863079826001055</v>
       </c>
       <c r="F18">
-        <v>2.626135773823904</v>
+        <v>1.97600515431418</v>
       </c>
       <c r="G18">
-        <v>0.0006923719131901596</v>
+        <v>0.0007297969084812071</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.11998574948759</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,10 +1314,16 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>8.79339336534423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>6.396694735437279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1226,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.009390873476407435</v>
+        <v>0.001785329589929496</v>
       </c>
       <c r="E19">
-        <v>2.340799178541076</v>
+        <v>1.162965331117476</v>
       </c>
       <c r="F19">
-        <v>2.600497178597323</v>
+        <v>2.142143496654484</v>
       </c>
       <c r="G19">
-        <v>0.000693052895890151</v>
+        <v>0.0007282486988851461</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.08100110677667516</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,10 +1367,16 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>8.707044974998723</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>7.023218358559234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1273,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.00995745327893971</v>
+        <v>0.005703569218550086</v>
       </c>
       <c r="E20">
-        <v>2.453666606034687</v>
+        <v>2.236303937061962</v>
       </c>
       <c r="F20">
-        <v>2.716444424735187</v>
+        <v>2.527298270780562</v>
       </c>
       <c r="G20">
-        <v>0.000689989309964449</v>
+        <v>0.0007225407207361875</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.07464522841493881</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,10 +1420,16 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>9.09761035659443</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>8.42382526494589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1320,19 +1440,19 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01202375752425411</v>
+        <v>0.006792178239669155</v>
       </c>
       <c r="E21">
-        <v>2.848874331676143</v>
+        <v>2.621344659526855</v>
       </c>
       <c r="F21">
-        <v>3.11716806728532</v>
+        <v>2.889487496879724</v>
       </c>
       <c r="G21">
-        <v>0.0006796914191595373</v>
+        <v>0.0007149689754672763</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.09198924920431928</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,10 +1473,16 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.44876478360027</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>9.639694161133605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1367,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01352510470984569</v>
+        <v>0.007259900408644882</v>
       </c>
       <c r="E22">
-        <v>3.121746484625987</v>
+        <v>2.819174701392754</v>
       </c>
       <c r="F22">
-        <v>3.388961998781184</v>
+        <v>3.115980084664102</v>
       </c>
       <c r="G22">
-        <v>0.0006729296473790117</v>
+        <v>0.0007102567115190998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.1031716415362318</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,10 +1526,16 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.36640331357137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>10.39415071268968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1414,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01270784654396095</v>
+        <v>0.007009854164433449</v>
       </c>
       <c r="E23">
-        <v>2.97458337318669</v>
+        <v>2.713297212962203</v>
       </c>
       <c r="F23">
-        <v>3.242882952692611</v>
+        <v>2.994672575406526</v>
       </c>
       <c r="G23">
-        <v>0.000676543403700369</v>
+        <v>0.0007127680185640179</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.09713206200377833</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,10 +1579,16 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.87308314478946</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>9.990069385119682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1461,19 +1599,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.009925793883219569</v>
+        <v>0.006070611536218351</v>
       </c>
       <c r="E24">
-        <v>2.447414342894518</v>
+        <v>2.318218556349322</v>
       </c>
       <c r="F24">
-        <v>2.710038836878795</v>
+        <v>2.543914154325734</v>
       </c>
       <c r="G24">
-        <v>0.0006901575004868923</v>
+        <v>0.0007223697570073799</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.07572493987168372</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,10 +1632,16 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>9.076028865477952</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>8.488569533508155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1508,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.007395808202645071</v>
+        <v>0.005066679562141019</v>
       </c>
       <c r="E25">
-        <v>1.925385879019359</v>
+        <v>1.901782877047339</v>
       </c>
       <c r="F25">
-        <v>2.168159383477573</v>
+        <v>2.072464009752622</v>
       </c>
       <c r="G25">
-        <v>0.0007048771891287053</v>
+        <v>0.0007329725296477685</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.05517933856460022</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>7.252194421940487</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>6.918039614086126</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_line/pl_mw.xlsx
@@ -427,52 +427,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.7074961870686991</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.00432931200207598</v>
+        <v>0.11045656111488</v>
       </c>
       <c r="E2">
-        <v>1.600873072162528</v>
+        <v>0.09586128418786366</v>
       </c>
       <c r="F2">
-        <v>1.734649167650232</v>
+        <v>0.5759256387120075</v>
       </c>
       <c r="G2">
-        <v>0.0007410384731844521</v>
+        <v>0.3281932665311942</v>
       </c>
       <c r="H2">
-        <v>0.04171709307939953</v>
+        <v>0.01231223480384099</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.02887843187922101</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3073381901960701</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4691695943735716</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1441879940087478</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.262410092398738</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.223488693144489</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.2031214814564422</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>5.792514159972825</v>
+        <v>1.286574242113545</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -480,52 +480,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.61892352039564</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.003828363218534747</v>
+        <v>0.1050790869164615</v>
       </c>
       <c r="E3">
-        <v>1.399341820829306</v>
+        <v>0.09463991397761395</v>
       </c>
       <c r="F3">
-        <v>1.510042344664228</v>
+        <v>0.5680228127378726</v>
       </c>
       <c r="G3">
-        <v>0.00074668753920785</v>
+        <v>0.3227257354858253</v>
       </c>
       <c r="H3">
-        <v>0.03340203492311522</v>
+        <v>0.01478182008622089</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.03204979921602824</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3090849044482482</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4807698646634719</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.141141178424073</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.11751278779272</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1952712297124322</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.1775948723984691</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5.044034807436219</v>
+        <v>1.278363956512806</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -533,52 +533,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.5641222104376027</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.003519548569938635</v>
+        <v>0.101782009781445</v>
       </c>
       <c r="E4">
-        <v>1.276438490653405</v>
+        <v>0.09386200583948501</v>
       </c>
       <c r="F4">
-        <v>1.373835730380762</v>
+        <v>0.5636376651483701</v>
       </c>
       <c r="G4">
-        <v>0.0007502524627381851</v>
+        <v>0.3197476953543941</v>
       </c>
       <c r="H4">
-        <v>0.02862650245022236</v>
+        <v>0.01647286803096948</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.03418980533999783</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3104216906591262</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4881276734968072</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1392297754387659</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.028730127214573</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.178134898110784</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.1619162774843836</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4.590063612804045</v>
+        <v>1.274672379582313</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -586,52 +586,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.5408873893077839</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0033933176380323</v>
+        <v>0.1003821789387516</v>
       </c>
       <c r="E5">
-        <v>1.226518056583984</v>
+        <v>0.09349196640151458</v>
       </c>
       <c r="F5">
-        <v>1.318699736362447</v>
+        <v>0.5615352009198489</v>
       </c>
       <c r="G5">
-        <v>0.0007517302849806259</v>
+        <v>0.3183120527051102</v>
       </c>
       <c r="H5">
-        <v>0.02675388099442255</v>
+        <v>0.01720885532501931</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.03521128730894985</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3108636960800197</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4908367448747981</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1384500852737496</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.9937090415767784</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1716792790189174</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.155561700450491</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4.406277243177954</v>
+        <v>1.272480213952321</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -639,52 +639,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.5360457567157084</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003372331711000598</v>
+        <v>0.1000796581368419</v>
       </c>
       <c r="E6">
-        <v>1.218237376674864</v>
+        <v>0.09337428643828227</v>
       </c>
       <c r="F6">
-        <v>1.309565108019399</v>
+        <v>0.5606676574921039</v>
       </c>
       <c r="G6">
-        <v>0.0007519772154345997</v>
+        <v>0.3176956206533248</v>
       </c>
       <c r="H6">
-        <v>0.02644710249198701</v>
+        <v>0.01733880586783887</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0355155395799569</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3107359963041247</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4908669606878284</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1383330231924926</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.9892693484490565</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1712022234520703</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.1545512709267385</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4.375827272648849</v>
+        <v>1.270893543902019</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -692,52 +692,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.5611316236708035</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.003517847833785837</v>
+        <v>0.1015716548920338</v>
       </c>
       <c r="E7">
-        <v>1.275764643388399</v>
+        <v>0.09370555846792472</v>
       </c>
       <c r="F7">
-        <v>1.373090726626188</v>
+        <v>0.5621777355552808</v>
       </c>
       <c r="G7">
-        <v>0.000750272290410533</v>
+        <v>0.3186828829332669</v>
       </c>
       <c r="H7">
-        <v>0.02860096239122623</v>
+        <v>0.01649610171370178</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.03454577723697039</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3098697700832673</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4870148362739464</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1392571301350944</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.032021109453581</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1796669356872655</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.1619532868804754</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4.587580354425143</v>
+        <v>1.271258294804326</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -745,52 +745,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.6734688047603754</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.00415678984312251</v>
+        <v>0.1083486054744185</v>
       </c>
       <c r="E8">
-        <v>1.53118194175758</v>
+        <v>0.09525039036344163</v>
       </c>
       <c r="F8">
-        <v>1.656814477531285</v>
+        <v>0.5712245609472717</v>
       </c>
       <c r="G8">
-        <v>0.0007429668001152043</v>
+        <v>0.3248558260591139</v>
       </c>
       <c r="H8">
-        <v>0.03877565889480472</v>
+        <v>0.01314131733913809</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.03034499738323859</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3071568814067192</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.471636515889994</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1432071452786055</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.217443647552244</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2158736930055056</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.1944832581090665</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5.533153302913831</v>
+        <v>1.279025522967913</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -798,52 +798,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.8952683981222833</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005404213374902156</v>
+        <v>0.1220219680713299</v>
       </c>
       <c r="E9">
-        <v>2.04100710911122</v>
+        <v>0.09832716211652581</v>
       </c>
       <c r="F9">
-        <v>2.22961514129733</v>
+        <v>0.5953604700035484</v>
       </c>
       <c r="G9">
-        <v>0.0007293637024645694</v>
+        <v>0.3419900082647658</v>
       </c>
       <c r="H9">
-        <v>0.06180864761804816</v>
+        <v>0.007992737719663578</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.02315717815493645</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3049850489577892</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4453697098321463</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1505721234360653</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.576099369382661</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2855940659805611</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.258054284181398</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7.441575287823923</v>
+        <v>1.311451974120089</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -851,52 +851,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.050164612581909</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.005837902377299642</v>
+        <v>0.1299864163179123</v>
       </c>
       <c r="E10">
-        <v>2.312843407003001</v>
+        <v>0.09943334142799998</v>
       </c>
       <c r="F10">
-        <v>2.636326632392183</v>
+        <v>0.6071783982934278</v>
       </c>
       <c r="G10">
-        <v>0.000720121061217357</v>
+        <v>0.3511700905015687</v>
       </c>
       <c r="H10">
-        <v>0.07958558051431019</v>
+        <v>0.005515088041255112</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01916013963013707</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3019337075027266</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.423341922908401</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1568589598757022</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.85280856129711</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3320143664792283</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.3016075849212214</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8.784285178562129</v>
+        <v>1.324965870501956</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -904,52 +904,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.074976329497275</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.002684140595514251</v>
+        <v>0.1165126859851782</v>
       </c>
       <c r="E11">
-        <v>1.572648231934693</v>
+        <v>0.09483766337035215</v>
       </c>
       <c r="F11">
-        <v>2.578118507653329</v>
+        <v>0.5453480003048412</v>
       </c>
       <c r="G11">
-        <v>0.0007190234217426503</v>
+        <v>0.3114660253210957</v>
       </c>
       <c r="H11">
-        <v>0.09214000462508309</v>
+        <v>0.02404412761683261</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01877326969391202</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2779455783467952</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3865511861955291</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1759054613134303</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.072055553908712</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2982457628801001</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.2932632871015741</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8.483196428624751</v>
+        <v>1.190750149354074</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -957,52 +957,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.066970429038946</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.001107610607093079</v>
+        <v>0.1046603265134607</v>
       </c>
       <c r="E12">
-        <v>1.030708641388401</v>
+        <v>0.0953971386553798</v>
       </c>
       <c r="F12">
-        <v>2.444575914862284</v>
+        <v>0.4950391704738664</v>
       </c>
       <c r="G12">
-        <v>0.0007197453246680163</v>
+        <v>0.278965713690809</v>
       </c>
       <c r="H12">
-        <v>0.1246264290775585</v>
+        <v>0.06288287967685591</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01863584082743142</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2597016036097699</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3663408732684932</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2001990761256351</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.197076329841821</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2593988529909694</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.2768890285522119</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7.955557470034648</v>
+        <v>1.08371625237352</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1010,52 +1010,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.029054889740337</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.000624206951132189</v>
+        <v>0.0931036823988407</v>
       </c>
       <c r="E13">
-        <v>0.6111023045898918</v>
+        <v>0.09957303640196002</v>
       </c>
       <c r="F13">
-        <v>2.24690819892821</v>
+        <v>0.4483339767809085</v>
       </c>
       <c r="G13">
-        <v>0.0007218960223554482</v>
+        <v>0.2483622593438071</v>
       </c>
       <c r="H13">
-        <v>0.1736136804317709</v>
+        <v>0.119007832113553</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.019152092999704</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2438579342918885</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3556478880266118</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2295334780683049</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.26153831727882</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2171962070521261</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.253697579863708</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7.229212673310315</v>
+        <v>0.9856426631782114</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1063,52 +1063,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.9883145425730504</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0009145802029060235</v>
+        <v>0.08529350000200253</v>
       </c>
       <c r="E14">
-        <v>0.3925621268864106</v>
+        <v>0.1046658350909446</v>
       </c>
       <c r="F14">
-        <v>2.081789203434028</v>
+        <v>0.4174708506007789</v>
       </c>
       <c r="G14">
-        <v>0.0007240069046501362</v>
+        <v>0.2278927881525945</v>
       </c>
       <c r="H14">
-        <v>0.2182491431205449</v>
+        <v>0.1686988912277201</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01991723999359962</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2338634836904134</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3528787550840665</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2534720107216444</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.280487790836702</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1870952965841468</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.2345833289580952</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6.639580735202117</v>
+        <v>0.9212663923347861</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1116,52 +1116,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.9711079208412343</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.00106331892348166</v>
+        <v>0.08330528096168877</v>
       </c>
       <c r="E15">
-        <v>0.3479899306675307</v>
+        <v>0.1061300252663848</v>
       </c>
       <c r="F15">
-        <v>2.028149609722718</v>
+        <v>0.4100729057895478</v>
       </c>
       <c r="G15">
-        <v>0.0007248617422952247</v>
+        <v>0.2228593925581777</v>
       </c>
       <c r="H15">
-        <v>0.2291677938675178</v>
+        <v>0.1813843059754277</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.02040261583213354</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2317180726420176</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3535261062262032</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2592935882483758</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.273155064330041</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1793252238877869</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.228552780828494</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6.45393117557694</v>
+        <v>0.9060709426795199</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1169,52 +1169,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.9114969645700626</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.001006296082693758</v>
+        <v>0.08235663450749087</v>
       </c>
       <c r="E16">
-        <v>0.3361595488697162</v>
+        <v>0.1044890084142338</v>
       </c>
       <c r="F16">
-        <v>1.899889488915193</v>
+        <v>0.4136463682502978</v>
       </c>
       <c r="G16">
-        <v>0.0007282947253481484</v>
+        <v>0.2243602526582222</v>
       </c>
       <c r="H16">
-        <v>0.2108012121221492</v>
+        <v>0.1696968312528497</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.02218783168550953</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2357045647509821</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3637596616135093</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2496139022726283</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.140188748260613</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1698512372784364</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.2152099331643704</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6.049105708304921</v>
+        <v>0.9174140291362676</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1222,52 +1222,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.8872467112485083</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0007117497753377222</v>
+        <v>0.08564820662965644</v>
       </c>
       <c r="E17">
-        <v>0.4281999355971209</v>
+        <v>0.1001759025885427</v>
       </c>
       <c r="F17">
-        <v>1.888047560259466</v>
+        <v>0.4325795424316681</v>
       </c>
       <c r="G17">
-        <v>0.000729843975393146</v>
+        <v>0.2362901079367248</v>
       </c>
       <c r="H17">
-        <v>0.1710374291306067</v>
+        <v>0.1325590573332107</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.02318662246739933</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2440659317812433</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3728212809171992</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2288399627311222</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.028671639519274</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1783030889410497</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.2150275752093833</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6.046844682583355</v>
+        <v>0.960099160480695</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1275,52 +1275,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.89271446670449</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0007193160563108147</v>
+        <v>0.09357885169333713</v>
       </c>
       <c r="E18">
-        <v>0.6863079826001055</v>
+        <v>0.09514048511429696</v>
       </c>
       <c r="F18">
-        <v>1.97600515431418</v>
+        <v>0.4690553066637264</v>
       </c>
       <c r="G18">
-        <v>0.0007297969084812071</v>
+        <v>0.2599871212564508</v>
       </c>
       <c r="H18">
-        <v>0.11998574948759</v>
+        <v>0.07991917021237072</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.02319208158107422</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2578142337489311</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3844872116839007</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2002053128496115</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.920864892233595</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2032528314847752</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.2261922811801576</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6.396694735437279</v>
+        <v>1.039062121601503</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1328,52 +1328,52 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.9166149136967476</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.001785329589929496</v>
+        <v>0.1052055206236489</v>
       </c>
       <c r="E19">
-        <v>1.162965331117476</v>
+        <v>0.09314981923002708</v>
       </c>
       <c r="F19">
-        <v>2.142143496654484</v>
+        <v>0.5170817664919127</v>
       </c>
       <c r="G19">
-        <v>0.0007282486988851461</v>
+        <v>0.2912648912467333</v>
       </c>
       <c r="H19">
-        <v>0.08100110677667516</v>
+        <v>0.03425467240295887</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.0230018867623567</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2746480332969981</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3999458217911753</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1747846474680195</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.834088994555998</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2442667798097347</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.2462462154217206</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7.023218358559234</v>
+        <v>1.140604886591078</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1381,52 +1381,52 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.000906496425188</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.005703569218550086</v>
+        <v>0.1272215159864629</v>
       </c>
       <c r="E20">
-        <v>2.236303937061962</v>
+        <v>0.09869365484780968</v>
       </c>
       <c r="F20">
-        <v>2.527298270780562</v>
+        <v>0.59925564453021</v>
       </c>
       <c r="G20">
-        <v>0.0007225407207361875</v>
+        <v>0.3452394981216997</v>
       </c>
       <c r="H20">
-        <v>0.07464522841493881</v>
+        <v>0.006109675621749577</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02113651519653281</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3008681041113732</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4256809461846753</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1554989510877558</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.792607792917238</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3246021871754579</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.2904187347674565</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8.42382526494589</v>
+        <v>1.310049011408651</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1434,52 +1434,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1.128072311480651</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.006792178239669155</v>
+        <v>0.1365955545589799</v>
       </c>
       <c r="E21">
-        <v>2.621344659526855</v>
+        <v>0.1010882389290577</v>
       </c>
       <c r="F21">
-        <v>2.889487496879724</v>
+        <v>0.6222381079339243</v>
       </c>
       <c r="G21">
-        <v>0.0007149689754672763</v>
+        <v>0.3616257591782386</v>
       </c>
       <c r="H21">
-        <v>0.09198924920431928</v>
+        <v>0.004041943360852396</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01804124861476719</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.303430909730352</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4151852590020155</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1587269185344233</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.98839248365374</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3701330064613302</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.3288559478767397</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9.639694161133605</v>
+        <v>1.350484200316458</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1487,52 +1487,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1.212016979899261</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.007259900408644882</v>
+        <v>0.1419501801307916</v>
       </c>
       <c r="E22">
-        <v>2.819174701392754</v>
+        <v>0.1023262233098796</v>
       </c>
       <c r="F22">
-        <v>3.115980084664102</v>
+        <v>0.6356168770220165</v>
       </c>
       <c r="G22">
-        <v>0.0007102567115190998</v>
+        <v>0.3715280640504659</v>
       </c>
       <c r="H22">
-        <v>0.1031716415362318</v>
+        <v>0.003046431539832084</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01588657196714482</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3047480112384875</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4081625103776965</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1612408841342603</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.116628233104791</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3945251463734252</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.3521838483164075</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10.39415071268968</v>
+        <v>1.374443277762452</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1540,52 +1540,52 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.170493502592194</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.007009854164433449</v>
+        <v>0.1393148243124642</v>
       </c>
       <c r="E23">
-        <v>2.713297212962203</v>
+        <v>0.1018266478297063</v>
       </c>
       <c r="F23">
-        <v>2.994672575406526</v>
+        <v>0.630050040777796</v>
       </c>
       <c r="G23">
-        <v>0.0007127680185640179</v>
+        <v>0.3673839322849659</v>
       </c>
       <c r="H23">
-        <v>0.09713206200377833</v>
+        <v>0.003553092799333468</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.0166449614206341</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3046387765594716</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4130955661322382</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1598109496515185</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.043498596413968</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3795149598278016</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.339584082257268</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9.990069385119682</v>
+        <v>1.365317896498368</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1593,52 +1593,52 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.00745481600984</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.006070611536218351</v>
+        <v>0.12900808957869</v>
       </c>
       <c r="E24">
-        <v>2.318218556349322</v>
+        <v>0.09965359182230493</v>
       </c>
       <c r="F24">
-        <v>2.543914154325734</v>
+        <v>0.6075689591821742</v>
       </c>
       <c r="G24">
-        <v>0.0007223697570073799</v>
+        <v>0.3508362519717423</v>
       </c>
       <c r="H24">
-        <v>0.07572493987168372</v>
+        <v>0.005893070163555114</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.02050420230024042</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3038641667578972</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4304031387881491</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1545159194067782</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.774778942151414</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3262741456421878</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.2921580262343539</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8.488569533508155</v>
+        <v>1.328182678416383</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1646,52 +1646,52 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.8306993036553081</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.005066679562141019</v>
+        <v>0.1179734458794215</v>
       </c>
       <c r="E25">
-        <v>1.901782877047339</v>
+        <v>0.09725974072112553</v>
       </c>
       <c r="F25">
-        <v>2.072464009752622</v>
+        <v>0.5858606263606703</v>
       </c>
       <c r="G25">
-        <v>0.0007329725296477685</v>
+        <v>0.3351382753845371</v>
       </c>
       <c r="H25">
-        <v>0.05517933856460022</v>
+        <v>0.009236354314282491</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.02549073808920088</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3043535103045016</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4503180829895275</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1487144969815102</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.485796542680077</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2695131818479268</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.2410732260757982</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6.918039614086126</v>
+        <v>1.295434769331195</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7074961870686991</v>
+        <v>0.6790779003843568</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.11045656111488</v>
+        <v>0.1050544006594407</v>
       </c>
       <c r="E2">
-        <v>0.09586128418786366</v>
+        <v>0.08660314171692463</v>
       </c>
       <c r="F2">
-        <v>0.5759256387120075</v>
+        <v>0.5512836384001645</v>
       </c>
       <c r="G2">
-        <v>0.3281932665311942</v>
+        <v>0.2970772889553501</v>
       </c>
       <c r="H2">
-        <v>0.01231223480384099</v>
+        <v>0.009732662073873237</v>
       </c>
       <c r="I2">
-        <v>0.02887843187922101</v>
+        <v>0.02048210294734165</v>
       </c>
       <c r="J2">
-        <v>0.3073381901960701</v>
+        <v>0.3259969980415036</v>
       </c>
       <c r="K2">
-        <v>0.4691695943735716</v>
+        <v>0.4109882730532917</v>
       </c>
       <c r="L2">
-        <v>0.1441879940087478</v>
+        <v>0.1611280807649234</v>
       </c>
       <c r="M2">
-        <v>1.262410092398738</v>
+        <v>0.1477332526372148</v>
       </c>
       <c r="N2">
-        <v>0.223488693144489</v>
+        <v>0.1307089694393024</v>
       </c>
       <c r="O2">
-        <v>0.2031214814564422</v>
+        <v>1.277388854249807</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2399367475366034</v>
       </c>
       <c r="Q2">
-        <v>1.286574242113545</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.204623182103699</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.233434267298307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.61892352039564</v>
+        <v>0.5961358599280118</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1050790869164615</v>
+        <v>0.1000802549000852</v>
       </c>
       <c r="E3">
-        <v>0.09463991397761395</v>
+        <v>0.0856032973341545</v>
       </c>
       <c r="F3">
-        <v>0.5680228127378726</v>
+        <v>0.5452783560079837</v>
       </c>
       <c r="G3">
-        <v>0.3227257354858253</v>
+        <v>0.2939955761984194</v>
       </c>
       <c r="H3">
-        <v>0.01478182008622089</v>
+        <v>0.01180741171072777</v>
       </c>
       <c r="I3">
-        <v>0.03204979921602824</v>
+        <v>0.02278299015539575</v>
       </c>
       <c r="J3">
-        <v>0.3090849044482482</v>
+        <v>0.3259768361795423</v>
       </c>
       <c r="K3">
-        <v>0.4807698646634719</v>
+        <v>0.4223219108313696</v>
       </c>
       <c r="L3">
-        <v>0.141141178424073</v>
+        <v>0.1668367830763895</v>
       </c>
       <c r="M3">
-        <v>1.11751278779272</v>
+        <v>0.1523972465431815</v>
       </c>
       <c r="N3">
-        <v>0.1952712297124322</v>
+        <v>0.1273316945977232</v>
       </c>
       <c r="O3">
-        <v>0.1775948723984691</v>
+        <v>1.123145030123879</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2082133295464956</v>
       </c>
       <c r="Q3">
-        <v>1.278363956512806</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.178714236506611</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.229402997070267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5641222104376027</v>
+        <v>0.5446487123603276</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.101782009781445</v>
+        <v>0.09702415541354981</v>
       </c>
       <c r="E4">
-        <v>0.09386200583948501</v>
+        <v>0.08496402659397218</v>
       </c>
       <c r="F4">
-        <v>0.5636376651483701</v>
+        <v>0.5419839087112805</v>
       </c>
       <c r="G4">
-        <v>0.3197476953543941</v>
+        <v>0.2925184450395832</v>
       </c>
       <c r="H4">
-        <v>0.01647286803096948</v>
+        <v>0.01323380202998203</v>
       </c>
       <c r="I4">
-        <v>0.03418980533999783</v>
+        <v>0.02435240701562025</v>
       </c>
       <c r="J4">
-        <v>0.3104216906591262</v>
+        <v>0.3260818466193314</v>
       </c>
       <c r="K4">
-        <v>0.4881276734968072</v>
+        <v>0.42946915251345</v>
       </c>
       <c r="L4">
-        <v>0.1392297754387659</v>
+        <v>0.1705733671833425</v>
       </c>
       <c r="M4">
-        <v>1.028730127214573</v>
+        <v>0.1556742865299277</v>
       </c>
       <c r="N4">
-        <v>0.178134898110784</v>
+        <v>0.1252397636626394</v>
       </c>
       <c r="O4">
-        <v>0.1619162774843836</v>
+        <v>1.028820090021469</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1890229931722445</v>
       </c>
       <c r="Q4">
-        <v>1.274672379582313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1628010355640797</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.228086581802387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5408873893077839</v>
+        <v>0.5227852273860094</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1003821789387516</v>
+        <v>0.0957252690845749</v>
       </c>
       <c r="E5">
-        <v>0.09349196640151458</v>
+        <v>0.08465679042802465</v>
       </c>
       <c r="F5">
-        <v>0.5615352009198489</v>
+        <v>0.5403403481225411</v>
       </c>
       <c r="G5">
-        <v>0.3183120527051102</v>
+        <v>0.2917303779835265</v>
       </c>
       <c r="H5">
-        <v>0.01720885532501931</v>
+        <v>0.01385588707748095</v>
       </c>
       <c r="I5">
-        <v>0.03521128730894985</v>
+        <v>0.02514174770488964</v>
       </c>
       <c r="J5">
-        <v>0.3108636960800197</v>
+        <v>0.3259933151743937</v>
       </c>
       <c r="K5">
-        <v>0.4908367448747981</v>
+        <v>0.4321244803794411</v>
       </c>
       <c r="L5">
-        <v>0.1384500852737496</v>
+        <v>0.1719776598286877</v>
       </c>
       <c r="M5">
-        <v>0.9937090415767784</v>
+        <v>0.1570627546778236</v>
       </c>
       <c r="N5">
-        <v>0.1716792790189174</v>
+        <v>0.1243971637212677</v>
       </c>
       <c r="O5">
-        <v>0.155561700450491</v>
+        <v>0.9915318865350855</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1817332572523469</v>
       </c>
       <c r="Q5">
-        <v>1.272480213952321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1563487186688874</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.226892917272409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5360457567157084</v>
+        <v>0.5182387537944351</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1000796581368419</v>
+        <v>0.09544480395454258</v>
       </c>
       <c r="E6">
-        <v>0.09337428643828227</v>
+        <v>0.08455654113413757</v>
       </c>
       <c r="F6">
-        <v>0.5606676574921039</v>
+        <v>0.5395883105406369</v>
       </c>
       <c r="G6">
-        <v>0.3176956206533248</v>
+        <v>0.2912559561315931</v>
       </c>
       <c r="H6">
-        <v>0.01733880586783887</v>
+        <v>0.01396586412567627</v>
       </c>
       <c r="I6">
-        <v>0.0355155395799569</v>
+        <v>0.02541979001661954</v>
       </c>
       <c r="J6">
-        <v>0.3107359963041247</v>
+        <v>0.3257845328662299</v>
       </c>
       <c r="K6">
-        <v>0.4908669606878284</v>
+        <v>0.4321989251099154</v>
       </c>
       <c r="L6">
-        <v>0.1383330231924926</v>
+        <v>0.1720005210578766</v>
       </c>
       <c r="M6">
-        <v>0.9892693484490565</v>
+        <v>0.1572370587134309</v>
       </c>
       <c r="N6">
-        <v>0.1712022234520703</v>
+        <v>0.1242762668773771</v>
       </c>
       <c r="O6">
-        <v>0.1545512709267385</v>
+        <v>0.9866468464520324</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1810924906376385</v>
       </c>
       <c r="Q6">
-        <v>1.270893543902019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1553192561821319</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.225564839399254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5611316236708035</v>
+        <v>0.5422162717444508</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1015716548920338</v>
+        <v>0.09696755438863391</v>
       </c>
       <c r="E7">
-        <v>0.09370555846792472</v>
+        <v>0.08483181705547871</v>
       </c>
       <c r="F7">
-        <v>0.5621777355552808</v>
+        <v>0.5399311869911614</v>
       </c>
       <c r="G7">
-        <v>0.3186828829332669</v>
+        <v>0.2936393685483409</v>
       </c>
       <c r="H7">
-        <v>0.01649610171370178</v>
+        <v>0.01326007829380427</v>
       </c>
       <c r="I7">
-        <v>0.03454577723697039</v>
+        <v>0.02474463677844518</v>
       </c>
       <c r="J7">
-        <v>0.3098697700832673</v>
+        <v>0.322252047282376</v>
       </c>
       <c r="K7">
-        <v>0.4870148362739464</v>
+        <v>0.4282888778401652</v>
       </c>
       <c r="L7">
-        <v>0.1392571301350944</v>
+        <v>0.1699132152249678</v>
       </c>
       <c r="M7">
-        <v>1.032021109453581</v>
+        <v>0.1554614132301912</v>
       </c>
       <c r="N7">
-        <v>0.1796669356872655</v>
+        <v>0.1252524856267669</v>
       </c>
       <c r="O7">
-        <v>0.1619532868804754</v>
+        <v>1.031283782989561</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1903251072996284</v>
       </c>
       <c r="Q7">
-        <v>1.271258294804326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1628366828582877</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.222768186277818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6734688047603754</v>
+        <v>0.6484473013859713</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1083486054744185</v>
+        <v>0.1035677331626843</v>
       </c>
       <c r="E8">
-        <v>0.09525039036344163</v>
+        <v>0.08611114152852162</v>
       </c>
       <c r="F8">
-        <v>0.5712245609472717</v>
+        <v>0.5450659612773308</v>
       </c>
       <c r="G8">
-        <v>0.3248558260591139</v>
+        <v>0.301659843288256</v>
       </c>
       <c r="H8">
-        <v>0.01314131733913809</v>
+        <v>0.01044575834619418</v>
       </c>
       <c r="I8">
-        <v>0.03034499738323859</v>
+        <v>0.02171652047981443</v>
       </c>
       <c r="J8">
-        <v>0.3071568814067192</v>
+        <v>0.3146047840787674</v>
       </c>
       <c r="K8">
-        <v>0.471636515889994</v>
+        <v>0.4129133323435461</v>
       </c>
       <c r="L8">
-        <v>0.1432071452786055</v>
+        <v>0.1620852911070756</v>
       </c>
       <c r="M8">
-        <v>1.217443647552244</v>
+        <v>0.1487636554878575</v>
       </c>
       <c r="N8">
-        <v>0.2158736930055056</v>
+        <v>0.129537456295866</v>
       </c>
       <c r="O8">
-        <v>0.1944832581090665</v>
+        <v>1.22689482432483</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2305092960126842</v>
       </c>
       <c r="Q8">
-        <v>1.279025522967913</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1958677582719481</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.220546691747899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8952683981222833</v>
+        <v>0.8555061776866921</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1220219680713299</v>
+        <v>0.11631138829744</v>
       </c>
       <c r="E9">
-        <v>0.09832716211652581</v>
+        <v>0.08863449067997831</v>
       </c>
       <c r="F9">
-        <v>0.5953604700035484</v>
+        <v>0.5632998150260775</v>
       </c>
       <c r="G9">
-        <v>0.3419900082647658</v>
+        <v>0.3149020250045922</v>
       </c>
       <c r="H9">
-        <v>0.007992737719663578</v>
+        <v>0.006152873551837856</v>
       </c>
       <c r="I9">
-        <v>0.02315717815493645</v>
+        <v>0.01645456610571294</v>
       </c>
       <c r="J9">
-        <v>0.3049850489577892</v>
+        <v>0.3130826570142986</v>
       </c>
       <c r="K9">
-        <v>0.4453697098321463</v>
+        <v>0.3867609983428224</v>
       </c>
       <c r="L9">
-        <v>0.1505721234360653</v>
+        <v>0.1498331509320181</v>
       </c>
       <c r="M9">
-        <v>1.576099369382661</v>
+        <v>0.1395026091318572</v>
       </c>
       <c r="N9">
-        <v>0.2855940659805611</v>
+        <v>0.1378116658575816</v>
       </c>
       <c r="O9">
-        <v>0.258054284181398</v>
+        <v>1.60956612008394</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3094584962788787</v>
       </c>
       <c r="Q9">
-        <v>1.311451974120089</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2604023462705314</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.239254366349641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.050164612581909</v>
+        <v>1.002516100509325</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1299864163179123</v>
+        <v>0.1245130751363277</v>
       </c>
       <c r="E10">
-        <v>0.09943334142799998</v>
+        <v>0.08960433102964238</v>
       </c>
       <c r="F10">
-        <v>0.6071783982934278</v>
+        <v>0.5674087892946602</v>
       </c>
       <c r="G10">
-        <v>0.3511700905015687</v>
+        <v>0.3346863923278818</v>
       </c>
       <c r="H10">
-        <v>0.005515088041255112</v>
+        <v>0.004175388915680145</v>
       </c>
       <c r="I10">
-        <v>0.01916013963013707</v>
+        <v>0.01369498969163274</v>
       </c>
       <c r="J10">
-        <v>0.3019337075027266</v>
+        <v>0.2929923588833745</v>
       </c>
       <c r="K10">
-        <v>0.423341922908401</v>
+        <v>0.3647141098969833</v>
       </c>
       <c r="L10">
-        <v>0.1568589598757022</v>
+        <v>0.1407118534707994</v>
       </c>
       <c r="M10">
-        <v>1.85280856129711</v>
+        <v>0.1330917025879046</v>
       </c>
       <c r="N10">
-        <v>0.3320143664792283</v>
+        <v>0.145016715961809</v>
       </c>
       <c r="O10">
-        <v>0.3016075849212214</v>
+        <v>1.899274856218568</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3610280439500713</v>
       </c>
       <c r="Q10">
-        <v>1.324965870501956</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3046028601717481</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.231777058938519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.074976329497275</v>
+        <v>1.040372737916158</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1165126859851782</v>
+        <v>0.1133656943085555</v>
       </c>
       <c r="E11">
-        <v>0.09483766337035215</v>
+        <v>0.08637842119696537</v>
       </c>
       <c r="F11">
-        <v>0.5453480003048412</v>
+        <v>0.5042839290403123</v>
       </c>
       <c r="G11">
-        <v>0.3114660253210957</v>
+        <v>0.3251242121812439</v>
       </c>
       <c r="H11">
-        <v>0.02404412761683261</v>
+        <v>0.02277582674172152</v>
       </c>
       <c r="I11">
-        <v>0.01877326969391202</v>
+        <v>0.0137403794085893</v>
       </c>
       <c r="J11">
-        <v>0.2779455783467952</v>
+        <v>0.2443638716315775</v>
       </c>
       <c r="K11">
-        <v>0.3865511861955291</v>
+        <v>0.3352990718447124</v>
       </c>
       <c r="L11">
-        <v>0.1759054613134303</v>
+        <v>0.13105472402304</v>
       </c>
       <c r="M11">
-        <v>2.072055553908712</v>
+        <v>0.1216325816344845</v>
       </c>
       <c r="N11">
-        <v>0.2982457628801001</v>
+        <v>0.1659640318484534</v>
       </c>
       <c r="O11">
-        <v>0.2932632871015741</v>
+        <v>2.101171196852704</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.318405904515032</v>
       </c>
       <c r="Q11">
-        <v>1.190750149354074</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2958699301547796</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.088808425066105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.066970429038946</v>
+        <v>1.043619688610448</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1046603265134607</v>
+        <v>0.102648520937791</v>
       </c>
       <c r="E12">
-        <v>0.0953971386553798</v>
+        <v>0.0874717885464511</v>
       </c>
       <c r="F12">
-        <v>0.4950391704738664</v>
+        <v>0.4568893076993206</v>
       </c>
       <c r="G12">
-        <v>0.278965713690809</v>
+        <v>0.3060842954198222</v>
       </c>
       <c r="H12">
-        <v>0.06288287967685591</v>
+        <v>0.06161387140058849</v>
       </c>
       <c r="I12">
-        <v>0.01863584082743142</v>
+        <v>0.01366101300362477</v>
       </c>
       <c r="J12">
-        <v>0.2597016036097699</v>
+        <v>0.2222931140377185</v>
       </c>
       <c r="K12">
-        <v>0.3663408732684932</v>
+        <v>0.3207937607685634</v>
       </c>
       <c r="L12">
-        <v>0.2001990761256351</v>
+        <v>0.1271546568774542</v>
       </c>
       <c r="M12">
-        <v>2.197076329841821</v>
+        <v>0.1150687422901182</v>
       </c>
       <c r="N12">
-        <v>0.2593988529909694</v>
+        <v>0.1906393231097567</v>
       </c>
       <c r="O12">
-        <v>0.2768890285522119</v>
+        <v>2.209819872327046</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2723702843017008</v>
       </c>
       <c r="Q12">
-        <v>1.08371625237352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2790356946741355</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.9865643596844933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.029054889740337</v>
+        <v>1.015572279878342</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0931036823988407</v>
+        <v>0.09124624568472939</v>
       </c>
       <c r="E13">
-        <v>0.09957303640196002</v>
+        <v>0.09176913598591518</v>
       </c>
       <c r="F13">
-        <v>0.4483339767809085</v>
+        <v>0.4174133235862456</v>
       </c>
       <c r="G13">
-        <v>0.2483622593438071</v>
+        <v>0.2725585755800282</v>
       </c>
       <c r="H13">
-        <v>0.119007832113553</v>
+        <v>0.1176702044869273</v>
       </c>
       <c r="I13">
-        <v>0.019152092999704</v>
+        <v>0.01401119634665537</v>
       </c>
       <c r="J13">
-        <v>0.2438579342918885</v>
+        <v>0.2162573986691605</v>
       </c>
       <c r="K13">
-        <v>0.3556478880266118</v>
+        <v>0.3146918994505401</v>
       </c>
       <c r="L13">
-        <v>0.2295334780683049</v>
+        <v>0.1259152554869258</v>
       </c>
       <c r="M13">
-        <v>2.26153831727882</v>
+        <v>0.1116124605688307</v>
       </c>
       <c r="N13">
-        <v>0.2171962070521261</v>
+        <v>0.2193298263550361</v>
       </c>
       <c r="O13">
-        <v>0.253697579863708</v>
+        <v>2.259470603838707</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.2241323179574977</v>
       </c>
       <c r="Q13">
-        <v>0.9856426631782114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2552814287485141</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.9068018781450604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9883145425730504</v>
+        <v>0.9811542168922927</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.08529350000200253</v>
+        <v>0.08320765594073976</v>
       </c>
       <c r="E14">
-        <v>0.1046658350909446</v>
+        <v>0.09676427925750453</v>
       </c>
       <c r="F14">
-        <v>0.4174708506007789</v>
+        <v>0.392977484443378</v>
       </c>
       <c r="G14">
-        <v>0.2278927881525945</v>
+        <v>0.2440255794437149</v>
       </c>
       <c r="H14">
-        <v>0.1686988912277201</v>
+        <v>0.1672826326597345</v>
       </c>
       <c r="I14">
-        <v>0.01991723999359962</v>
+        <v>0.01457027012916168</v>
       </c>
       <c r="J14">
-        <v>0.2338634836904134</v>
+        <v>0.2174339641174008</v>
       </c>
       <c r="K14">
-        <v>0.3528787550840665</v>
+        <v>0.3141086103982667</v>
       </c>
       <c r="L14">
-        <v>0.2534720107216444</v>
+        <v>0.1259944158941861</v>
       </c>
       <c r="M14">
-        <v>2.280487790836702</v>
+        <v>0.1107769661834889</v>
       </c>
       <c r="N14">
-        <v>0.1870952965841468</v>
+        <v>0.2422069163504474</v>
       </c>
       <c r="O14">
-        <v>0.2345833289580952</v>
+        <v>2.268634202810318</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1903894891737252</v>
       </c>
       <c r="Q14">
-        <v>0.9212663923347861</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2357343040456819</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.8597486645702048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9711079208412343</v>
+        <v>0.9652962518995025</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.08330528096168877</v>
+        <v>0.08104975119535851</v>
       </c>
       <c r="E15">
-        <v>0.1061300252663848</v>
+        <v>0.09820842865479662</v>
       </c>
       <c r="F15">
-        <v>0.4100729057895478</v>
+        <v>0.3878171916957776</v>
       </c>
       <c r="G15">
-        <v>0.2228593925581777</v>
+        <v>0.2346887714414052</v>
       </c>
       <c r="H15">
-        <v>0.1813843059754277</v>
+        <v>0.179926888576972</v>
       </c>
       <c r="I15">
-        <v>0.02040261583213354</v>
+        <v>0.01497283875733846</v>
       </c>
       <c r="J15">
-        <v>0.2317180726420176</v>
+        <v>0.2200215421130522</v>
       </c>
       <c r="K15">
-        <v>0.3535261062262032</v>
+        <v>0.3150534350619543</v>
       </c>
       <c r="L15">
-        <v>0.2592935882483758</v>
+        <v>0.1262142956201355</v>
       </c>
       <c r="M15">
-        <v>2.273155064330041</v>
+        <v>0.1110855455714416</v>
       </c>
       <c r="N15">
-        <v>0.1793252238877869</v>
+        <v>0.2476683243296591</v>
       </c>
       <c r="O15">
-        <v>0.228552780828494</v>
+        <v>2.259242596013024</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1818217577781098</v>
       </c>
       <c r="Q15">
-        <v>0.9060709426795199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2295747987970245</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.8508828401015904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9114969645700626</v>
+        <v>0.9037355723745577</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.08235663450749087</v>
+        <v>0.07915338516122006</v>
       </c>
       <c r="E16">
-        <v>0.1044890084142338</v>
+        <v>0.09685034057358699</v>
       </c>
       <c r="F16">
-        <v>0.4136463682502978</v>
+        <v>0.3972586386967869</v>
       </c>
       <c r="G16">
-        <v>0.2243602526582222</v>
+        <v>0.2170282984626439</v>
       </c>
       <c r="H16">
-        <v>0.1696968312528497</v>
+        <v>0.1680042848679051</v>
       </c>
       <c r="I16">
-        <v>0.02218783168550953</v>
+        <v>0.01626594821276051</v>
       </c>
       <c r="J16">
-        <v>0.2357045647509821</v>
+        <v>0.2433767734303487</v>
       </c>
       <c r="K16">
-        <v>0.3637596616135093</v>
+        <v>0.3239894012225673</v>
       </c>
       <c r="L16">
-        <v>0.2496139022726283</v>
+        <v>0.1277533388943772</v>
       </c>
       <c r="M16">
-        <v>2.140188748260613</v>
+        <v>0.1153896043800257</v>
       </c>
       <c r="N16">
-        <v>0.1698512372784364</v>
+        <v>0.2378485848086882</v>
       </c>
       <c r="O16">
-        <v>0.2152099331643704</v>
+        <v>2.130040241777692</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1728059062861007</v>
       </c>
       <c r="Q16">
-        <v>0.9174140291362676</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2160299710119986</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.8804126842298245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8872467112485083</v>
+        <v>0.8752382850438778</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08564820662965644</v>
+        <v>0.08189256035390002</v>
       </c>
       <c r="E17">
-        <v>0.1001759025885427</v>
+        <v>0.09272196926722565</v>
       </c>
       <c r="F17">
-        <v>0.4325795424316681</v>
+        <v>0.4170364545068068</v>
       </c>
       <c r="G17">
-        <v>0.2362901079367248</v>
+        <v>0.2203329154526728</v>
       </c>
       <c r="H17">
-        <v>0.1325590573332107</v>
+        <v>0.1307270382964276</v>
       </c>
       <c r="I17">
-        <v>0.02318662246739933</v>
+        <v>0.01700005406084237</v>
       </c>
       <c r="J17">
-        <v>0.2440659317812433</v>
+        <v>0.260484554767892</v>
       </c>
       <c r="K17">
-        <v>0.3728212809171992</v>
+        <v>0.3314346528212884</v>
       </c>
       <c r="L17">
-        <v>0.2288399627311222</v>
+        <v>0.1294316361600492</v>
       </c>
       <c r="M17">
-        <v>2.028671639519274</v>
+        <v>0.1189054559110321</v>
       </c>
       <c r="N17">
-        <v>0.1783030889410497</v>
+        <v>0.2175752988534398</v>
       </c>
       <c r="O17">
-        <v>0.2150275752093833</v>
+        <v>2.025453121820107</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1832935645624474</v>
       </c>
       <c r="Q17">
-        <v>0.960099160480695</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2159241085950683</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.9268772028068781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.89271446670449</v>
+        <v>0.8730777972330372</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09357885169333713</v>
+        <v>0.08923884992267972</v>
       </c>
       <c r="E18">
-        <v>0.09514048511429696</v>
+        <v>0.08765575954946581</v>
       </c>
       <c r="F18">
-        <v>0.4690553066637264</v>
+        <v>0.451056482051051</v>
       </c>
       <c r="G18">
-        <v>0.2599871212564508</v>
+        <v>0.2383853447184094</v>
       </c>
       <c r="H18">
-        <v>0.07991917021237072</v>
+        <v>0.07804253338345291</v>
       </c>
       <c r="I18">
-        <v>0.02319208158107422</v>
+        <v>0.01687852972166581</v>
       </c>
       <c r="J18">
-        <v>0.2578142337489311</v>
+        <v>0.2771878533147643</v>
       </c>
       <c r="K18">
-        <v>0.3844872116839007</v>
+        <v>0.3404511451612344</v>
       </c>
       <c r="L18">
-        <v>0.2002053128496115</v>
+        <v>0.13222231938895</v>
       </c>
       <c r="M18">
-        <v>1.920864892233595</v>
+        <v>0.1227084084951531</v>
       </c>
       <c r="N18">
-        <v>0.2032528314847752</v>
+        <v>0.1896933633756959</v>
       </c>
       <c r="O18">
-        <v>0.2261922811801576</v>
+        <v>1.929315923314562</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.2125313924627079</v>
       </c>
       <c r="Q18">
-        <v>1.039062121601503</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2274176745122638</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.000767886317576</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9166149136967476</v>
+        <v>0.8871724421889837</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1052055206236489</v>
+        <v>0.100160710329277</v>
       </c>
       <c r="E19">
-        <v>0.09314981923002708</v>
+        <v>0.08515687691338858</v>
       </c>
       <c r="F19">
-        <v>0.5170817664919127</v>
+        <v>0.4943038867679377</v>
       </c>
       <c r="G19">
-        <v>0.2912648912467333</v>
+        <v>0.2650894818306142</v>
       </c>
       <c r="H19">
-        <v>0.03425467240295887</v>
+        <v>0.03244195998722432</v>
       </c>
       <c r="I19">
-        <v>0.0230018867623567</v>
+        <v>0.01679508714051714</v>
       </c>
       <c r="J19">
-        <v>0.2746480332969981</v>
+        <v>0.29348117464788</v>
       </c>
       <c r="K19">
-        <v>0.3999458217911753</v>
+        <v>0.3517768246318029</v>
       </c>
       <c r="L19">
-        <v>0.1747846474680195</v>
+        <v>0.1362700713425222</v>
       </c>
       <c r="M19">
-        <v>1.834088994555998</v>
+        <v>0.1271128185206996</v>
       </c>
       <c r="N19">
-        <v>0.2442667798097347</v>
+        <v>0.1644199534806781</v>
       </c>
       <c r="O19">
-        <v>0.2462462154217206</v>
+        <v>1.856655279513916</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2599192837608086</v>
       </c>
       <c r="Q19">
-        <v>1.140604886591078</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2479834116317718</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.091279849329212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.000906496425188</v>
+        <v>0.9548835970182097</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1272215159864629</v>
+        <v>0.1212354543907352</v>
       </c>
       <c r="E20">
-        <v>0.09869365484780968</v>
+        <v>0.08897546502238329</v>
       </c>
       <c r="F20">
-        <v>0.59925564453021</v>
+        <v>0.5644720319607899</v>
       </c>
       <c r="G20">
-        <v>0.3452394981216997</v>
+        <v>0.3184903234187715</v>
       </c>
       <c r="H20">
-        <v>0.006109675621749577</v>
+        <v>0.004632390547628429</v>
       </c>
       <c r="I20">
-        <v>0.02113651519653281</v>
+        <v>0.01548278002681425</v>
       </c>
       <c r="J20">
-        <v>0.3008681041113732</v>
+        <v>0.3071786835004957</v>
       </c>
       <c r="K20">
-        <v>0.4256809461846753</v>
+        <v>0.3684387776117699</v>
       </c>
       <c r="L20">
-        <v>0.1554989510877558</v>
+        <v>0.1422731937002739</v>
       </c>
       <c r="M20">
-        <v>1.792607792917238</v>
+        <v>0.1339004581030832</v>
       </c>
       <c r="N20">
-        <v>0.3246021871754579</v>
+        <v>0.1436321849485367</v>
       </c>
       <c r="O20">
-        <v>0.2904187347674565</v>
+        <v>1.837264482186214</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3526257542788045</v>
       </c>
       <c r="Q20">
-        <v>1.310049011408651</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2931932671272435</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.231148137453573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.128072311480651</v>
+        <v>1.08012109989707</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1365955545589799</v>
+        <v>0.1333546987854533</v>
       </c>
       <c r="E21">
-        <v>0.1010882389290577</v>
+        <v>0.09104795990026471</v>
       </c>
       <c r="F21">
-        <v>0.6222381079339243</v>
+        <v>0.5667436990258139</v>
       </c>
       <c r="G21">
-        <v>0.3616257591782386</v>
+        <v>0.3856467127740615</v>
       </c>
       <c r="H21">
-        <v>0.004041943360852396</v>
+        <v>0.002982351128028804</v>
       </c>
       <c r="I21">
-        <v>0.01804124861476719</v>
+        <v>0.01334369583775175</v>
       </c>
       <c r="J21">
-        <v>0.303430909730352</v>
+        <v>0.2481762402971839</v>
       </c>
       <c r="K21">
-        <v>0.4151852590020155</v>
+        <v>0.3529441999520966</v>
       </c>
       <c r="L21">
-        <v>0.1587269185344233</v>
+        <v>0.1363379635010258</v>
       </c>
       <c r="M21">
-        <v>1.98839248365374</v>
+        <v>0.1297368303261344</v>
       </c>
       <c r="N21">
-        <v>0.3701330064613302</v>
+        <v>0.1466211732070626</v>
       </c>
       <c r="O21">
-        <v>0.3288559478767397</v>
+        <v>2.034223934911296</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4010230073229764</v>
       </c>
       <c r="Q21">
-        <v>1.350484200316458</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3323906840981721</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.211500326663938</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.212016979899261</v>
+        <v>1.163837540918735</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1419501801307916</v>
+        <v>0.140899221021229</v>
       </c>
       <c r="E22">
-        <v>0.1023262233098796</v>
+        <v>0.09220966490013272</v>
       </c>
       <c r="F22">
-        <v>0.6356168770220165</v>
+        <v>0.5656393242164199</v>
       </c>
       <c r="G22">
-        <v>0.3715280640504659</v>
+        <v>0.4364617757139939</v>
       </c>
       <c r="H22">
-        <v>0.003046431539832084</v>
+        <v>0.002210486023354052</v>
       </c>
       <c r="I22">
-        <v>0.01588657196714482</v>
+        <v>0.01169254692454214</v>
       </c>
       <c r="J22">
-        <v>0.3047480112384875</v>
+        <v>0.2163113697990511</v>
       </c>
       <c r="K22">
-        <v>0.4081625103776965</v>
+        <v>0.3426222632603189</v>
       </c>
       <c r="L22">
-        <v>0.1612408841342603</v>
+        <v>0.1326618114162077</v>
       </c>
       <c r="M22">
-        <v>2.116628233104791</v>
+        <v>0.1270958470964647</v>
       </c>
       <c r="N22">
-        <v>0.3945251463734252</v>
+        <v>0.1490857264387024</v>
       </c>
       <c r="O22">
-        <v>0.3521838483164075</v>
+        <v>2.161555648410712</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.4265114490714836</v>
       </c>
       <c r="Q22">
-        <v>1.374443277762452</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3561884785413767</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.193319092714887</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.170493502592194</v>
+        <v>1.121206478596235</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1393148243124642</v>
+        <v>0.1366683430716691</v>
       </c>
       <c r="E23">
-        <v>0.1018266478297063</v>
+        <v>0.09169449233607452</v>
       </c>
       <c r="F23">
-        <v>0.630050040777796</v>
+        <v>0.5694470642683527</v>
       </c>
       <c r="G23">
-        <v>0.3673839322849659</v>
+        <v>0.4035607646836752</v>
       </c>
       <c r="H23">
-        <v>0.003553092799333468</v>
+        <v>0.002597839021583281</v>
       </c>
       <c r="I23">
-        <v>0.0166449614206341</v>
+        <v>0.01212488749652518</v>
       </c>
       <c r="J23">
-        <v>0.3046387765594716</v>
+        <v>0.2376313437405742</v>
       </c>
       <c r="K23">
-        <v>0.4130955661322382</v>
+        <v>0.3494271491292871</v>
       </c>
       <c r="L23">
-        <v>0.1598109496515185</v>
+        <v>0.1349748562415813</v>
       </c>
       <c r="M23">
-        <v>2.043498596413968</v>
+        <v>0.129087500415487</v>
       </c>
       <c r="N23">
-        <v>0.3795149598278016</v>
+        <v>0.14770125825817</v>
       </c>
       <c r="O23">
-        <v>0.339584082257268</v>
+        <v>2.090785208468617</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4114016154061773</v>
       </c>
       <c r="Q23">
-        <v>1.365317896498368</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3433283866162498</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.21173898296486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.00745481600984</v>
+        <v>0.9599562063073392</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.12900808957869</v>
+        <v>0.1228789751392227</v>
       </c>
       <c r="E24">
-        <v>0.09965359182230493</v>
+        <v>0.08972547060889813</v>
       </c>
       <c r="F24">
-        <v>0.6075689591821742</v>
+        <v>0.5719971088248599</v>
       </c>
       <c r="G24">
-        <v>0.3508362519717423</v>
+        <v>0.3230742340940509</v>
       </c>
       <c r="H24">
-        <v>0.005893070163555114</v>
+        <v>0.004429373706772821</v>
       </c>
       <c r="I24">
-        <v>0.02050420230024042</v>
+        <v>0.01476836118034708</v>
       </c>
       <c r="J24">
-        <v>0.3038641667578972</v>
+        <v>0.3103385038395885</v>
       </c>
       <c r="K24">
-        <v>0.4304031387881491</v>
+        <v>0.3720115282394438</v>
       </c>
       <c r="L24">
-        <v>0.1545159194067782</v>
+        <v>0.1435549068453206</v>
       </c>
       <c r="M24">
-        <v>1.774778942151414</v>
+        <v>0.1352821476877963</v>
       </c>
       <c r="N24">
-        <v>0.3262741456421878</v>
+        <v>0.1423647113481401</v>
       </c>
       <c r="O24">
-        <v>0.2921580262343539</v>
+        <v>1.821024042668739</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3552226148569844</v>
       </c>
       <c r="Q24">
-        <v>1.328182678416383</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2950031539526492</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.247518774438774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8306993036553081</v>
+        <v>0.7949491309095151</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1179734458794215</v>
+        <v>0.112349008734995</v>
       </c>
       <c r="E25">
-        <v>0.09725974072112553</v>
+        <v>0.08775409122641253</v>
       </c>
       <c r="F25">
-        <v>0.5858606263606703</v>
+        <v>0.5566939632948547</v>
       </c>
       <c r="G25">
-        <v>0.3351382753845371</v>
+        <v>0.3062063488969429</v>
       </c>
       <c r="H25">
-        <v>0.009236354314282491</v>
+        <v>0.007177342993014729</v>
       </c>
       <c r="I25">
-        <v>0.02549073808920088</v>
+        <v>0.01836279254527806</v>
       </c>
       <c r="J25">
-        <v>0.3043535103045016</v>
+        <v>0.3169729757295769</v>
       </c>
       <c r="K25">
-        <v>0.4503180829895275</v>
+        <v>0.3923685621427335</v>
       </c>
       <c r="L25">
-        <v>0.1487144969815102</v>
+        <v>0.1523991681594499</v>
       </c>
       <c r="M25">
-        <v>1.485796542680077</v>
+        <v>0.1412334785984548</v>
       </c>
       <c r="N25">
-        <v>0.2695131818479268</v>
+        <v>0.1357902753113915</v>
       </c>
       <c r="O25">
-        <v>0.2410732260757982</v>
+        <v>1.513176506166445</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2909294282973747</v>
       </c>
       <c r="Q25">
-        <v>1.295434769331195</v>
+        <v>0.2431379288890696</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.23074389226359</v>
       </c>
     </row>
   </sheetData>
